--- a/BackTest/2020-01-19 BackTest MIX.xlsx
+++ b/BackTest/2020-01-19 BackTest MIX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M215"/>
+  <dimension ref="A1:M216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.007</v>
+        <v>3.016</v>
       </c>
       <c r="C2" t="n">
-        <v>3.006</v>
+        <v>3.009</v>
       </c>
       <c r="D2" t="n">
-        <v>3.007</v>
+        <v>3.016</v>
       </c>
       <c r="E2" t="n">
-        <v>3.006</v>
+        <v>3.009</v>
       </c>
       <c r="F2" t="n">
-        <v>66771.6526</v>
+        <v>7028.8123</v>
       </c>
       <c r="G2" t="n">
-        <v>2.997466666666664</v>
+        <v>2.997799999999998</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.003</v>
+        <v>3.007</v>
       </c>
       <c r="C3" t="n">
-        <v>2.996</v>
+        <v>3.006</v>
       </c>
       <c r="D3" t="n">
-        <v>3.003</v>
+        <v>3.007</v>
       </c>
       <c r="E3" t="n">
-        <v>2.996</v>
+        <v>3.006</v>
       </c>
       <c r="F3" t="n">
-        <v>24953.4497</v>
+        <v>66771.6526</v>
       </c>
       <c r="G3" t="n">
         <v>2.997466666666664</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>3.003</v>
+      </c>
+      <c r="C4" t="n">
         <v>2.996</v>
       </c>
-      <c r="C4" t="n">
-        <v>2.982</v>
-      </c>
       <c r="D4" t="n">
+        <v>3.003</v>
+      </c>
+      <c r="E4" t="n">
         <v>2.996</v>
       </c>
-      <c r="E4" t="n">
-        <v>2.982</v>
-      </c>
       <c r="F4" t="n">
-        <v>2000</v>
+        <v>24953.4497</v>
       </c>
       <c r="G4" t="n">
-        <v>2.996733333333331</v>
+        <v>2.997466666666664</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.008</v>
+        <v>2.996</v>
       </c>
       <c r="C5" t="n">
-        <v>3.008</v>
+        <v>2.982</v>
       </c>
       <c r="D5" t="n">
-        <v>3.008</v>
+        <v>2.996</v>
       </c>
       <c r="E5" t="n">
-        <v>3.008</v>
+        <v>2.982</v>
       </c>
       <c r="F5" t="n">
-        <v>4112.4142</v>
+        <v>2000</v>
       </c>
       <c r="G5" t="n">
-        <v>2.996933333333331</v>
+        <v>2.996733333333331</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>3.008</v>
       </c>
       <c r="C6" t="n">
-        <v>3.003</v>
+        <v>3.008</v>
       </c>
       <c r="D6" t="n">
         <v>3.008</v>
       </c>
       <c r="E6" t="n">
-        <v>3.003</v>
+        <v>3.008</v>
       </c>
       <c r="F6" t="n">
-        <v>9893.2978</v>
+        <v>4112.4142</v>
       </c>
       <c r="G6" t="n">
-        <v>2.996549999999997</v>
+        <v>2.996933333333331</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.999</v>
+        <v>3.008</v>
       </c>
       <c r="C7" t="n">
-        <v>2.999</v>
+        <v>3.003</v>
       </c>
       <c r="D7" t="n">
-        <v>2.999</v>
+        <v>3.008</v>
       </c>
       <c r="E7" t="n">
-        <v>2.999</v>
+        <v>3.003</v>
       </c>
       <c r="F7" t="n">
-        <v>12004.856</v>
+        <v>9893.2978</v>
       </c>
       <c r="G7" t="n">
-        <v>2.996766666666664</v>
+        <v>2.996549999999997</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>2.999</v>
       </c>
       <c r="F8" t="n">
-        <v>314269.1753</v>
+        <v>12004.856</v>
       </c>
       <c r="G8" t="n">
-        <v>2.996983333333331</v>
+        <v>2.996766666666664</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>2.999</v>
       </c>
       <c r="F9" t="n">
-        <v>1013861.5748</v>
+        <v>314269.1753</v>
       </c>
       <c r="G9" t="n">
-        <v>2.99703333333333</v>
+        <v>2.996983333333331</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>2.999</v>
       </c>
       <c r="F10" t="n">
-        <v>94280.5533</v>
+        <v>1013861.5748</v>
       </c>
       <c r="G10" t="n">
-        <v>2.997299999999997</v>
+        <v>2.99703333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.992</v>
+        <v>2.999</v>
       </c>
       <c r="C11" t="n">
-        <v>2.992</v>
+        <v>2.999</v>
       </c>
       <c r="D11" t="n">
-        <v>2.992</v>
+        <v>2.999</v>
       </c>
       <c r="E11" t="n">
-        <v>2.992</v>
+        <v>2.999</v>
       </c>
       <c r="F11" t="n">
-        <v>3500</v>
+        <v>94280.5533</v>
       </c>
       <c r="G11" t="n">
-        <v>2.998099999999997</v>
+        <v>2.997299999999997</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>2.992</v>
       </c>
       <c r="F12" t="n">
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="G12" t="n">
-        <v>2.99888333333333</v>
+        <v>2.998099999999997</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.991</v>
+        <v>2.992</v>
       </c>
       <c r="C13" t="n">
-        <v>2.988</v>
+        <v>2.992</v>
       </c>
       <c r="D13" t="n">
-        <v>2.991</v>
+        <v>2.992</v>
       </c>
       <c r="E13" t="n">
-        <v>2.988</v>
+        <v>2.992</v>
       </c>
       <c r="F13" t="n">
-        <v>19007.856</v>
+        <v>30000</v>
       </c>
       <c r="G13" t="n">
-        <v>2.999716666666664</v>
+        <v>2.99888333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.988</v>
+        <v>2.991</v>
       </c>
       <c r="C14" t="n">
         <v>2.988</v>
       </c>
       <c r="D14" t="n">
-        <v>2.988</v>
+        <v>2.991</v>
       </c>
       <c r="E14" t="n">
         <v>2.988</v>
       </c>
       <c r="F14" t="n">
-        <v>50920.6234</v>
+        <v>19007.856</v>
       </c>
       <c r="G14" t="n">
-        <v>3.000616666666664</v>
+        <v>2.999716666666664</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,19 +900,23 @@
         <v>2.988</v>
       </c>
       <c r="F15" t="n">
-        <v>272669.449</v>
+        <v>50920.6234</v>
       </c>
       <c r="G15" t="n">
-        <v>3.00158333333333</v>
+        <v>3.000616666666664</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.988</v>
+      </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
@@ -923,32 +927,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.987</v>
+        <v>2.988</v>
       </c>
       <c r="C16" t="n">
-        <v>2.999</v>
+        <v>2.988</v>
       </c>
       <c r="D16" t="n">
-        <v>2.999</v>
+        <v>2.988</v>
       </c>
       <c r="E16" t="n">
-        <v>2.987</v>
+        <v>2.988</v>
       </c>
       <c r="F16" t="n">
-        <v>1474.856</v>
+        <v>272669.449</v>
       </c>
       <c r="G16" t="n">
-        <v>3.002449999999997</v>
+        <v>3.00158333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -958,7 +970,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2.999</v>
+        <v>2.987</v>
       </c>
       <c r="C17" t="n">
         <v>2.999</v>
@@ -967,23 +979,31 @@
         <v>2.999</v>
       </c>
       <c r="E17" t="n">
-        <v>2.999</v>
+        <v>2.987</v>
       </c>
       <c r="F17" t="n">
-        <v>365161.8812</v>
+        <v>1474.856</v>
       </c>
       <c r="G17" t="n">
-        <v>3.003299999999997</v>
+        <v>3.002449999999997</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -993,22 +1013,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2.993</v>
+        <v>2.999</v>
       </c>
       <c r="C18" t="n">
-        <v>2.983</v>
+        <v>2.999</v>
       </c>
       <c r="D18" t="n">
-        <v>2.993</v>
+        <v>2.999</v>
       </c>
       <c r="E18" t="n">
-        <v>2.983</v>
+        <v>2.999</v>
       </c>
       <c r="F18" t="n">
-        <v>210564.1176</v>
+        <v>365161.8812</v>
       </c>
       <c r="G18" t="n">
-        <v>3.00388333333333</v>
+        <v>3.003299999999997</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1017,8 +1037,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1028,22 +1054,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.983</v>
+        <v>2.993</v>
       </c>
       <c r="C19" t="n">
         <v>2.983</v>
       </c>
       <c r="D19" t="n">
-        <v>2.983</v>
+        <v>2.993</v>
       </c>
       <c r="E19" t="n">
         <v>2.983</v>
       </c>
       <c r="F19" t="n">
-        <v>118976.8538</v>
+        <v>210564.1176</v>
       </c>
       <c r="G19" t="n">
-        <v>3.00443333333333</v>
+        <v>3.00388333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1052,8 +1078,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1063,22 +1095,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.003</v>
+        <v>2.983</v>
       </c>
       <c r="C20" t="n">
-        <v>3.003</v>
+        <v>2.983</v>
       </c>
       <c r="D20" t="n">
-        <v>3.003</v>
+        <v>2.983</v>
       </c>
       <c r="E20" t="n">
-        <v>3.003</v>
+        <v>2.983</v>
       </c>
       <c r="F20" t="n">
-        <v>1205</v>
+        <v>118976.8538</v>
       </c>
       <c r="G20" t="n">
-        <v>3.005316666666664</v>
+        <v>3.00443333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1087,8 +1119,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1098,22 +1136,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.999</v>
+        <v>3.003</v>
       </c>
       <c r="C21" t="n">
-        <v>2.999</v>
+        <v>3.003</v>
       </c>
       <c r="D21" t="n">
-        <v>2.999</v>
+        <v>3.003</v>
       </c>
       <c r="E21" t="n">
-        <v>2.999</v>
+        <v>3.003</v>
       </c>
       <c r="F21" t="n">
-        <v>5098.56</v>
+        <v>1205</v>
       </c>
       <c r="G21" t="n">
-        <v>3.006133333333331</v>
+        <v>3.005316666666664</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1122,8 +1160,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1145,10 +1189,10 @@
         <v>2.999</v>
       </c>
       <c r="F22" t="n">
-        <v>21897.5</v>
+        <v>5098.56</v>
       </c>
       <c r="G22" t="n">
-        <v>3.006983333333331</v>
+        <v>3.006133333333331</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1157,8 +1201,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1171,19 +1221,19 @@
         <v>2.999</v>
       </c>
       <c r="C23" t="n">
-        <v>2.99</v>
+        <v>2.999</v>
       </c>
       <c r="D23" t="n">
         <v>2.999</v>
       </c>
       <c r="E23" t="n">
-        <v>2.99</v>
+        <v>2.999</v>
       </c>
       <c r="F23" t="n">
-        <v>86393.5</v>
+        <v>21897.5</v>
       </c>
       <c r="G23" t="n">
-        <v>3.007466666666664</v>
+        <v>3.006983333333331</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1192,8 +1242,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1203,22 +1259,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.003</v>
+        <v>2.999</v>
       </c>
       <c r="C24" t="n">
-        <v>3.003</v>
+        <v>2.99</v>
       </c>
       <c r="D24" t="n">
-        <v>3.003</v>
+        <v>2.999</v>
       </c>
       <c r="E24" t="n">
-        <v>3.003</v>
+        <v>2.99</v>
       </c>
       <c r="F24" t="n">
-        <v>2507.856</v>
+        <v>86393.5</v>
       </c>
       <c r="G24" t="n">
-        <v>3.007933333333331</v>
+        <v>3.007466666666664</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1227,8 +1283,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1238,22 +1300,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2.998</v>
+        <v>3.003</v>
       </c>
       <c r="C25" t="n">
-        <v>2.998</v>
+        <v>3.003</v>
       </c>
       <c r="D25" t="n">
-        <v>2.998</v>
+        <v>3.003</v>
       </c>
       <c r="E25" t="n">
-        <v>2.998</v>
+        <v>3.003</v>
       </c>
       <c r="F25" t="n">
-        <v>5321.85</v>
+        <v>2507.856</v>
       </c>
       <c r="G25" t="n">
-        <v>3.008316666666664</v>
+        <v>3.007933333333331</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1262,8 +1324,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1273,22 +1341,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.003</v>
+        <v>2.998</v>
       </c>
       <c r="C26" t="n">
-        <v>3.018</v>
+        <v>2.998</v>
       </c>
       <c r="D26" t="n">
-        <v>3.018</v>
+        <v>2.998</v>
       </c>
       <c r="E26" t="n">
-        <v>3.003</v>
+        <v>2.998</v>
       </c>
       <c r="F26" t="n">
-        <v>97425.5583</v>
+        <v>5321.85</v>
       </c>
       <c r="G26" t="n">
-        <v>3.008849999999998</v>
+        <v>3.008316666666664</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1297,8 +1365,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1308,7 +1382,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.018</v>
+        <v>3.003</v>
       </c>
       <c r="C27" t="n">
         <v>3.018</v>
@@ -1317,13 +1391,13 @@
         <v>3.018</v>
       </c>
       <c r="E27" t="n">
-        <v>3.018</v>
+        <v>3.003</v>
       </c>
       <c r="F27" t="n">
-        <v>80119.9644</v>
+        <v>97425.5583</v>
       </c>
       <c r="G27" t="n">
-        <v>3.009566666666665</v>
+        <v>3.008849999999998</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1332,8 +1406,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1355,10 +1435,10 @@
         <v>3.018</v>
       </c>
       <c r="F28" t="n">
-        <v>14667.3005</v>
+        <v>80119.9644</v>
       </c>
       <c r="G28" t="n">
-        <v>3.010283333333331</v>
+        <v>3.009566666666665</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1367,8 +1447,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1378,22 +1464,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.023</v>
+        <v>3.018</v>
       </c>
       <c r="C29" t="n">
-        <v>3.031</v>
+        <v>3.018</v>
       </c>
       <c r="D29" t="n">
-        <v>3.031</v>
+        <v>3.018</v>
       </c>
       <c r="E29" t="n">
-        <v>3.023</v>
+        <v>3.018</v>
       </c>
       <c r="F29" t="n">
-        <v>15000</v>
+        <v>14667.3005</v>
       </c>
       <c r="G29" t="n">
-        <v>3.011383333333332</v>
+        <v>3.010283333333331</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1402,8 +1488,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1413,22 +1505,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.034</v>
+        <v>3.023</v>
       </c>
       <c r="C30" t="n">
-        <v>3.034</v>
+        <v>3.031</v>
       </c>
       <c r="D30" t="n">
-        <v>3.038</v>
+        <v>3.031</v>
       </c>
       <c r="E30" t="n">
-        <v>3.034</v>
+        <v>3.023</v>
       </c>
       <c r="F30" t="n">
-        <v>6700.1332</v>
+        <v>15000</v>
       </c>
       <c r="G30" t="n">
-        <v>3.012366666666665</v>
+        <v>3.011383333333332</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1437,8 +1529,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1454,16 +1552,16 @@
         <v>3.034</v>
       </c>
       <c r="D31" t="n">
-        <v>3.034</v>
+        <v>3.038</v>
       </c>
       <c r="E31" t="n">
         <v>3.034</v>
       </c>
       <c r="F31" t="n">
-        <v>1000</v>
+        <v>6700.1332</v>
       </c>
       <c r="G31" t="n">
-        <v>3.013583333333331</v>
+        <v>3.012366666666665</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1472,8 +1570,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1483,22 +1587,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.038</v>
+        <v>3.034</v>
       </c>
       <c r="C32" t="n">
-        <v>3.038</v>
+        <v>3.034</v>
       </c>
       <c r="D32" t="n">
-        <v>3.038</v>
+        <v>3.034</v>
       </c>
       <c r="E32" t="n">
-        <v>3.038</v>
+        <v>3.034</v>
       </c>
       <c r="F32" t="n">
-        <v>299209.8719</v>
+        <v>1000</v>
       </c>
       <c r="G32" t="n">
-        <v>3.014449999999998</v>
+        <v>3.013583333333331</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1507,8 +1611,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1628,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.034</v>
+        <v>3.038</v>
       </c>
       <c r="C33" t="n">
-        <v>3.034</v>
+        <v>3.038</v>
       </c>
       <c r="D33" t="n">
-        <v>3.034</v>
+        <v>3.038</v>
       </c>
       <c r="E33" t="n">
-        <v>3.034</v>
+        <v>3.038</v>
       </c>
       <c r="F33" t="n">
-        <v>6805.1272</v>
+        <v>299209.8719</v>
       </c>
       <c r="G33" t="n">
-        <v>3.015016666666665</v>
+        <v>3.014449999999998</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1542,8 +1652,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1553,22 +1669,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.038</v>
+        <v>3.034</v>
       </c>
       <c r="C34" t="n">
-        <v>3.039</v>
+        <v>3.034</v>
       </c>
       <c r="D34" t="n">
-        <v>3.039</v>
+        <v>3.034</v>
       </c>
       <c r="E34" t="n">
-        <v>3.038</v>
+        <v>3.034</v>
       </c>
       <c r="F34" t="n">
-        <v>34001</v>
+        <v>6805.1272</v>
       </c>
       <c r="G34" t="n">
-        <v>3.015066666666664</v>
+        <v>3.015016666666665</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1577,8 +1693,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1588,7 +1710,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.039</v>
+        <v>3.038</v>
       </c>
       <c r="C35" t="n">
         <v>3.039</v>
@@ -1597,13 +1719,13 @@
         <v>3.039</v>
       </c>
       <c r="E35" t="n">
-        <v>3.039</v>
+        <v>3.038</v>
       </c>
       <c r="F35" t="n">
-        <v>270933.0476</v>
+        <v>34001</v>
       </c>
       <c r="G35" t="n">
-        <v>3.01508333333333</v>
+        <v>3.015066666666664</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1612,8 +1734,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,22 +1751,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.04</v>
+        <v>3.039</v>
       </c>
       <c r="C36" t="n">
-        <v>3.042</v>
+        <v>3.039</v>
       </c>
       <c r="D36" t="n">
-        <v>3.042</v>
+        <v>3.039</v>
       </c>
       <c r="E36" t="n">
-        <v>3.04</v>
+        <v>3.039</v>
       </c>
       <c r="F36" t="n">
-        <v>398839.8170995064</v>
+        <v>270933.0476</v>
       </c>
       <c r="G36" t="n">
-        <v>3.015116666666664</v>
+        <v>3.01508333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1647,8 +1775,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1658,22 +1792,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.043</v>
+        <v>3.04</v>
       </c>
       <c r="C37" t="n">
-        <v>3.046</v>
+        <v>3.042</v>
       </c>
       <c r="D37" t="n">
-        <v>3.046</v>
+        <v>3.042</v>
       </c>
       <c r="E37" t="n">
-        <v>3.043</v>
+        <v>3.04</v>
       </c>
       <c r="F37" t="n">
-        <v>930265.9025</v>
+        <v>398839.8170995064</v>
       </c>
       <c r="G37" t="n">
-        <v>3.015199999999997</v>
+        <v>3.015116666666664</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1682,8 +1816,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,22 +1833,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>3.043</v>
+      </c>
+      <c r="C38" t="n">
         <v>3.046</v>
       </c>
-      <c r="C38" t="n">
-        <v>3.08</v>
-      </c>
       <c r="D38" t="n">
-        <v>3.08</v>
+        <v>3.046</v>
       </c>
       <c r="E38" t="n">
-        <v>3.046</v>
+        <v>3.043</v>
       </c>
       <c r="F38" t="n">
-        <v>417128.0801</v>
+        <v>930265.9025</v>
       </c>
       <c r="G38" t="n">
-        <v>3.015849999999998</v>
+        <v>3.015199999999997</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1717,8 +1857,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1728,22 +1874,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.087</v>
+        <v>3.046</v>
       </c>
       <c r="C39" t="n">
-        <v>3.099</v>
+        <v>3.08</v>
       </c>
       <c r="D39" t="n">
-        <v>3.099</v>
+        <v>3.08</v>
       </c>
       <c r="E39" t="n">
-        <v>3.087</v>
+        <v>3.046</v>
       </c>
       <c r="F39" t="n">
-        <v>883017.6272</v>
+        <v>417128.0801</v>
       </c>
       <c r="G39" t="n">
-        <v>3.016866666666664</v>
+        <v>3.015849999999998</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1752,8 +1898,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,7 +1915,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.099</v>
+        <v>3.087</v>
       </c>
       <c r="C40" t="n">
         <v>3.099</v>
@@ -1772,13 +1924,13 @@
         <v>3.099</v>
       </c>
       <c r="E40" t="n">
-        <v>3.098</v>
+        <v>3.087</v>
       </c>
       <c r="F40" t="n">
-        <v>1126653.3279</v>
+        <v>883017.6272</v>
       </c>
       <c r="G40" t="n">
-        <v>3.017916666666664</v>
+        <v>3.016866666666664</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,8 +1939,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,22 +1956,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.098</v>
+        <v>3.099</v>
       </c>
       <c r="C41" t="n">
-        <v>3.1</v>
+        <v>3.099</v>
       </c>
       <c r="D41" t="n">
-        <v>3.1</v>
+        <v>3.099</v>
       </c>
       <c r="E41" t="n">
         <v>3.098</v>
       </c>
       <c r="F41" t="n">
-        <v>685535.193</v>
+        <v>1126653.3279</v>
       </c>
       <c r="G41" t="n">
-        <v>3.018916666666664</v>
+        <v>3.017916666666664</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1822,8 +1980,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1833,7 +1997,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.099</v>
+        <v>3.098</v>
       </c>
       <c r="C42" t="n">
         <v>3.1</v>
@@ -1842,23 +2006,29 @@
         <v>3.1</v>
       </c>
       <c r="E42" t="n">
-        <v>3.099</v>
+        <v>3.098</v>
       </c>
       <c r="F42" t="n">
-        <v>882048.8391</v>
+        <v>685535.193</v>
       </c>
       <c r="G42" t="n">
-        <v>3.02008333333333</v>
+        <v>3.018916666666664</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1868,7 +2038,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.1</v>
+        <v>3.099</v>
       </c>
       <c r="C43" t="n">
         <v>3.1</v>
@@ -1877,13 +2047,13 @@
         <v>3.1</v>
       </c>
       <c r="E43" t="n">
-        <v>3.1</v>
+        <v>3.099</v>
       </c>
       <c r="F43" t="n">
-        <v>5098.387096774193</v>
+        <v>882048.8391</v>
       </c>
       <c r="G43" t="n">
-        <v>3.02128333333333</v>
+        <v>3.02008333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1892,8 +2062,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1906,19 +2082,19 @@
         <v>3.1</v>
       </c>
       <c r="C44" t="n">
-        <v>3.12</v>
+        <v>3.1</v>
       </c>
       <c r="D44" t="n">
-        <v>3.12</v>
+        <v>3.1</v>
       </c>
       <c r="E44" t="n">
         <v>3.1</v>
       </c>
       <c r="F44" t="n">
-        <v>1166941.606203226</v>
+        <v>5098.387096774193</v>
       </c>
       <c r="G44" t="n">
-        <v>3.023016666666664</v>
+        <v>3.02128333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1927,10 +2103,16 @@
         <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>1.032483266398929</v>
       </c>
     </row>
     <row r="45">
@@ -1938,28 +2120,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C45" t="n">
         <v>3.12</v>
       </c>
-      <c r="C45" t="n">
-        <v>3.129</v>
-      </c>
       <c r="D45" t="n">
-        <v>3.129</v>
+        <v>3.12</v>
       </c>
       <c r="E45" t="n">
-        <v>3.12</v>
+        <v>3.1</v>
       </c>
       <c r="F45" t="n">
-        <v>642956.2643</v>
+        <v>1166941.606203226</v>
       </c>
       <c r="G45" t="n">
-        <v>3.024999999999997</v>
+        <v>3.023016666666664</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1976,25 +2158,25 @@
         <v>3.12</v>
       </c>
       <c r="C46" t="n">
-        <v>3.12</v>
+        <v>3.129</v>
       </c>
       <c r="D46" t="n">
-        <v>3.12</v>
+        <v>3.129</v>
       </c>
       <c r="E46" t="n">
         <v>3.12</v>
       </c>
       <c r="F46" t="n">
-        <v>33296.4127</v>
+        <v>642956.2643</v>
       </c>
       <c r="G46" t="n">
-        <v>3.026499999999997</v>
+        <v>3.024999999999997</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2011,25 +2193,25 @@
         <v>3.12</v>
       </c>
       <c r="C47" t="n">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="D47" t="n">
-        <v>3.146</v>
+        <v>3.12</v>
       </c>
       <c r="E47" t="n">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="F47" t="n">
-        <v>931565.8517997457</v>
+        <v>33296.4127</v>
       </c>
       <c r="G47" t="n">
-        <v>3.027833333333331</v>
+        <v>3.026499999999997</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2043,22 +2225,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.146</v>
+        <v>3.12</v>
       </c>
       <c r="C48" t="n">
-        <v>3.146</v>
+        <v>3.11</v>
       </c>
       <c r="D48" t="n">
         <v>3.146</v>
       </c>
       <c r="E48" t="n">
-        <v>3.146</v>
+        <v>3.11</v>
       </c>
       <c r="F48" t="n">
-        <v>2304</v>
+        <v>931565.8517997457</v>
       </c>
       <c r="G48" t="n">
-        <v>3.029616666666664</v>
+        <v>3.027833333333331</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2260,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.121</v>
+        <v>3.146</v>
       </c>
       <c r="C49" t="n">
-        <v>3.121</v>
+        <v>3.146</v>
       </c>
       <c r="D49" t="n">
-        <v>3.121</v>
+        <v>3.146</v>
       </c>
       <c r="E49" t="n">
-        <v>3.121</v>
+        <v>3.146</v>
       </c>
       <c r="F49" t="n">
-        <v>6907.856</v>
+        <v>2304</v>
       </c>
       <c r="G49" t="n">
-        <v>3.031366666666664</v>
+        <v>3.029616666666664</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2295,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.11</v>
+        <v>3.121</v>
       </c>
       <c r="C50" t="n">
-        <v>3.11</v>
+        <v>3.121</v>
       </c>
       <c r="D50" t="n">
-        <v>3.11</v>
+        <v>3.121</v>
       </c>
       <c r="E50" t="n">
-        <v>3.11</v>
+        <v>3.121</v>
       </c>
       <c r="F50" t="n">
-        <v>81.43000000000001</v>
+        <v>6907.856</v>
       </c>
       <c r="G50" t="n">
-        <v>3.033033333333331</v>
+        <v>3.031366666666664</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,7 +2330,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3.109</v>
+        <v>3.11</v>
       </c>
       <c r="C51" t="n">
         <v>3.11</v>
@@ -2157,13 +2339,13 @@
         <v>3.11</v>
       </c>
       <c r="E51" t="n">
-        <v>3.109</v>
+        <v>3.11</v>
       </c>
       <c r="F51" t="n">
-        <v>11001.895</v>
+        <v>81.43000000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>3.034599999999998</v>
+        <v>3.033033333333331</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2365,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3.09</v>
+        <v>3.109</v>
       </c>
       <c r="C52" t="n">
-        <v>3.081</v>
+        <v>3.11</v>
       </c>
       <c r="D52" t="n">
         <v>3.11</v>
       </c>
       <c r="E52" t="n">
-        <v>3.081</v>
+        <v>3.109</v>
       </c>
       <c r="F52" t="n">
-        <v>187803.0483</v>
+        <v>11001.895</v>
       </c>
       <c r="G52" t="n">
-        <v>3.035466666666665</v>
+        <v>3.034599999999998</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2400,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.11</v>
+        <v>3.09</v>
       </c>
       <c r="C53" t="n">
-        <v>3.11</v>
+        <v>3.081</v>
       </c>
       <c r="D53" t="n">
         <v>3.11</v>
       </c>
       <c r="E53" t="n">
-        <v>3.11</v>
+        <v>3.081</v>
       </c>
       <c r="F53" t="n">
-        <v>1688.5309</v>
+        <v>187803.0483</v>
       </c>
       <c r="G53" t="n">
-        <v>3.036816666666665</v>
+        <v>3.035466666666665</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2435,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="C54" t="n">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="D54" t="n">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="E54" t="n">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="F54" t="n">
-        <v>2107.856</v>
+        <v>1688.5309</v>
       </c>
       <c r="G54" t="n">
-        <v>3.037816666666665</v>
+        <v>3.036816666666665</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2470,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3.091</v>
+        <v>3.1</v>
       </c>
       <c r="C55" t="n">
-        <v>3.091</v>
+        <v>3.1</v>
       </c>
       <c r="D55" t="n">
-        <v>3.091</v>
+        <v>3.1</v>
       </c>
       <c r="E55" t="n">
-        <v>3.091</v>
+        <v>3.1</v>
       </c>
       <c r="F55" t="n">
-        <v>4500</v>
+        <v>2107.856</v>
       </c>
       <c r="G55" t="n">
-        <v>3.038766666666666</v>
+        <v>3.037816666666665</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2505,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3.082</v>
+        <v>3.091</v>
       </c>
       <c r="C56" t="n">
-        <v>3.081</v>
+        <v>3.091</v>
       </c>
       <c r="D56" t="n">
-        <v>3.082</v>
+        <v>3.091</v>
       </c>
       <c r="E56" t="n">
-        <v>3.081</v>
+        <v>3.091</v>
       </c>
       <c r="F56" t="n">
-        <v>16119.1511</v>
+        <v>4500</v>
       </c>
       <c r="G56" t="n">
-        <v>3.039783333333332</v>
+        <v>3.038766666666666</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,19 +2540,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3.08</v>
+        <v>3.082</v>
       </c>
       <c r="C57" t="n">
-        <v>3.03</v>
+        <v>3.081</v>
       </c>
       <c r="D57" t="n">
-        <v>3.08</v>
+        <v>3.082</v>
       </c>
       <c r="E57" t="n">
-        <v>3.01</v>
+        <v>3.081</v>
       </c>
       <c r="F57" t="n">
-        <v>629069.9436</v>
+        <v>16119.1511</v>
       </c>
       <c r="G57" t="n">
         <v>3.039783333333332</v>
@@ -2393,22 +2575,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3.03</v>
+        <v>3.08</v>
       </c>
       <c r="C58" t="n">
         <v>3.03</v>
       </c>
       <c r="D58" t="n">
-        <v>3.03</v>
+        <v>3.08</v>
       </c>
       <c r="E58" t="n">
-        <v>3.03</v>
+        <v>3.01</v>
       </c>
       <c r="F58" t="n">
-        <v>1014900.789</v>
+        <v>629069.9436</v>
       </c>
       <c r="G58" t="n">
-        <v>3.039933333333332</v>
+        <v>3.039783333333332</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2434,16 +2616,16 @@
         <v>3.03</v>
       </c>
       <c r="D59" t="n">
-        <v>3.065</v>
+        <v>3.03</v>
       </c>
       <c r="E59" t="n">
         <v>3.03</v>
       </c>
       <c r="F59" t="n">
-        <v>46178.816</v>
+        <v>1014900.789</v>
       </c>
       <c r="G59" t="n">
-        <v>3.040133333333332</v>
+        <v>3.039933333333332</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2645,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3.016</v>
+        <v>3.03</v>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="D60" t="n">
-        <v>3.016</v>
+        <v>3.065</v>
       </c>
       <c r="E60" t="n">
-        <v>2.985</v>
+        <v>3.03</v>
       </c>
       <c r="F60" t="n">
-        <v>924290.9136</v>
+        <v>46178.816</v>
       </c>
       <c r="G60" t="n">
-        <v>3.039866666666666</v>
+        <v>3.040133333333332</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2680,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="C61" t="n">
         <v>3</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3.016</v>
       </c>
       <c r="D61" t="n">
         <v>3.016</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>2.985</v>
       </c>
       <c r="F61" t="n">
-        <v>1389660.9035</v>
+        <v>924290.9136</v>
       </c>
       <c r="G61" t="n">
-        <v>3.039983333333332</v>
+        <v>3.039866666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2715,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3.006</v>
+        <v>3</v>
       </c>
       <c r="C62" t="n">
-        <v>3.03</v>
+        <v>3.016</v>
       </c>
       <c r="D62" t="n">
-        <v>3.03</v>
+        <v>3.016</v>
       </c>
       <c r="E62" t="n">
-        <v>3.006</v>
+        <v>3</v>
       </c>
       <c r="F62" t="n">
-        <v>11810.5175</v>
+        <v>1389660.9035</v>
       </c>
       <c r="G62" t="n">
-        <v>3.040383333333332</v>
+        <v>3.039983333333332</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2750,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3.06</v>
+        <v>3.006</v>
       </c>
       <c r="C63" t="n">
-        <v>3.06</v>
+        <v>3.03</v>
       </c>
       <c r="D63" t="n">
-        <v>3.06</v>
+        <v>3.03</v>
       </c>
       <c r="E63" t="n">
-        <v>3.06</v>
+        <v>3.006</v>
       </c>
       <c r="F63" t="n">
-        <v>2307.856</v>
+        <v>11810.5175</v>
       </c>
       <c r="G63" t="n">
-        <v>3.041449999999999</v>
+        <v>3.040383333333332</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2785,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3.049</v>
+        <v>3.06</v>
       </c>
       <c r="C64" t="n">
-        <v>3.049</v>
+        <v>3.06</v>
       </c>
       <c r="D64" t="n">
-        <v>3.049</v>
+        <v>3.06</v>
       </c>
       <c r="E64" t="n">
-        <v>3.049</v>
+        <v>3.06</v>
       </c>
       <c r="F64" t="n">
-        <v>3287.8563</v>
+        <v>2307.856</v>
       </c>
       <c r="G64" t="n">
-        <v>3.042566666666666</v>
+        <v>3.041449999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2820,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.059</v>
+        <v>3.049</v>
       </c>
       <c r="C65" t="n">
-        <v>3.059</v>
+        <v>3.049</v>
       </c>
       <c r="D65" t="n">
-        <v>3.059</v>
+        <v>3.049</v>
       </c>
       <c r="E65" t="n">
-        <v>3.059</v>
+        <v>3.049</v>
       </c>
       <c r="F65" t="n">
-        <v>2307.96</v>
+        <v>3287.8563</v>
       </c>
       <c r="G65" t="n">
-        <v>3.043416666666666</v>
+        <v>3.042566666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2855,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3.04</v>
+        <v>3.059</v>
       </c>
       <c r="C66" t="n">
-        <v>3.033</v>
+        <v>3.059</v>
       </c>
       <c r="D66" t="n">
-        <v>3.04</v>
+        <v>3.059</v>
       </c>
       <c r="E66" t="n">
-        <v>3.033</v>
+        <v>3.059</v>
       </c>
       <c r="F66" t="n">
-        <v>99477.852</v>
+        <v>2307.96</v>
       </c>
       <c r="G66" t="n">
-        <v>3.043916666666666</v>
+        <v>3.043416666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2890,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="C67" t="n">
         <v>3.033</v>
       </c>
-      <c r="C67" t="n">
-        <v>3.031</v>
-      </c>
       <c r="D67" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E67" t="n">
         <v>3.033</v>
       </c>
-      <c r="E67" t="n">
-        <v>3.031</v>
-      </c>
       <c r="F67" t="n">
-        <v>8080.716</v>
+        <v>99477.852</v>
       </c>
       <c r="G67" t="n">
-        <v>3.044449999999999</v>
+        <v>3.043916666666666</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2746,19 +2928,19 @@
         <v>3.033</v>
       </c>
       <c r="C68" t="n">
-        <v>3.033</v>
+        <v>3.031</v>
       </c>
       <c r="D68" t="n">
         <v>3.033</v>
       </c>
       <c r="E68" t="n">
-        <v>3.033</v>
+        <v>3.031</v>
       </c>
       <c r="F68" t="n">
-        <v>11945.7618</v>
+        <v>8080.716</v>
       </c>
       <c r="G68" t="n">
-        <v>3.045016666666666</v>
+        <v>3.044449999999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2960,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3.03</v>
+        <v>3.033</v>
       </c>
       <c r="C69" t="n">
-        <v>3.03</v>
+        <v>3.033</v>
       </c>
       <c r="D69" t="n">
-        <v>3.03</v>
+        <v>3.033</v>
       </c>
       <c r="E69" t="n">
-        <v>3.03</v>
+        <v>3.033</v>
       </c>
       <c r="F69" t="n">
-        <v>337.6673</v>
+        <v>11945.7618</v>
       </c>
       <c r="G69" t="n">
-        <v>3.045533333333332</v>
+        <v>3.045016666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +3007,10 @@
         <v>3.03</v>
       </c>
       <c r="F70" t="n">
-        <v>65500</v>
+        <v>337.6673</v>
       </c>
       <c r="G70" t="n">
-        <v>3.046049999999999</v>
+        <v>3.045533333333332</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2851,19 +3033,19 @@
         <v>3.03</v>
       </c>
       <c r="C71" t="n">
-        <v>3.033</v>
+        <v>3.03</v>
       </c>
       <c r="D71" t="n">
-        <v>3.06</v>
+        <v>3.03</v>
       </c>
       <c r="E71" t="n">
         <v>3.03</v>
       </c>
       <c r="F71" t="n">
-        <v>30334.8752</v>
+        <v>65500</v>
       </c>
       <c r="G71" t="n">
-        <v>3.046733333333333</v>
+        <v>3.046049999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +3065,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="C72" t="n">
-        <v>3.05</v>
+        <v>3.033</v>
       </c>
       <c r="D72" t="n">
-        <v>3.05</v>
+        <v>3.06</v>
       </c>
       <c r="E72" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="F72" t="n">
-        <v>3278.688524590164</v>
+        <v>30334.8752</v>
       </c>
       <c r="G72" t="n">
-        <v>3.047699999999999</v>
+        <v>3.046733333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +3100,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3.023</v>
+        <v>3.05</v>
       </c>
       <c r="C73" t="n">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="D73" t="n">
-        <v>3.023</v>
+        <v>3.05</v>
       </c>
       <c r="E73" t="n">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="F73" t="n">
-        <v>38498.9065</v>
+        <v>3278.688524590164</v>
       </c>
       <c r="G73" t="n">
-        <v>3.048233333333333</v>
+        <v>3.047699999999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +3135,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3.019</v>
+        <v>3.023</v>
       </c>
       <c r="C74" t="n">
-        <v>3.019</v>
+        <v>3.02</v>
       </c>
       <c r="D74" t="n">
-        <v>3.019</v>
+        <v>3.023</v>
       </c>
       <c r="E74" t="n">
-        <v>3.019</v>
+        <v>3.02</v>
       </c>
       <c r="F74" t="n">
-        <v>540914.428</v>
+        <v>38498.9065</v>
       </c>
       <c r="G74" t="n">
-        <v>3.04875</v>
+        <v>3.048233333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +3170,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3.016</v>
+        <v>3.019</v>
       </c>
       <c r="C75" t="n">
-        <v>3.016</v>
+        <v>3.019</v>
       </c>
       <c r="D75" t="n">
-        <v>3.016</v>
+        <v>3.019</v>
       </c>
       <c r="E75" t="n">
-        <v>3.016</v>
+        <v>3.019</v>
       </c>
       <c r="F75" t="n">
-        <v>3242.5187</v>
+        <v>540914.428</v>
       </c>
       <c r="G75" t="n">
-        <v>3.049216666666666</v>
+        <v>3.04875</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3205,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3.013</v>
+        <v>3.016</v>
       </c>
       <c r="C76" t="n">
-        <v>3.013</v>
+        <v>3.016</v>
       </c>
       <c r="D76" t="n">
-        <v>3.013</v>
+        <v>3.016</v>
       </c>
       <c r="E76" t="n">
-        <v>3.013</v>
+        <v>3.016</v>
       </c>
       <c r="F76" t="n">
-        <v>2963.7214</v>
+        <v>3242.5187</v>
       </c>
       <c r="G76" t="n">
-        <v>3.04945</v>
+        <v>3.049216666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3240,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3.01</v>
+        <v>3.013</v>
       </c>
       <c r="C77" t="n">
-        <v>2.991</v>
+        <v>3.013</v>
       </c>
       <c r="D77" t="n">
-        <v>3.01</v>
+        <v>3.013</v>
       </c>
       <c r="E77" t="n">
-        <v>2.991</v>
+        <v>3.013</v>
       </c>
       <c r="F77" t="n">
-        <v>158510.0662</v>
+        <v>2963.7214</v>
       </c>
       <c r="G77" t="n">
-        <v>3.049316666666667</v>
+        <v>3.04945</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3275,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3.001</v>
+        <v>3.01</v>
       </c>
       <c r="C78" t="n">
-        <v>3.001</v>
+        <v>2.991</v>
       </c>
       <c r="D78" t="n">
-        <v>3.001</v>
+        <v>3.01</v>
       </c>
       <c r="E78" t="n">
-        <v>3.001</v>
+        <v>2.991</v>
       </c>
       <c r="F78" t="n">
-        <v>99140</v>
+        <v>158510.0662</v>
       </c>
       <c r="G78" t="n">
-        <v>3.049616666666667</v>
+        <v>3.049316666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3140,10 +3322,10 @@
         <v>3.001</v>
       </c>
       <c r="F79" t="n">
-        <v>860</v>
+        <v>99140</v>
       </c>
       <c r="G79" t="n">
-        <v>3.049916666666667</v>
+        <v>3.049616666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3345,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.03</v>
+        <v>3.001</v>
       </c>
       <c r="C80" t="n">
-        <v>3.03</v>
+        <v>3.001</v>
       </c>
       <c r="D80" t="n">
-        <v>3.03</v>
+        <v>3.001</v>
       </c>
       <c r="E80" t="n">
-        <v>3.03</v>
+        <v>3.001</v>
       </c>
       <c r="F80" t="n">
-        <v>500</v>
+        <v>860</v>
       </c>
       <c r="G80" t="n">
-        <v>3.050366666666667</v>
+        <v>3.049916666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,38 +3380,32 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2.991</v>
+        <v>3.03</v>
       </c>
       <c r="C81" t="n">
-        <v>2.989</v>
+        <v>3.03</v>
       </c>
       <c r="D81" t="n">
-        <v>2.991</v>
+        <v>3.03</v>
       </c>
       <c r="E81" t="n">
-        <v>2.989</v>
+        <v>3.03</v>
       </c>
       <c r="F81" t="n">
-        <v>208836.7429</v>
+        <v>500</v>
       </c>
       <c r="G81" t="n">
-        <v>3.0502</v>
+        <v>3.050366666666667</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3239,22 +3415,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2.988</v>
+        <v>2.991</v>
       </c>
       <c r="C82" t="n">
-        <v>2.988</v>
+        <v>2.989</v>
       </c>
       <c r="D82" t="n">
-        <v>2.988</v>
+        <v>2.991</v>
       </c>
       <c r="E82" t="n">
-        <v>2.988</v>
+        <v>2.989</v>
       </c>
       <c r="F82" t="n">
-        <v>65077.095</v>
+        <v>208836.7429</v>
       </c>
       <c r="G82" t="n">
-        <v>3.050016666666667</v>
+        <v>3.0502</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3264,11 +3440,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3290,10 +3462,10 @@
         <v>2.988</v>
       </c>
       <c r="F83" t="n">
-        <v>3963.5975</v>
+        <v>65077.095</v>
       </c>
       <c r="G83" t="n">
-        <v>3.049983333333333</v>
+        <v>3.050016666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,11 +3475,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3317,22 +3485,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2.986</v>
+        <v>2.988</v>
       </c>
       <c r="C84" t="n">
-        <v>2.986</v>
+        <v>2.988</v>
       </c>
       <c r="D84" t="n">
-        <v>2.986</v>
+        <v>2.988</v>
       </c>
       <c r="E84" t="n">
-        <v>2.986</v>
+        <v>2.988</v>
       </c>
       <c r="F84" t="n">
-        <v>170</v>
+        <v>3963.5975</v>
       </c>
       <c r="G84" t="n">
-        <v>3.0497</v>
+        <v>3.049983333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3342,11 +3510,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3356,22 +3520,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2.998</v>
+        <v>2.986</v>
       </c>
       <c r="C85" t="n">
-        <v>2.98</v>
+        <v>2.986</v>
       </c>
       <c r="D85" t="n">
-        <v>2.998</v>
+        <v>2.986</v>
       </c>
       <c r="E85" t="n">
-        <v>2.98</v>
+        <v>2.986</v>
       </c>
       <c r="F85" t="n">
-        <v>491494.1299</v>
+        <v>170</v>
       </c>
       <c r="G85" t="n">
-        <v>3.049399999999999</v>
+        <v>3.0497</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3381,11 +3545,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3395,22 +3555,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>2.998</v>
+      </c>
+      <c r="C86" t="n">
         <v>2.98</v>
       </c>
-      <c r="C86" t="n">
-        <v>2.981</v>
-      </c>
       <c r="D86" t="n">
-        <v>2.981</v>
+        <v>2.998</v>
       </c>
       <c r="E86" t="n">
         <v>2.98</v>
       </c>
       <c r="F86" t="n">
-        <v>26196.313</v>
+        <v>491494.1299</v>
       </c>
       <c r="G86" t="n">
-        <v>3.048783333333333</v>
+        <v>3.049399999999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3420,11 +3580,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3434,7 +3590,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2.981</v>
+        <v>2.98</v>
       </c>
       <c r="C87" t="n">
         <v>2.981</v>
@@ -3446,26 +3602,20 @@
         <v>2.98</v>
       </c>
       <c r="F87" t="n">
-        <v>1329361.032</v>
+        <v>26196.313</v>
       </c>
       <c r="G87" t="n">
-        <v>3.048166666666666</v>
+        <v>3.048783333333333</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>2.981</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3475,38 +3625,32 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2.998</v>
+        <v>2.981</v>
       </c>
       <c r="C88" t="n">
-        <v>2.998</v>
+        <v>2.981</v>
       </c>
       <c r="D88" t="n">
-        <v>2.998</v>
+        <v>2.981</v>
       </c>
       <c r="E88" t="n">
-        <v>2.998</v>
+        <v>2.98</v>
       </c>
       <c r="F88" t="n">
-        <v>54001.856</v>
+        <v>1329361.032</v>
       </c>
       <c r="G88" t="n">
-        <v>3.047833333333332</v>
+        <v>3.048166666666666</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>2.981</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3516,22 +3660,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>3.041</v>
+        <v>2.998</v>
       </c>
       <c r="C89" t="n">
-        <v>3.059</v>
+        <v>2.998</v>
       </c>
       <c r="D89" t="n">
-        <v>3.059</v>
+        <v>2.998</v>
       </c>
       <c r="E89" t="n">
-        <v>3.031</v>
+        <v>2.998</v>
       </c>
       <c r="F89" t="n">
-        <v>705733.8456999999</v>
+        <v>54001.856</v>
       </c>
       <c r="G89" t="n">
-        <v>3.048299999999999</v>
+        <v>3.047833333333332</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3541,11 +3685,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3555,22 +3695,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
+        <v>3.041</v>
+      </c>
+      <c r="C90" t="n">
         <v>3.059</v>
       </c>
-      <c r="C90" t="n">
-        <v>3.065</v>
-      </c>
       <c r="D90" t="n">
-        <v>3.065</v>
+        <v>3.059</v>
       </c>
       <c r="E90" t="n">
-        <v>3.051</v>
+        <v>3.031</v>
       </c>
       <c r="F90" t="n">
-        <v>21004.2676</v>
+        <v>705733.8456999999</v>
       </c>
       <c r="G90" t="n">
-        <v>3.048816666666666</v>
+        <v>3.048299999999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3580,11 +3720,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3594,22 +3730,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3.068</v>
+        <v>3.059</v>
       </c>
       <c r="C91" t="n">
-        <v>3.082</v>
+        <v>3.065</v>
       </c>
       <c r="D91" t="n">
-        <v>3.082</v>
+        <v>3.065</v>
       </c>
       <c r="E91" t="n">
-        <v>3.068</v>
+        <v>3.051</v>
       </c>
       <c r="F91" t="n">
-        <v>54869.0905</v>
+        <v>21004.2676</v>
       </c>
       <c r="G91" t="n">
-        <v>3.049616666666666</v>
+        <v>3.048816666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3619,11 +3755,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3633,22 +3765,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3.071</v>
+        <v>3.068</v>
       </c>
       <c r="C92" t="n">
-        <v>3.071</v>
+        <v>3.082</v>
       </c>
       <c r="D92" t="n">
-        <v>3.071</v>
+        <v>3.082</v>
       </c>
       <c r="E92" t="n">
-        <v>3.071</v>
+        <v>3.068</v>
       </c>
       <c r="F92" t="n">
-        <v>241.9095</v>
+        <v>54869.0905</v>
       </c>
       <c r="G92" t="n">
-        <v>3.050166666666665</v>
+        <v>3.049616666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3658,11 +3790,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3672,22 +3800,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>3.065</v>
+        <v>3.071</v>
       </c>
       <c r="C93" t="n">
-        <v>3.052</v>
+        <v>3.071</v>
       </c>
       <c r="D93" t="n">
-        <v>3.065</v>
+        <v>3.071</v>
       </c>
       <c r="E93" t="n">
-        <v>3.052</v>
+        <v>3.071</v>
       </c>
       <c r="F93" t="n">
-        <v>12646.4497</v>
+        <v>241.9095</v>
       </c>
       <c r="G93" t="n">
-        <v>3.050466666666666</v>
+        <v>3.050166666666665</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3697,11 +3825,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3711,22 +3835,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>3.052</v>
+        <v>3.065</v>
       </c>
       <c r="C94" t="n">
         <v>3.052</v>
       </c>
       <c r="D94" t="n">
-        <v>3.052</v>
+        <v>3.065</v>
       </c>
       <c r="E94" t="n">
         <v>3.052</v>
       </c>
       <c r="F94" t="n">
-        <v>1000</v>
+        <v>12646.4497</v>
       </c>
       <c r="G94" t="n">
-        <v>3.050683333333332</v>
+        <v>3.050466666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3736,11 +3860,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3750,19 +3870,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>3.046</v>
+        <v>3.052</v>
       </c>
       <c r="C95" t="n">
-        <v>3.039</v>
+        <v>3.052</v>
       </c>
       <c r="D95" t="n">
         <v>3.052</v>
       </c>
       <c r="E95" t="n">
-        <v>3.039</v>
+        <v>3.052</v>
       </c>
       <c r="F95" t="n">
-        <v>8387.179599999999</v>
+        <v>1000</v>
       </c>
       <c r="G95" t="n">
         <v>3.050683333333332</v>
@@ -3775,11 +3895,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3789,22 +3905,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>3.05</v>
+        <v>3.046</v>
       </c>
       <c r="C96" t="n">
-        <v>3.05</v>
+        <v>3.039</v>
       </c>
       <c r="D96" t="n">
-        <v>3.05</v>
+        <v>3.052</v>
       </c>
       <c r="E96" t="n">
-        <v>3.05</v>
+        <v>3.039</v>
       </c>
       <c r="F96" t="n">
-        <v>3815.1777</v>
+        <v>8387.179599999999</v>
       </c>
       <c r="G96" t="n">
-        <v>3.050816666666666</v>
+        <v>3.050683333333332</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3814,11 +3930,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3828,22 +3940,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>3.039</v>
+        <v>3.05</v>
       </c>
       <c r="C97" t="n">
-        <v>3.03</v>
+        <v>3.05</v>
       </c>
       <c r="D97" t="n">
-        <v>3.039</v>
+        <v>3.05</v>
       </c>
       <c r="E97" t="n">
-        <v>3.03</v>
+        <v>3.05</v>
       </c>
       <c r="F97" t="n">
-        <v>83634.8679</v>
+        <v>3815.1777</v>
       </c>
       <c r="G97" t="n">
-        <v>3.050549999999999</v>
+        <v>3.050816666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3853,11 +3965,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3867,22 +3975,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>3.027</v>
+        <v>3.039</v>
       </c>
       <c r="C98" t="n">
-        <v>3.027</v>
+        <v>3.03</v>
       </c>
       <c r="D98" t="n">
-        <v>3.027</v>
+        <v>3.039</v>
       </c>
       <c r="E98" t="n">
-        <v>3.027</v>
+        <v>3.03</v>
       </c>
       <c r="F98" t="n">
-        <v>50530</v>
+        <v>83634.8679</v>
       </c>
       <c r="G98" t="n">
-        <v>3.049666666666666</v>
+        <v>3.050549999999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3892,11 +4000,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3906,22 +4010,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3.025</v>
+        <v>3.027</v>
       </c>
       <c r="C99" t="n">
-        <v>3.025</v>
+        <v>3.027</v>
       </c>
       <c r="D99" t="n">
-        <v>3.025</v>
+        <v>3.027</v>
       </c>
       <c r="E99" t="n">
-        <v>3.025</v>
+        <v>3.027</v>
       </c>
       <c r="F99" t="n">
-        <v>9009.856</v>
+        <v>50530</v>
       </c>
       <c r="G99" t="n">
-        <v>3.048433333333333</v>
+        <v>3.049666666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3931,11 +4035,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3945,22 +4045,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>3.023</v>
+        <v>3.025</v>
       </c>
       <c r="C100" t="n">
-        <v>3.019</v>
+        <v>3.025</v>
       </c>
       <c r="D100" t="n">
-        <v>3.023</v>
+        <v>3.025</v>
       </c>
       <c r="E100" t="n">
-        <v>3.019</v>
+        <v>3.025</v>
       </c>
       <c r="F100" t="n">
-        <v>15356.8807</v>
+        <v>9009.856</v>
       </c>
       <c r="G100" t="n">
-        <v>3.047099999999999</v>
+        <v>3.048433333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3970,11 +4070,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3984,22 +4080,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>3.03</v>
+        <v>3.023</v>
       </c>
       <c r="C101" t="n">
-        <v>3.03</v>
+        <v>3.019</v>
       </c>
       <c r="D101" t="n">
-        <v>3.03</v>
+        <v>3.023</v>
       </c>
       <c r="E101" t="n">
-        <v>3.03</v>
+        <v>3.019</v>
       </c>
       <c r="F101" t="n">
-        <v>336.4344</v>
+        <v>15356.8807</v>
       </c>
       <c r="G101" t="n">
-        <v>3.045933333333333</v>
+        <v>3.047099999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4009,11 +4105,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4023,22 +4115,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>3.019</v>
+        <v>3.03</v>
       </c>
       <c r="C102" t="n">
-        <v>3.019</v>
+        <v>3.03</v>
       </c>
       <c r="D102" t="n">
-        <v>3.019</v>
+        <v>3.03</v>
       </c>
       <c r="E102" t="n">
-        <v>3.019</v>
+        <v>3.03</v>
       </c>
       <c r="F102" t="n">
-        <v>5331.2237</v>
+        <v>336.4344</v>
       </c>
       <c r="G102" t="n">
-        <v>3.044583333333333</v>
+        <v>3.045933333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4048,11 +4140,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4062,22 +4150,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>3.017</v>
+        <v>3.019</v>
       </c>
       <c r="C103" t="n">
-        <v>3.016</v>
+        <v>3.019</v>
       </c>
       <c r="D103" t="n">
-        <v>3.017</v>
+        <v>3.019</v>
       </c>
       <c r="E103" t="n">
-        <v>3.016</v>
+        <v>3.019</v>
       </c>
       <c r="F103" t="n">
-        <v>4634.1047</v>
+        <v>5331.2237</v>
       </c>
       <c r="G103" t="n">
-        <v>3.043183333333333</v>
+        <v>3.044583333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4087,11 +4175,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4101,22 +4185,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>3.014</v>
+        <v>3.017</v>
       </c>
       <c r="C104" t="n">
-        <v>3</v>
+        <v>3.016</v>
       </c>
       <c r="D104" t="n">
-        <v>3.014</v>
+        <v>3.017</v>
       </c>
       <c r="E104" t="n">
-        <v>3</v>
+        <v>3.016</v>
       </c>
       <c r="F104" t="n">
-        <v>37498.563</v>
+        <v>4634.1047</v>
       </c>
       <c r="G104" t="n">
-        <v>3.041183333333333</v>
+        <v>3.043183333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4126,11 +4210,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4140,22 +4220,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2.997</v>
+        <v>3.014</v>
       </c>
       <c r="C105" t="n">
-        <v>2.994</v>
+        <v>3</v>
       </c>
       <c r="D105" t="n">
-        <v>2.997</v>
+        <v>3.014</v>
       </c>
       <c r="E105" t="n">
-        <v>2.994</v>
+        <v>3</v>
       </c>
       <c r="F105" t="n">
-        <v>8544.1353</v>
+        <v>37498.563</v>
       </c>
       <c r="G105" t="n">
-        <v>3.038933333333333</v>
+        <v>3.041183333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4165,11 +4245,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4179,22 +4255,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2.993</v>
+        <v>2.997</v>
       </c>
       <c r="C106" t="n">
-        <v>2.993</v>
+        <v>2.994</v>
       </c>
       <c r="D106" t="n">
-        <v>2.993</v>
+        <v>2.997</v>
       </c>
       <c r="E106" t="n">
-        <v>2.993</v>
+        <v>2.994</v>
       </c>
       <c r="F106" t="n">
-        <v>12095.563</v>
+        <v>8544.1353</v>
       </c>
       <c r="G106" t="n">
-        <v>3.036816666666666</v>
+        <v>3.038933333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4204,11 +4280,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4218,22 +4290,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2.991</v>
+        <v>2.993</v>
       </c>
       <c r="C107" t="n">
-        <v>2.988</v>
+        <v>2.993</v>
       </c>
       <c r="D107" t="n">
-        <v>2.991</v>
+        <v>2.993</v>
       </c>
       <c r="E107" t="n">
-        <v>2.988</v>
+        <v>2.993</v>
       </c>
       <c r="F107" t="n">
-        <v>10675.5278</v>
+        <v>12095.563</v>
       </c>
       <c r="G107" t="n">
-        <v>3.034783333333333</v>
+        <v>3.036816666666666</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4243,11 +4315,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4257,22 +4325,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2.985</v>
+        <v>2.991</v>
       </c>
       <c r="C108" t="n">
-        <v>2.98</v>
+        <v>2.988</v>
       </c>
       <c r="D108" t="n">
-        <v>2.985</v>
+        <v>2.991</v>
       </c>
       <c r="E108" t="n">
-        <v>2.979</v>
+        <v>2.988</v>
       </c>
       <c r="F108" t="n">
-        <v>855612.9928</v>
+        <v>10675.5278</v>
       </c>
       <c r="G108" t="n">
-        <v>3.032016666666666</v>
+        <v>3.034783333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4282,11 +4350,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4296,22 +4360,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>3.024</v>
+        <v>2.985</v>
       </c>
       <c r="C109" t="n">
-        <v>3.024</v>
+        <v>2.98</v>
       </c>
       <c r="D109" t="n">
-        <v>3.024</v>
+        <v>2.985</v>
       </c>
       <c r="E109" t="n">
-        <v>3.024</v>
+        <v>2.979</v>
       </c>
       <c r="F109" t="n">
-        <v>500</v>
+        <v>855612.9928</v>
       </c>
       <c r="G109" t="n">
-        <v>3.030399999999999</v>
+        <v>3.032016666666666</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4321,11 +4385,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4335,7 +4395,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>3.013</v>
+        <v>3.024</v>
       </c>
       <c r="C110" t="n">
         <v>3.024</v>
@@ -4344,13 +4404,13 @@
         <v>3.024</v>
       </c>
       <c r="E110" t="n">
-        <v>3.013</v>
+        <v>3.024</v>
       </c>
       <c r="F110" t="n">
-        <v>600000</v>
+        <v>500</v>
       </c>
       <c r="G110" t="n">
-        <v>3.028966666666666</v>
+        <v>3.030399999999999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4360,11 +4420,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4374,7 +4430,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>3.024</v>
+        <v>3.013</v>
       </c>
       <c r="C111" t="n">
         <v>3.024</v>
@@ -4383,13 +4439,13 @@
         <v>3.024</v>
       </c>
       <c r="E111" t="n">
-        <v>3.024</v>
+        <v>3.013</v>
       </c>
       <c r="F111" t="n">
-        <v>118996.5738</v>
+        <v>600000</v>
       </c>
       <c r="G111" t="n">
-        <v>3.027533333333332</v>
+        <v>3.028966666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4399,11 +4455,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4413,22 +4465,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>3</v>
+        <v>3.024</v>
       </c>
       <c r="C112" t="n">
-        <v>3</v>
+        <v>3.024</v>
       </c>
       <c r="D112" t="n">
-        <v>3</v>
+        <v>3.024</v>
       </c>
       <c r="E112" t="n">
-        <v>3</v>
+        <v>3.024</v>
       </c>
       <c r="F112" t="n">
-        <v>23462.6429</v>
+        <v>118996.5738</v>
       </c>
       <c r="G112" t="n">
-        <v>3.026183333333333</v>
+        <v>3.027533333333332</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4438,11 +4490,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4452,22 +4500,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>3.008</v>
+        <v>3</v>
       </c>
       <c r="C113" t="n">
-        <v>3.024</v>
+        <v>3</v>
       </c>
       <c r="D113" t="n">
-        <v>3.024</v>
+        <v>3</v>
       </c>
       <c r="E113" t="n">
-        <v>3.008</v>
+        <v>3</v>
       </c>
       <c r="F113" t="n">
-        <v>111040</v>
+        <v>23462.6429</v>
       </c>
       <c r="G113" t="n">
-        <v>3.024749999999999</v>
+        <v>3.026183333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4477,11 +4525,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4491,22 +4535,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>3</v>
+        <v>3.008</v>
       </c>
       <c r="C114" t="n">
-        <v>2.99</v>
+        <v>3.024</v>
       </c>
       <c r="D114" t="n">
-        <v>3</v>
+        <v>3.024</v>
       </c>
       <c r="E114" t="n">
-        <v>2.99</v>
+        <v>3.008</v>
       </c>
       <c r="F114" t="n">
-        <v>107580.6839</v>
+        <v>111040</v>
       </c>
       <c r="G114" t="n">
-        <v>3.022916666666666</v>
+        <v>3.024749999999999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4516,11 +4560,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4530,22 +4570,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>3.024</v>
+        <v>3</v>
       </c>
       <c r="C115" t="n">
-        <v>3.024</v>
+        <v>2.99</v>
       </c>
       <c r="D115" t="n">
-        <v>3.024</v>
+        <v>3</v>
       </c>
       <c r="E115" t="n">
-        <v>3.024</v>
+        <v>2.99</v>
       </c>
       <c r="F115" t="n">
-        <v>500</v>
+        <v>107580.6839</v>
       </c>
       <c r="G115" t="n">
-        <v>3.021799999999999</v>
+        <v>3.022916666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4555,11 +4595,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4569,22 +4605,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>3.01</v>
+        <v>3.024</v>
       </c>
       <c r="C116" t="n">
-        <v>3.01</v>
+        <v>3.024</v>
       </c>
       <c r="D116" t="n">
-        <v>3.01</v>
+        <v>3.024</v>
       </c>
       <c r="E116" t="n">
-        <v>3.01</v>
+        <v>3.024</v>
       </c>
       <c r="F116" t="n">
-        <v>125620</v>
+        <v>500</v>
       </c>
       <c r="G116" t="n">
-        <v>3.020616666666666</v>
+        <v>3.021799999999999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4594,11 +4630,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4608,22 +4640,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>3</v>
+        <v>3.01</v>
       </c>
       <c r="C117" t="n">
-        <v>3.009</v>
+        <v>3.01</v>
       </c>
       <c r="D117" t="n">
-        <v>3.009</v>
+        <v>3.01</v>
       </c>
       <c r="E117" t="n">
-        <v>3</v>
+        <v>3.01</v>
       </c>
       <c r="F117" t="n">
-        <v>299828.0802</v>
+        <v>125620</v>
       </c>
       <c r="G117" t="n">
-        <v>3.020266666666665</v>
+        <v>3.020616666666666</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4633,11 +4665,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4647,22 +4675,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="C118" t="n">
-        <v>3.01</v>
+        <v>3.009</v>
       </c>
       <c r="D118" t="n">
-        <v>3.01</v>
+        <v>3.009</v>
       </c>
       <c r="E118" t="n">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="F118" t="n">
-        <v>131522.345</v>
+        <v>299828.0802</v>
       </c>
       <c r="G118" t="n">
-        <v>3.019933333333332</v>
+        <v>3.020266666666665</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4672,11 +4700,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4686,7 +4710,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>3.01</v>
+        <v>2.99</v>
       </c>
       <c r="C119" t="n">
         <v>3.01</v>
@@ -4695,13 +4719,13 @@
         <v>3.01</v>
       </c>
       <c r="E119" t="n">
-        <v>3.01</v>
+        <v>2.99</v>
       </c>
       <c r="F119" t="n">
-        <v>126120</v>
+        <v>131522.345</v>
       </c>
       <c r="G119" t="n">
-        <v>3.019599999999998</v>
+        <v>3.019933333333332</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4711,11 +4735,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4725,22 +4745,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2.99</v>
+        <v>3.01</v>
       </c>
       <c r="C120" t="n">
-        <v>2.99</v>
+        <v>3.01</v>
       </c>
       <c r="D120" t="n">
-        <v>2.99</v>
+        <v>3.01</v>
       </c>
       <c r="E120" t="n">
-        <v>2.99</v>
+        <v>3.01</v>
       </c>
       <c r="F120" t="n">
-        <v>130157.4791</v>
+        <v>126120</v>
       </c>
       <c r="G120" t="n">
-        <v>3.019433333333332</v>
+        <v>3.019599999999998</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4750,11 +4770,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4764,22 +4780,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>2.988</v>
+        <v>2.99</v>
       </c>
       <c r="C121" t="n">
-        <v>2.98</v>
+        <v>2.99</v>
       </c>
       <c r="D121" t="n">
-        <v>2.988</v>
+        <v>2.99</v>
       </c>
       <c r="E121" t="n">
-        <v>2.98</v>
+        <v>2.99</v>
       </c>
       <c r="F121" t="n">
-        <v>114653.9907</v>
+        <v>130157.4791</v>
       </c>
       <c r="G121" t="n">
-        <v>3.018833333333332</v>
+        <v>3.019433333333332</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4789,11 +4805,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4803,22 +4815,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2.98</v>
+        <v>2.988</v>
       </c>
       <c r="C122" t="n">
         <v>2.98</v>
       </c>
       <c r="D122" t="n">
-        <v>2.98</v>
+        <v>2.988</v>
       </c>
       <c r="E122" t="n">
         <v>2.98</v>
       </c>
       <c r="F122" t="n">
-        <v>10000</v>
+        <v>114653.9907</v>
       </c>
       <c r="G122" t="n">
-        <v>3.017999999999998</v>
+        <v>3.018833333333332</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4828,11 +4840,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4854,10 +4862,10 @@
         <v>2.98</v>
       </c>
       <c r="F123" t="n">
-        <v>349231.9395</v>
+        <v>10000</v>
       </c>
       <c r="G123" t="n">
-        <v>3.016666666666665</v>
+        <v>3.017999999999998</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4867,11 +4875,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4881,22 +4885,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3.019</v>
+        <v>2.98</v>
       </c>
       <c r="C124" t="n">
-        <v>3.02</v>
+        <v>2.98</v>
       </c>
       <c r="D124" t="n">
-        <v>3.02</v>
+        <v>2.98</v>
       </c>
       <c r="E124" t="n">
-        <v>3.019</v>
+        <v>2.98</v>
       </c>
       <c r="F124" t="n">
-        <v>1500</v>
+        <v>349231.9395</v>
       </c>
       <c r="G124" t="n">
-        <v>3.016183333333331</v>
+        <v>3.016666666666665</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4906,11 +4910,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4923,19 +4923,19 @@
         <v>3.019</v>
       </c>
       <c r="C125" t="n">
-        <v>3.019</v>
+        <v>3.02</v>
       </c>
       <c r="D125" t="n">
-        <v>3.019</v>
+        <v>3.02</v>
       </c>
       <c r="E125" t="n">
         <v>3.019</v>
       </c>
       <c r="F125" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G125" t="n">
-        <v>3.015516666666665</v>
+        <v>3.016183333333331</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4945,11 +4945,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4959,22 +4955,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3.015</v>
+        <v>3.019</v>
       </c>
       <c r="C126" t="n">
-        <v>3.018</v>
+        <v>3.019</v>
       </c>
       <c r="D126" t="n">
-        <v>3.018</v>
+        <v>3.019</v>
       </c>
       <c r="E126" t="n">
-        <v>3.015</v>
+        <v>3.019</v>
       </c>
       <c r="F126" t="n">
-        <v>25119.1511</v>
+        <v>600</v>
       </c>
       <c r="G126" t="n">
-        <v>3.015266666666665</v>
+        <v>3.015516666666665</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4984,11 +4980,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4998,22 +4990,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3.019</v>
+        <v>3.015</v>
       </c>
       <c r="C127" t="n">
-        <v>3.027</v>
+        <v>3.018</v>
       </c>
       <c r="D127" t="n">
-        <v>3.027</v>
+        <v>3.018</v>
       </c>
       <c r="E127" t="n">
-        <v>3.019</v>
+        <v>3.015</v>
       </c>
       <c r="F127" t="n">
-        <v>15596.3183</v>
+        <v>25119.1511</v>
       </c>
       <c r="G127" t="n">
-        <v>3.015199999999998</v>
+        <v>3.015266666666665</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5023,11 +5015,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5037,22 +5025,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3.02</v>
+        <v>3.019</v>
       </c>
       <c r="C128" t="n">
-        <v>3.02</v>
+        <v>3.027</v>
       </c>
       <c r="D128" t="n">
-        <v>3.02</v>
+        <v>3.027</v>
       </c>
       <c r="E128" t="n">
-        <v>3.02</v>
+        <v>3.019</v>
       </c>
       <c r="F128" t="n">
-        <v>2905.6677</v>
+        <v>15596.3183</v>
       </c>
       <c r="G128" t="n">
-        <v>3.014983333333332</v>
+        <v>3.015199999999998</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5062,11 +5050,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5076,22 +5060,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3.027</v>
+        <v>3.02</v>
       </c>
       <c r="C129" t="n">
-        <v>3.027</v>
+        <v>3.02</v>
       </c>
       <c r="D129" t="n">
-        <v>3.027</v>
+        <v>3.02</v>
       </c>
       <c r="E129" t="n">
-        <v>3.027</v>
+        <v>3.02</v>
       </c>
       <c r="F129" t="n">
-        <v>500</v>
+        <v>2905.6677</v>
       </c>
       <c r="G129" t="n">
-        <v>3.014933333333332</v>
+        <v>3.014983333333332</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5101,11 +5085,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5115,22 +5095,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>3.033</v>
+        <v>3.027</v>
       </c>
       <c r="C130" t="n">
-        <v>3.033</v>
+        <v>3.027</v>
       </c>
       <c r="D130" t="n">
-        <v>3.033</v>
+        <v>3.027</v>
       </c>
       <c r="E130" t="n">
-        <v>3.033</v>
+        <v>3.027</v>
       </c>
       <c r="F130" t="n">
-        <v>95501.8802</v>
+        <v>500</v>
       </c>
       <c r="G130" t="n">
-        <v>3.014983333333332</v>
+        <v>3.014933333333332</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5140,11 +5120,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5154,22 +5130,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3.034</v>
+        <v>3.033</v>
       </c>
       <c r="C131" t="n">
-        <v>3.043</v>
+        <v>3.033</v>
       </c>
       <c r="D131" t="n">
-        <v>3.043</v>
+        <v>3.033</v>
       </c>
       <c r="E131" t="n">
-        <v>3.034</v>
+        <v>3.033</v>
       </c>
       <c r="F131" t="n">
-        <v>42007.956</v>
+        <v>95501.8802</v>
       </c>
       <c r="G131" t="n">
-        <v>3.015149999999998</v>
+        <v>3.014983333333332</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5179,11 +5155,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5193,22 +5165,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>3.046</v>
+        <v>3.034</v>
       </c>
       <c r="C132" t="n">
-        <v>3.046</v>
+        <v>3.043</v>
       </c>
       <c r="D132" t="n">
-        <v>3.046</v>
+        <v>3.043</v>
       </c>
       <c r="E132" t="n">
-        <v>3.046</v>
+        <v>3.034</v>
       </c>
       <c r="F132" t="n">
-        <v>500</v>
+        <v>42007.956</v>
       </c>
       <c r="G132" t="n">
-        <v>3.015083333333331</v>
+        <v>3.015149999999998</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5218,11 +5190,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5235,19 +5203,19 @@
         <v>3.046</v>
       </c>
       <c r="C133" t="n">
-        <v>3.05</v>
+        <v>3.046</v>
       </c>
       <c r="D133" t="n">
-        <v>3.05</v>
+        <v>3.046</v>
       </c>
       <c r="E133" t="n">
         <v>3.046</v>
       </c>
       <c r="F133" t="n">
-        <v>80008.56</v>
+        <v>500</v>
       </c>
       <c r="G133" t="n">
-        <v>3.015583333333332</v>
+        <v>3.015083333333331</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5257,11 +5225,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5271,22 +5235,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>3.04</v>
+        <v>3.046</v>
       </c>
       <c r="C134" t="n">
-        <v>3.033</v>
+        <v>3.05</v>
       </c>
       <c r="D134" t="n">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="E134" t="n">
-        <v>3.033</v>
+        <v>3.046</v>
       </c>
       <c r="F134" t="n">
-        <v>250124</v>
+        <v>80008.56</v>
       </c>
       <c r="G134" t="n">
-        <v>3.015816666666665</v>
+        <v>3.015583333333332</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5296,11 +5260,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5313,19 +5273,19 @@
         <v>3.04</v>
       </c>
       <c r="C135" t="n">
-        <v>3.05</v>
+        <v>3.033</v>
       </c>
       <c r="D135" t="n">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="E135" t="n">
-        <v>3.04</v>
+        <v>3.033</v>
       </c>
       <c r="F135" t="n">
-        <v>20211</v>
+        <v>250124</v>
       </c>
       <c r="G135" t="n">
-        <v>3.016383333333331</v>
+        <v>3.015816666666665</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5335,11 +5295,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5349,7 +5305,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="C136" t="n">
         <v>3.05</v>
@@ -5358,13 +5314,13 @@
         <v>3.05</v>
       </c>
       <c r="E136" t="n">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="F136" t="n">
-        <v>2526520.4092</v>
+        <v>20211</v>
       </c>
       <c r="G136" t="n">
-        <v>3.016999999999998</v>
+        <v>3.016383333333331</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5374,11 +5330,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5388,22 +5340,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="C137" t="n">
-        <v>3.033</v>
+        <v>3.05</v>
       </c>
       <c r="D137" t="n">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="E137" t="n">
-        <v>3.033</v>
+        <v>3.05</v>
       </c>
       <c r="F137" t="n">
-        <v>76315.0053</v>
+        <v>2526520.4092</v>
       </c>
       <c r="G137" t="n">
-        <v>3.017699999999998</v>
+        <v>3.016999999999998</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5413,11 +5365,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5430,19 +5378,19 @@
         <v>3.04</v>
       </c>
       <c r="C138" t="n">
-        <v>3.05</v>
+        <v>3.033</v>
       </c>
       <c r="D138" t="n">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="E138" t="n">
-        <v>3.04</v>
+        <v>3.033</v>
       </c>
       <c r="F138" t="n">
-        <v>717687.134</v>
+        <v>76315.0053</v>
       </c>
       <c r="G138" t="n">
-        <v>3.018516666666665</v>
+        <v>3.017699999999998</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5452,11 +5400,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5466,22 +5410,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>3.059</v>
+        <v>3.04</v>
       </c>
       <c r="C139" t="n">
-        <v>3.06</v>
+        <v>3.05</v>
       </c>
       <c r="D139" t="n">
-        <v>3.06</v>
+        <v>3.05</v>
       </c>
       <c r="E139" t="n">
-        <v>3.059</v>
+        <v>3.04</v>
       </c>
       <c r="F139" t="n">
-        <v>11536.0338</v>
+        <v>717687.134</v>
       </c>
       <c r="G139" t="n">
-        <v>3.019499999999998</v>
+        <v>3.018516666666665</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5491,11 +5435,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5505,22 +5445,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3.062</v>
+        <v>3.059</v>
       </c>
       <c r="C140" t="n">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
       <c r="D140" t="n">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
       <c r="E140" t="n">
-        <v>3.062</v>
+        <v>3.059</v>
       </c>
       <c r="F140" t="n">
-        <v>40965.0827</v>
+        <v>11536.0338</v>
       </c>
       <c r="G140" t="n">
-        <v>3.020333333333332</v>
+        <v>3.019499999999998</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5530,11 +5470,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5544,7 +5480,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>3.07</v>
+        <v>3.062</v>
       </c>
       <c r="C141" t="n">
         <v>3.08</v>
@@ -5553,13 +5489,13 @@
         <v>3.08</v>
       </c>
       <c r="E141" t="n">
-        <v>3.07</v>
+        <v>3.062</v>
       </c>
       <c r="F141" t="n">
-        <v>654981.4261</v>
+        <v>40965.0827</v>
       </c>
       <c r="G141" t="n">
-        <v>3.021849999999998</v>
+        <v>3.020333333333332</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5569,11 +5505,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5583,22 +5515,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>3.086</v>
+        <v>3.07</v>
       </c>
       <c r="C142" t="n">
         <v>3.08</v>
       </c>
       <c r="D142" t="n">
-        <v>3.086</v>
+        <v>3.08</v>
       </c>
       <c r="E142" t="n">
-        <v>3.08</v>
+        <v>3.07</v>
       </c>
       <c r="F142" t="n">
-        <v>285063</v>
+        <v>654981.4261</v>
       </c>
       <c r="G142" t="n">
-        <v>3.023383333333332</v>
+        <v>3.021849999999998</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5608,11 +5540,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5625,19 +5553,19 @@
         <v>3.086</v>
       </c>
       <c r="C143" t="n">
-        <v>3.086</v>
+        <v>3.08</v>
       </c>
       <c r="D143" t="n">
         <v>3.086</v>
       </c>
       <c r="E143" t="n">
-        <v>3.086</v>
+        <v>3.08</v>
       </c>
       <c r="F143" t="n">
-        <v>1554.9456</v>
+        <v>285063</v>
       </c>
       <c r="G143" t="n">
-        <v>3.025016666666665</v>
+        <v>3.023383333333332</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5647,11 +5575,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5673,10 +5597,10 @@
         <v>3.086</v>
       </c>
       <c r="F144" t="n">
-        <v>6301.0544</v>
+        <v>1554.9456</v>
       </c>
       <c r="G144" t="n">
-        <v>3.026683333333332</v>
+        <v>3.025016666666665</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5686,11 +5610,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5700,22 +5620,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3.075</v>
+        <v>3.086</v>
       </c>
       <c r="C145" t="n">
-        <v>3.075</v>
+        <v>3.086</v>
       </c>
       <c r="D145" t="n">
-        <v>3.075</v>
+        <v>3.086</v>
       </c>
       <c r="E145" t="n">
-        <v>3.075</v>
+        <v>3.086</v>
       </c>
       <c r="F145" t="n">
-        <v>3001.856</v>
+        <v>6301.0544</v>
       </c>
       <c r="G145" t="n">
-        <v>3.028266666666666</v>
+        <v>3.026683333333332</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5725,11 +5645,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5739,22 +5655,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>3.074</v>
+        <v>3.075</v>
       </c>
       <c r="C146" t="n">
-        <v>2.92</v>
+        <v>3.075</v>
       </c>
       <c r="D146" t="n">
-        <v>3.074</v>
+        <v>3.075</v>
       </c>
       <c r="E146" t="n">
-        <v>2.92</v>
+        <v>3.075</v>
       </c>
       <c r="F146" t="n">
-        <v>1609063.4507</v>
+        <v>3001.856</v>
       </c>
       <c r="G146" t="n">
-        <v>3.027249999999999</v>
+        <v>3.028266666666666</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5764,11 +5680,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5778,10 +5690,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
+        <v>3.074</v>
+      </c>
+      <c r="C147" t="n">
         <v>2.92</v>
-      </c>
-      <c r="C147" t="n">
-        <v>2.94</v>
       </c>
       <c r="D147" t="n">
         <v>3.074</v>
@@ -5790,10 +5702,10 @@
         <v>2.92</v>
       </c>
       <c r="F147" t="n">
-        <v>864702.0307589135</v>
+        <v>1609063.4507</v>
       </c>
       <c r="G147" t="n">
-        <v>3.026566666666666</v>
+        <v>3.027249999999999</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5803,11 +5715,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5817,22 +5725,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="C148" t="n">
         <v>2.94</v>
       </c>
       <c r="D148" t="n">
-        <v>2.94</v>
+        <v>3.074</v>
       </c>
       <c r="E148" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="F148" t="n">
-        <v>302738.9953</v>
+        <v>864702.0307589135</v>
       </c>
       <c r="G148" t="n">
-        <v>3.025599999999999</v>
+        <v>3.026566666666666</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5842,11 +5750,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5856,22 +5760,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>3.011</v>
+        <v>2.94</v>
       </c>
       <c r="C149" t="n">
-        <v>2.97</v>
+        <v>2.94</v>
       </c>
       <c r="D149" t="n">
-        <v>3.011</v>
+        <v>2.94</v>
       </c>
       <c r="E149" t="n">
-        <v>2.97</v>
+        <v>2.94</v>
       </c>
       <c r="F149" t="n">
-        <v>87875.01210000001</v>
+        <v>302738.9953</v>
       </c>
       <c r="G149" t="n">
-        <v>3.024116666666666</v>
+        <v>3.025599999999999</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5881,11 +5785,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5895,22 +5795,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>2.99</v>
+        <v>3.011</v>
       </c>
       <c r="C150" t="n">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="D150" t="n">
-        <v>2.99</v>
+        <v>3.011</v>
       </c>
       <c r="E150" t="n">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="F150" t="n">
-        <v>228078.4093</v>
+        <v>87875.01210000001</v>
       </c>
       <c r="G150" t="n">
-        <v>3.022866666666666</v>
+        <v>3.024116666666666</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5920,11 +5820,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5934,22 +5830,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>3.059</v>
+        <v>2.99</v>
       </c>
       <c r="C151" t="n">
-        <v>3.002</v>
+        <v>2.99</v>
       </c>
       <c r="D151" t="n">
-        <v>3.059</v>
+        <v>2.99</v>
       </c>
       <c r="E151" t="n">
-        <v>3.002</v>
+        <v>2.99</v>
       </c>
       <c r="F151" t="n">
-        <v>44420.21147041517</v>
+        <v>228078.4093</v>
       </c>
       <c r="G151" t="n">
-        <v>3.021533333333333</v>
+        <v>3.022866666666666</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5959,11 +5855,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5973,22 +5865,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>3.037</v>
+        <v>3.059</v>
       </c>
       <c r="C152" t="n">
-        <v>3.037</v>
+        <v>3.002</v>
       </c>
       <c r="D152" t="n">
-        <v>3.037</v>
+        <v>3.059</v>
       </c>
       <c r="E152" t="n">
-        <v>3.037</v>
+        <v>3.002</v>
       </c>
       <c r="F152" t="n">
-        <v>500</v>
+        <v>44420.21147041517</v>
       </c>
       <c r="G152" t="n">
-        <v>3.020966666666666</v>
+        <v>3.021533333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5998,11 +5890,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6012,22 +5900,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>2.99</v>
+        <v>3.037</v>
       </c>
       <c r="C153" t="n">
-        <v>2.99</v>
+        <v>3.037</v>
       </c>
       <c r="D153" t="n">
-        <v>2.99</v>
+        <v>3.037</v>
       </c>
       <c r="E153" t="n">
-        <v>2.99</v>
+        <v>3.037</v>
       </c>
       <c r="F153" t="n">
-        <v>11220</v>
+        <v>500</v>
       </c>
       <c r="G153" t="n">
-        <v>3.019933333333333</v>
+        <v>3.020966666666666</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6037,11 +5925,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6051,22 +5935,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>2.98</v>
+        <v>2.99</v>
       </c>
       <c r="C154" t="n">
-        <v>2.92</v>
+        <v>2.99</v>
       </c>
       <c r="D154" t="n">
-        <v>2.98</v>
+        <v>2.99</v>
       </c>
       <c r="E154" t="n">
-        <v>2.92</v>
+        <v>2.99</v>
       </c>
       <c r="F154" t="n">
-        <v>496411.7868</v>
+        <v>11220</v>
       </c>
       <c r="G154" t="n">
-        <v>3.017733333333333</v>
+        <v>3.019933333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6076,11 +5960,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6090,22 +5970,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>2.959</v>
+        <v>2.98</v>
       </c>
       <c r="C155" t="n">
-        <v>2.931</v>
+        <v>2.92</v>
       </c>
       <c r="D155" t="n">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="E155" t="n">
-        <v>2.931</v>
+        <v>2.92</v>
       </c>
       <c r="F155" t="n">
-        <v>258195.0487</v>
+        <v>496411.7868</v>
       </c>
       <c r="G155" t="n">
-        <v>3.015933333333334</v>
+        <v>3.017733333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6115,11 +5995,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6129,22 +6005,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>2.95</v>
+        <v>2.959</v>
       </c>
       <c r="C156" t="n">
-        <v>2.957</v>
+        <v>2.931</v>
       </c>
       <c r="D156" t="n">
-        <v>2.957</v>
+        <v>2.97</v>
       </c>
       <c r="E156" t="n">
-        <v>2.95</v>
+        <v>2.931</v>
       </c>
       <c r="F156" t="n">
-        <v>4414.923</v>
+        <v>258195.0487</v>
       </c>
       <c r="G156" t="n">
-        <v>3.014383333333333</v>
+        <v>3.015933333333334</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6154,11 +6030,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6168,22 +6040,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>2.958</v>
+        <v>2.95</v>
       </c>
       <c r="C157" t="n">
-        <v>2.958</v>
+        <v>2.957</v>
       </c>
       <c r="D157" t="n">
-        <v>2.958</v>
+        <v>2.957</v>
       </c>
       <c r="E157" t="n">
-        <v>2.958</v>
+        <v>2.95</v>
       </c>
       <c r="F157" t="n">
-        <v>500</v>
+        <v>4414.923</v>
       </c>
       <c r="G157" t="n">
-        <v>3.013183333333333</v>
+        <v>3.014383333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6193,11 +6065,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6219,10 +6087,10 @@
         <v>2.958</v>
       </c>
       <c r="F158" t="n">
-        <v>96675.8024</v>
+        <v>500</v>
       </c>
       <c r="G158" t="n">
-        <v>3.012033333333334</v>
+        <v>3.013183333333333</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6232,11 +6100,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6249,19 +6113,19 @@
         <v>2.958</v>
       </c>
       <c r="C159" t="n">
-        <v>2.931</v>
+        <v>2.958</v>
       </c>
       <c r="D159" t="n">
         <v>2.958</v>
       </c>
       <c r="E159" t="n">
-        <v>2.931</v>
+        <v>2.958</v>
       </c>
       <c r="F159" t="n">
-        <v>1026211.1063</v>
+        <v>96675.8024</v>
       </c>
       <c r="G159" t="n">
-        <v>3.010466666666667</v>
+        <v>3.012033333333334</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6271,11 +6135,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6285,22 +6145,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>2.959</v>
+        <v>2.958</v>
       </c>
       <c r="C160" t="n">
-        <v>2.959</v>
+        <v>2.931</v>
       </c>
       <c r="D160" t="n">
-        <v>2.959</v>
+        <v>2.958</v>
       </c>
       <c r="E160" t="n">
-        <v>2.959</v>
+        <v>2.931</v>
       </c>
       <c r="F160" t="n">
-        <v>500</v>
+        <v>1026211.1063</v>
       </c>
       <c r="G160" t="n">
-        <v>3.009466666666667</v>
+        <v>3.010466666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6310,11 +6170,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6324,22 +6180,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>2.95</v>
+        <v>2.959</v>
       </c>
       <c r="C161" t="n">
-        <v>2.95</v>
+        <v>2.959</v>
       </c>
       <c r="D161" t="n">
-        <v>2.95</v>
+        <v>2.959</v>
       </c>
       <c r="E161" t="n">
-        <v>2.95</v>
+        <v>2.959</v>
       </c>
       <c r="F161" t="n">
-        <v>4288.8378</v>
+        <v>500</v>
       </c>
       <c r="G161" t="n">
-        <v>3.008133333333333</v>
+        <v>3.009466666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6349,11 +6205,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6363,22 +6215,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>2.99</v>
+        <v>2.95</v>
       </c>
       <c r="C162" t="n">
-        <v>2.99</v>
+        <v>2.95</v>
       </c>
       <c r="D162" t="n">
-        <v>2.99</v>
+        <v>2.95</v>
       </c>
       <c r="E162" t="n">
-        <v>2.99</v>
+        <v>2.95</v>
       </c>
       <c r="F162" t="n">
-        <v>2504.8956</v>
+        <v>4288.8378</v>
       </c>
       <c r="G162" t="n">
-        <v>3.00765</v>
+        <v>3.008133333333333</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6388,11 +6240,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6402,22 +6250,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>2.968</v>
+        <v>2.99</v>
       </c>
       <c r="C163" t="n">
-        <v>2.968</v>
+        <v>2.99</v>
       </c>
       <c r="D163" t="n">
-        <v>2.968</v>
+        <v>2.99</v>
       </c>
       <c r="E163" t="n">
-        <v>2.968</v>
+        <v>2.99</v>
       </c>
       <c r="F163" t="n">
-        <v>6999.0837</v>
+        <v>2504.8956</v>
       </c>
       <c r="G163" t="n">
-        <v>3.00685</v>
+        <v>3.00765</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6427,11 +6275,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6441,22 +6285,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>2.97</v>
+        <v>2.968</v>
       </c>
       <c r="C164" t="n">
-        <v>2.977</v>
+        <v>2.968</v>
       </c>
       <c r="D164" t="n">
-        <v>2.977</v>
+        <v>2.968</v>
       </c>
       <c r="E164" t="n">
-        <v>2.97</v>
+        <v>2.968</v>
       </c>
       <c r="F164" t="n">
-        <v>14341.6346</v>
+        <v>6999.0837</v>
       </c>
       <c r="G164" t="n">
-        <v>3.006466666666667</v>
+        <v>3.00685</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6466,11 +6310,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6480,22 +6320,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="C165" t="n">
-        <v>2.99</v>
+        <v>2.977</v>
       </c>
       <c r="D165" t="n">
-        <v>2.99</v>
+        <v>2.977</v>
       </c>
       <c r="E165" t="n">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="F165" t="n">
-        <v>2081</v>
+        <v>14341.6346</v>
       </c>
       <c r="G165" t="n">
-        <v>3.0064</v>
+        <v>3.006466666666667</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6505,11 +6345,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6531,10 +6367,10 @@
         <v>2.99</v>
       </c>
       <c r="F166" t="n">
-        <v>1205.856</v>
+        <v>2081</v>
       </c>
       <c r="G166" t="n">
-        <v>3.00635</v>
+        <v>3.0064</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6544,11 +6380,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6570,10 +6402,10 @@
         <v>2.99</v>
       </c>
       <c r="F167" t="n">
-        <v>60024.144</v>
+        <v>1205.856</v>
       </c>
       <c r="G167" t="n">
-        <v>3.006383333333334</v>
+        <v>3.00635</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6583,11 +6415,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6597,22 +6425,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>3</v>
+        <v>2.99</v>
       </c>
       <c r="C168" t="n">
-        <v>3</v>
+        <v>2.99</v>
       </c>
       <c r="D168" t="n">
-        <v>3</v>
+        <v>2.99</v>
       </c>
       <c r="E168" t="n">
-        <v>3</v>
+        <v>2.99</v>
       </c>
       <c r="F168" t="n">
-        <v>6999.0837</v>
+        <v>60024.144</v>
       </c>
       <c r="G168" t="n">
-        <v>3.006716666666668</v>
+        <v>3.006383333333334</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6622,11 +6450,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6636,22 +6460,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>3.01</v>
+        <v>3</v>
       </c>
       <c r="C169" t="n">
-        <v>3.02</v>
+        <v>3</v>
       </c>
       <c r="D169" t="n">
-        <v>3.02</v>
+        <v>3</v>
       </c>
       <c r="E169" t="n">
-        <v>3.01</v>
+        <v>3</v>
       </c>
       <c r="F169" t="n">
-        <v>9391.1751</v>
+        <v>6999.0837</v>
       </c>
       <c r="G169" t="n">
-        <v>3.006650000000001</v>
+        <v>3.006716666666668</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6661,11 +6485,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6675,22 +6495,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="C170" t="n">
         <v>3.02</v>
       </c>
-      <c r="C170" t="n">
-        <v>3.01</v>
-      </c>
       <c r="D170" t="n">
-        <v>3.03</v>
+        <v>3.02</v>
       </c>
       <c r="E170" t="n">
         <v>3.01</v>
       </c>
       <c r="F170" t="n">
-        <v>699009.5600000001</v>
+        <v>9391.1751</v>
       </c>
       <c r="G170" t="n">
-        <v>3.006416666666667</v>
+        <v>3.006650000000001</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6700,11 +6520,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6717,19 +6533,19 @@
         <v>3.02</v>
       </c>
       <c r="C171" t="n">
-        <v>3.03</v>
+        <v>3.01</v>
       </c>
       <c r="D171" t="n">
         <v>3.03</v>
       </c>
       <c r="E171" t="n">
-        <v>3.02</v>
+        <v>3.01</v>
       </c>
       <c r="F171" t="n">
-        <v>29610</v>
+        <v>699009.5600000001</v>
       </c>
       <c r="G171" t="n">
-        <v>3.006516666666668</v>
+        <v>3.006416666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6739,11 +6555,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6756,19 +6568,19 @@
         <v>3.02</v>
       </c>
       <c r="C172" t="n">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="D172" t="n">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="E172" t="n">
         <v>3.02</v>
       </c>
       <c r="F172" t="n">
-        <v>5891.856</v>
+        <v>29610</v>
       </c>
       <c r="G172" t="n">
-        <v>3.006850000000001</v>
+        <v>3.006516666666668</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6778,11 +6590,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6792,22 +6600,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>3.01</v>
+        <v>3.02</v>
       </c>
       <c r="C173" t="n">
-        <v>3.01</v>
+        <v>3.02</v>
       </c>
       <c r="D173" t="n">
-        <v>3.01</v>
+        <v>3.02</v>
       </c>
       <c r="E173" t="n">
-        <v>3.01</v>
+        <v>3.02</v>
       </c>
       <c r="F173" t="n">
-        <v>70840.9791</v>
+        <v>5891.856</v>
       </c>
       <c r="G173" t="n">
-        <v>3.006616666666667</v>
+        <v>3.006850000000001</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6817,11 +6625,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6831,22 +6635,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>3.02</v>
+        <v>3.01</v>
       </c>
       <c r="C174" t="n">
-        <v>3.02</v>
+        <v>3.01</v>
       </c>
       <c r="D174" t="n">
-        <v>3.02</v>
+        <v>3.01</v>
       </c>
       <c r="E174" t="n">
-        <v>3.02</v>
+        <v>3.01</v>
       </c>
       <c r="F174" t="n">
-        <v>500</v>
+        <v>70840.9791</v>
       </c>
       <c r="G174" t="n">
-        <v>3.007116666666668</v>
+        <v>3.006616666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6856,11 +6660,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6870,22 +6670,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="C175" t="n">
-        <v>2.941</v>
+        <v>3.02</v>
       </c>
       <c r="D175" t="n">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="E175" t="n">
-        <v>2.941</v>
+        <v>3.02</v>
       </c>
       <c r="F175" t="n">
-        <v>447741.3792</v>
+        <v>500</v>
       </c>
       <c r="G175" t="n">
-        <v>3.005733333333334</v>
+        <v>3.007116666666668</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6895,11 +6695,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6909,22 +6705,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>3.001</v>
+        <v>3</v>
       </c>
       <c r="C176" t="n">
-        <v>3.001</v>
+        <v>2.941</v>
       </c>
       <c r="D176" t="n">
-        <v>3.001</v>
+        <v>3</v>
       </c>
       <c r="E176" t="n">
-        <v>3.001</v>
+        <v>2.941</v>
       </c>
       <c r="F176" t="n">
-        <v>1204.856</v>
+        <v>447741.3792</v>
       </c>
       <c r="G176" t="n">
-        <v>3.005583333333334</v>
+        <v>3.005733333333334</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6934,11 +6730,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6948,22 +6740,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>3</v>
+        <v>3.001</v>
       </c>
       <c r="C177" t="n">
-        <v>2.94</v>
+        <v>3.001</v>
       </c>
       <c r="D177" t="n">
-        <v>3</v>
+        <v>3.001</v>
       </c>
       <c r="E177" t="n">
-        <v>2.94</v>
+        <v>3.001</v>
       </c>
       <c r="F177" t="n">
-        <v>1263990.7246</v>
+        <v>1204.856</v>
       </c>
       <c r="G177" t="n">
-        <v>3.004433333333334</v>
+        <v>3.005583333333334</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6973,11 +6765,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6987,22 +6775,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>2.979</v>
+        <v>3</v>
       </c>
       <c r="C178" t="n">
-        <v>2.979</v>
+        <v>2.94</v>
       </c>
       <c r="D178" t="n">
-        <v>2.979</v>
+        <v>3</v>
       </c>
       <c r="E178" t="n">
-        <v>2.979</v>
+        <v>2.94</v>
       </c>
       <c r="F178" t="n">
-        <v>423520</v>
+        <v>1263990.7246</v>
       </c>
       <c r="G178" t="n">
-        <v>3.003916666666668</v>
+        <v>3.004433333333334</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7012,11 +6800,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7026,22 +6810,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>3.011</v>
+        <v>2.979</v>
       </c>
       <c r="C179" t="n">
-        <v>3.041</v>
+        <v>2.979</v>
       </c>
       <c r="D179" t="n">
-        <v>3.041</v>
+        <v>2.979</v>
       </c>
       <c r="E179" t="n">
-        <v>3.011</v>
+        <v>2.979</v>
       </c>
       <c r="F179" t="n">
-        <v>155663.6977</v>
+        <v>423520</v>
       </c>
       <c r="G179" t="n">
-        <v>3.004433333333335</v>
+        <v>3.003916666666668</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7051,11 +6835,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7065,22 +6845,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
+        <v>3.011</v>
+      </c>
+      <c r="C180" t="n">
         <v>3.041</v>
-      </c>
-      <c r="C180" t="n">
-        <v>3.03</v>
       </c>
       <c r="D180" t="n">
         <v>3.041</v>
       </c>
       <c r="E180" t="n">
-        <v>3.03</v>
+        <v>3.011</v>
       </c>
       <c r="F180" t="n">
-        <v>411958.8056</v>
+        <v>155663.6977</v>
       </c>
       <c r="G180" t="n">
-        <v>3.005100000000001</v>
+        <v>3.004433333333335</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7090,11 +6870,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7104,22 +6880,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
+        <v>3.041</v>
+      </c>
+      <c r="C181" t="n">
         <v>3.03</v>
       </c>
-      <c r="C181" t="n">
-        <v>3.067</v>
-      </c>
       <c r="D181" t="n">
-        <v>3.067</v>
+        <v>3.041</v>
       </c>
       <c r="E181" t="n">
         <v>3.03</v>
       </c>
       <c r="F181" t="n">
-        <v>126977.0704</v>
+        <v>411958.8056</v>
       </c>
       <c r="G181" t="n">
-        <v>3.006550000000002</v>
+        <v>3.005100000000001</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7129,11 +6905,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7143,22 +6915,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>3.066</v>
+        <v>3.03</v>
       </c>
       <c r="C182" t="n">
-        <v>3.068</v>
+        <v>3.067</v>
       </c>
       <c r="D182" t="n">
-        <v>3.068</v>
+        <v>3.067</v>
       </c>
       <c r="E182" t="n">
-        <v>3.066</v>
+        <v>3.03</v>
       </c>
       <c r="F182" t="n">
-        <v>16501</v>
+        <v>126977.0704</v>
       </c>
       <c r="G182" t="n">
-        <v>3.008016666666669</v>
+        <v>3.006550000000002</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7168,11 +6940,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7182,22 +6950,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>3.065</v>
+        <v>3.066</v>
       </c>
       <c r="C183" t="n">
-        <v>3.074</v>
+        <v>3.068</v>
       </c>
       <c r="D183" t="n">
-        <v>3.074</v>
+        <v>3.068</v>
       </c>
       <c r="E183" t="n">
-        <v>3.065</v>
+        <v>3.066</v>
       </c>
       <c r="F183" t="n">
-        <v>149466.1473</v>
+        <v>16501</v>
       </c>
       <c r="G183" t="n">
-        <v>3.009583333333336</v>
+        <v>3.008016666666669</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7207,11 +6975,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7221,7 +6985,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>3.074</v>
+        <v>3.065</v>
       </c>
       <c r="C184" t="n">
         <v>3.074</v>
@@ -7230,13 +6994,13 @@
         <v>3.074</v>
       </c>
       <c r="E184" t="n">
-        <v>3.074</v>
+        <v>3.065</v>
       </c>
       <c r="F184" t="n">
-        <v>14420.4625</v>
+        <v>149466.1473</v>
       </c>
       <c r="G184" t="n">
-        <v>3.010483333333336</v>
+        <v>3.009583333333336</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7246,11 +7010,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7263,19 +7023,19 @@
         <v>3.074</v>
       </c>
       <c r="C185" t="n">
-        <v>3.078</v>
+        <v>3.074</v>
       </c>
       <c r="D185" t="n">
-        <v>3.078</v>
+        <v>3.074</v>
       </c>
       <c r="E185" t="n">
         <v>3.074</v>
       </c>
       <c r="F185" t="n">
-        <v>25083.56</v>
+        <v>14420.4625</v>
       </c>
       <c r="G185" t="n">
-        <v>3.011466666666669</v>
+        <v>3.010483333333336</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7285,11 +7045,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7299,22 +7055,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>3.062</v>
+        <v>3.074</v>
       </c>
       <c r="C186" t="n">
-        <v>3.031</v>
+        <v>3.078</v>
       </c>
       <c r="D186" t="n">
-        <v>3.062</v>
+        <v>3.078</v>
       </c>
       <c r="E186" t="n">
-        <v>3.031</v>
+        <v>3.074</v>
       </c>
       <c r="F186" t="n">
-        <v>140507.5422</v>
+        <v>25083.56</v>
       </c>
       <c r="G186" t="n">
-        <v>3.011683333333336</v>
+        <v>3.011466666666669</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7324,11 +7080,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7338,22 +7090,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>3.03</v>
+        <v>3.062</v>
       </c>
       <c r="C187" t="n">
-        <v>3.03</v>
+        <v>3.031</v>
       </c>
       <c r="D187" t="n">
-        <v>3.03</v>
+        <v>3.062</v>
       </c>
       <c r="E187" t="n">
-        <v>3.03</v>
+        <v>3.031</v>
       </c>
       <c r="F187" t="n">
-        <v>198958.8833</v>
+        <v>140507.5422</v>
       </c>
       <c r="G187" t="n">
-        <v>3.011733333333336</v>
+        <v>3.011683333333336</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7363,11 +7115,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7380,19 +7128,19 @@
         <v>3.03</v>
       </c>
       <c r="C188" t="n">
-        <v>3.054</v>
+        <v>3.03</v>
       </c>
       <c r="D188" t="n">
-        <v>3.054</v>
+        <v>3.03</v>
       </c>
       <c r="E188" t="n">
         <v>3.03</v>
       </c>
       <c r="F188" t="n">
-        <v>77779.1921</v>
+        <v>198958.8833</v>
       </c>
       <c r="G188" t="n">
-        <v>3.012300000000003</v>
+        <v>3.011733333333336</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7402,11 +7150,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7416,22 +7160,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>3.064</v>
+        <v>3.03</v>
       </c>
       <c r="C189" t="n">
-        <v>3.06</v>
+        <v>3.054</v>
       </c>
       <c r="D189" t="n">
-        <v>3.064</v>
+        <v>3.054</v>
       </c>
       <c r="E189" t="n">
-        <v>3.06</v>
+        <v>3.03</v>
       </c>
       <c r="F189" t="n">
-        <v>10011.418</v>
+        <v>77779.1921</v>
       </c>
       <c r="G189" t="n">
-        <v>3.012850000000003</v>
+        <v>3.012300000000003</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7441,11 +7185,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7455,22 +7195,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>3.054</v>
+        <v>3.064</v>
       </c>
       <c r="C190" t="n">
-        <v>3.03</v>
+        <v>3.06</v>
       </c>
       <c r="D190" t="n">
-        <v>3.054</v>
+        <v>3.064</v>
       </c>
       <c r="E190" t="n">
-        <v>3.03</v>
+        <v>3.06</v>
       </c>
       <c r="F190" t="n">
-        <v>103206.9135</v>
+        <v>10011.418</v>
       </c>
       <c r="G190" t="n">
-        <v>3.012800000000003</v>
+        <v>3.012850000000003</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7480,11 +7220,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7494,22 +7230,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>3.021</v>
+        <v>3.054</v>
       </c>
       <c r="C191" t="n">
-        <v>3.021</v>
+        <v>3.03</v>
       </c>
       <c r="D191" t="n">
-        <v>3.021</v>
+        <v>3.054</v>
       </c>
       <c r="E191" t="n">
-        <v>3.021</v>
+        <v>3.03</v>
       </c>
       <c r="F191" t="n">
-        <v>3804.0932</v>
+        <v>103206.9135</v>
       </c>
       <c r="G191" t="n">
-        <v>3.012433333333336</v>
+        <v>3.012800000000003</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7519,11 +7255,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7545,10 +7277,10 @@
         <v>3.021</v>
       </c>
       <c r="F192" t="n">
-        <v>4275.7401</v>
+        <v>3804.0932</v>
       </c>
       <c r="G192" t="n">
-        <v>3.012016666666669</v>
+        <v>3.012433333333336</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7558,11 +7290,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7572,22 +7300,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>3.04</v>
+        <v>3.021</v>
       </c>
       <c r="C193" t="n">
-        <v>3.04</v>
+        <v>3.021</v>
       </c>
       <c r="D193" t="n">
-        <v>3.04</v>
+        <v>3.021</v>
       </c>
       <c r="E193" t="n">
-        <v>3.04</v>
+        <v>3.021</v>
       </c>
       <c r="F193" t="n">
-        <v>5005.85</v>
+        <v>4275.7401</v>
       </c>
       <c r="G193" t="n">
-        <v>3.011850000000003</v>
+        <v>3.012016666666669</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7597,11 +7325,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7623,10 +7347,10 @@
         <v>3.04</v>
       </c>
       <c r="F194" t="n">
-        <v>8008.9653</v>
+        <v>5005.85</v>
       </c>
       <c r="G194" t="n">
-        <v>3.011966666666669</v>
+        <v>3.011850000000003</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7636,11 +7360,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7650,22 +7370,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>3.031</v>
+        <v>3.04</v>
       </c>
       <c r="C195" t="n">
-        <v>3.031</v>
+        <v>3.04</v>
       </c>
       <c r="D195" t="n">
-        <v>3.031</v>
+        <v>3.04</v>
       </c>
       <c r="E195" t="n">
-        <v>3.031</v>
+        <v>3.04</v>
       </c>
       <c r="F195" t="n">
-        <v>12074.63</v>
+        <v>8008.9653</v>
       </c>
       <c r="G195" t="n">
-        <v>3.011650000000003</v>
+        <v>3.011966666666669</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7675,11 +7395,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7701,10 +7417,10 @@
         <v>3.031</v>
       </c>
       <c r="F196" t="n">
-        <v>2776.4537</v>
+        <v>12074.63</v>
       </c>
       <c r="G196" t="n">
-        <v>3.011333333333336</v>
+        <v>3.011650000000003</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7714,11 +7430,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7728,22 +7440,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>3.025</v>
+        <v>3.031</v>
       </c>
       <c r="C197" t="n">
-        <v>3.025</v>
+        <v>3.031</v>
       </c>
       <c r="D197" t="n">
-        <v>3.025</v>
+        <v>3.031</v>
       </c>
       <c r="E197" t="n">
-        <v>3.025</v>
+        <v>3.031</v>
       </c>
       <c r="F197" t="n">
-        <v>40310</v>
+        <v>2776.4537</v>
       </c>
       <c r="G197" t="n">
-        <v>3.011200000000003</v>
+        <v>3.011333333333336</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7753,11 +7465,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7779,10 +7487,10 @@
         <v>3.025</v>
       </c>
       <c r="F198" t="n">
-        <v>13440</v>
+        <v>40310</v>
       </c>
       <c r="G198" t="n">
-        <v>3.010783333333336</v>
+        <v>3.011200000000003</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7792,11 +7500,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7806,22 +7510,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>3.021</v>
+        <v>3.025</v>
       </c>
       <c r="C199" t="n">
-        <v>3.021</v>
+        <v>3.025</v>
       </c>
       <c r="D199" t="n">
-        <v>3.021</v>
+        <v>3.025</v>
       </c>
       <c r="E199" t="n">
-        <v>3.021</v>
+        <v>3.025</v>
       </c>
       <c r="F199" t="n">
-        <v>13248.6486</v>
+        <v>13440</v>
       </c>
       <c r="G199" t="n">
-        <v>3.010133333333336</v>
+        <v>3.010783333333336</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7831,11 +7535,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7845,22 +7545,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>3.015</v>
+        <v>3.021</v>
       </c>
       <c r="C200" t="n">
-        <v>3</v>
+        <v>3.021</v>
       </c>
       <c r="D200" t="n">
-        <v>3.015</v>
+        <v>3.021</v>
       </c>
       <c r="E200" t="n">
-        <v>3</v>
+        <v>3.021</v>
       </c>
       <c r="F200" t="n">
-        <v>24220.0334</v>
+        <v>13248.6486</v>
       </c>
       <c r="G200" t="n">
-        <v>3.008800000000002</v>
+        <v>3.010133333333336</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7870,11 +7570,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7884,22 +7580,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>2.997</v>
+        <v>3.015</v>
       </c>
       <c r="C201" t="n">
-        <v>2.997</v>
+        <v>3</v>
       </c>
       <c r="D201" t="n">
-        <v>2.997</v>
+        <v>3.015</v>
       </c>
       <c r="E201" t="n">
-        <v>2.997</v>
+        <v>3</v>
       </c>
       <c r="F201" t="n">
-        <v>3358.5911</v>
+        <v>24220.0334</v>
       </c>
       <c r="G201" t="n">
-        <v>3.007416666666669</v>
+        <v>3.008800000000002</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7909,11 +7605,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7923,22 +7615,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>2.994</v>
+        <v>2.997</v>
       </c>
       <c r="C202" t="n">
-        <v>2.994</v>
+        <v>2.997</v>
       </c>
       <c r="D202" t="n">
-        <v>2.994</v>
+        <v>2.997</v>
       </c>
       <c r="E202" t="n">
-        <v>2.994</v>
+        <v>2.997</v>
       </c>
       <c r="F202" t="n">
-        <v>3735.5442</v>
+        <v>3358.5911</v>
       </c>
       <c r="G202" t="n">
-        <v>3.005983333333335</v>
+        <v>3.007416666666669</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7948,11 +7640,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7974,10 +7662,10 @@
         <v>2.994</v>
       </c>
       <c r="F203" t="n">
-        <v>6602.0497</v>
+        <v>3735.5442</v>
       </c>
       <c r="G203" t="n">
-        <v>3.004450000000002</v>
+        <v>3.005983333333335</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7987,11 +7675,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8001,22 +7685,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>3.015</v>
+        <v>2.994</v>
       </c>
       <c r="C204" t="n">
-        <v>3.015</v>
+        <v>2.994</v>
       </c>
       <c r="D204" t="n">
-        <v>3.015</v>
+        <v>2.994</v>
       </c>
       <c r="E204" t="n">
-        <v>3.015</v>
+        <v>2.994</v>
       </c>
       <c r="F204" t="n">
-        <v>331.856</v>
+        <v>6602.0497</v>
       </c>
       <c r="G204" t="n">
-        <v>3.003266666666668</v>
+        <v>3.004450000000002</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8026,11 +7710,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8040,22 +7720,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>3</v>
+        <v>3.015</v>
       </c>
       <c r="C205" t="n">
-        <v>3</v>
+        <v>3.015</v>
       </c>
       <c r="D205" t="n">
-        <v>3</v>
+        <v>3.015</v>
       </c>
       <c r="E205" t="n">
-        <v>3</v>
+        <v>3.015</v>
       </c>
       <c r="F205" t="n">
-        <v>7007.563</v>
+        <v>331.856</v>
       </c>
       <c r="G205" t="n">
-        <v>3.002016666666668</v>
+        <v>3.003266666666668</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8065,11 +7745,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8079,22 +7755,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>3.015</v>
+        <v>3</v>
       </c>
       <c r="C206" t="n">
-        <v>3.015</v>
+        <v>3</v>
       </c>
       <c r="D206" t="n">
-        <v>3.015</v>
+        <v>3</v>
       </c>
       <c r="E206" t="n">
-        <v>3.015</v>
+        <v>3</v>
       </c>
       <c r="F206" t="n">
-        <v>500</v>
+        <v>7007.563</v>
       </c>
       <c r="G206" t="n">
-        <v>3.003600000000001</v>
+        <v>3.002016666666668</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8104,11 +7780,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8118,22 +7790,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>2.994</v>
+        <v>3.015</v>
       </c>
       <c r="C207" t="n">
-        <v>2.994</v>
+        <v>3.015</v>
       </c>
       <c r="D207" t="n">
-        <v>2.994</v>
+        <v>3.015</v>
       </c>
       <c r="E207" t="n">
-        <v>2.994</v>
+        <v>3.015</v>
       </c>
       <c r="F207" t="n">
-        <v>2538.977</v>
+        <v>500</v>
       </c>
       <c r="G207" t="n">
-        <v>3.004500000000002</v>
+        <v>3.003600000000001</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8143,11 +7815,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8157,22 +7825,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>3.001</v>
+        <v>2.994</v>
       </c>
       <c r="C208" t="n">
-        <v>2.99</v>
+        <v>2.994</v>
       </c>
       <c r="D208" t="n">
-        <v>3.001</v>
+        <v>2.994</v>
       </c>
       <c r="E208" t="n">
-        <v>2.99</v>
+        <v>2.994</v>
       </c>
       <c r="F208" t="n">
-        <v>35383.2014</v>
+        <v>2538.977</v>
       </c>
       <c r="G208" t="n">
-        <v>3.005333333333335</v>
+        <v>3.004500000000002</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8182,11 +7850,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8196,22 +7860,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>2.987</v>
+        <v>3.001</v>
       </c>
       <c r="C209" t="n">
-        <v>2.94</v>
+        <v>2.99</v>
       </c>
       <c r="D209" t="n">
-        <v>2.987</v>
+        <v>3.001</v>
       </c>
       <c r="E209" t="n">
-        <v>2.94</v>
+        <v>2.99</v>
       </c>
       <c r="F209" t="n">
-        <v>1354017.292</v>
+        <v>35383.2014</v>
       </c>
       <c r="G209" t="n">
-        <v>3.004833333333335</v>
+        <v>3.005333333333335</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8221,11 +7885,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8235,22 +7895,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>2.97</v>
+        <v>2.987</v>
       </c>
       <c r="C210" t="n">
-        <v>2.97</v>
+        <v>2.94</v>
       </c>
       <c r="D210" t="n">
-        <v>2.97</v>
+        <v>2.987</v>
       </c>
       <c r="E210" t="n">
-        <v>2.97</v>
+        <v>2.94</v>
       </c>
       <c r="F210" t="n">
-        <v>12695.246</v>
+        <v>1354017.292</v>
       </c>
       <c r="G210" t="n">
-        <v>3.004500000000002</v>
+        <v>3.004833333333335</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8260,11 +7920,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8274,22 +7930,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="C211" t="n">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="D211" t="n">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="E211" t="n">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="F211" t="n">
-        <v>2002.896</v>
+        <v>12695.246</v>
       </c>
       <c r="G211" t="n">
-        <v>3.004133333333335</v>
+        <v>3.004500000000002</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8299,11 +7955,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8325,10 +7977,10 @@
         <v>2.98</v>
       </c>
       <c r="F212" t="n">
-        <v>77997.10400000001</v>
+        <v>2002.896</v>
       </c>
       <c r="G212" t="n">
-        <v>3.003183333333334</v>
+        <v>3.004133333333335</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8338,11 +7990,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8352,22 +8000,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>3.001</v>
+        <v>2.98</v>
       </c>
       <c r="C213" t="n">
-        <v>3.001</v>
+        <v>2.98</v>
       </c>
       <c r="D213" t="n">
-        <v>3.001</v>
+        <v>2.98</v>
       </c>
       <c r="E213" t="n">
-        <v>3.001</v>
+        <v>2.98</v>
       </c>
       <c r="F213" t="n">
-        <v>500</v>
+        <v>77997.10400000001</v>
       </c>
       <c r="G213" t="n">
-        <v>3.003366666666667</v>
+        <v>3.003183333333334</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8377,11 +8025,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8391,22 +8035,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>2.999</v>
+        <v>3.001</v>
       </c>
       <c r="C214" t="n">
-        <v>2.999</v>
+        <v>3.001</v>
       </c>
       <c r="D214" t="n">
-        <v>2.999</v>
+        <v>3.001</v>
       </c>
       <c r="E214" t="n">
-        <v>2.999</v>
+        <v>3.001</v>
       </c>
       <c r="F214" t="n">
-        <v>11074.856</v>
+        <v>500</v>
       </c>
       <c r="G214" t="n">
-        <v>3.004683333333334</v>
+        <v>3.003366666666667</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8416,11 +8060,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8430,22 +8070,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>2.991</v>
+        <v>2.999</v>
       </c>
       <c r="C215" t="n">
-        <v>2.991</v>
+        <v>2.999</v>
       </c>
       <c r="D215" t="n">
-        <v>2.991</v>
+        <v>2.999</v>
       </c>
       <c r="E215" t="n">
-        <v>2.991</v>
+        <v>2.999</v>
       </c>
       <c r="F215" t="n">
-        <v>5098.3871</v>
+        <v>11074.856</v>
       </c>
       <c r="G215" t="n">
-        <v>3.005683333333335</v>
+        <v>3.004683333333334</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8455,12 +8095,43 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>2.991</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2.991</v>
+      </c>
+      <c r="D216" t="n">
+        <v>2.991</v>
+      </c>
+      <c r="E216" t="n">
+        <v>2.991</v>
+      </c>
+      <c r="F216" t="n">
+        <v>5098.3871</v>
+      </c>
+      <c r="G216" t="n">
+        <v>3.005683333333335</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-19 BackTest MIX.xlsx
+++ b/BackTest/2020-01-19 BackTest MIX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M216"/>
+  <dimension ref="A1:N226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>7028.8123</v>
       </c>
       <c r="G2" t="n">
+        <v>3.0238</v>
+      </c>
+      <c r="H2" t="n">
         <v>2.997799999999998</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>66771.6526</v>
       </c>
       <c r="G3" t="n">
+        <v>3.0222</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.997466666666664</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>24953.4497</v>
       </c>
       <c r="G4" t="n">
+        <v>3.019333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>2.997466666666664</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,27 @@
         <v>2000</v>
       </c>
       <c r="G5" t="n">
+        <v>3.017066666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>2.996733333333331</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.996</v>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +611,27 @@
         <v>4112.4142</v>
       </c>
       <c r="G6" t="n">
+        <v>3.016933333333334</v>
+      </c>
+      <c r="H6" t="n">
         <v>2.996933333333331</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.982</v>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +655,27 @@
         <v>9893.2978</v>
       </c>
       <c r="G7" t="n">
+        <v>3.016066666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>2.996549999999997</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.008</v>
+      </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +699,27 @@
         <v>12004.856</v>
       </c>
       <c r="G8" t="n">
+        <v>3.014066666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>2.996766666666664</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.003</v>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +743,27 @@
         <v>314269.1753</v>
       </c>
       <c r="G9" t="n">
+        <v>3.012066666666668</v>
+      </c>
+      <c r="H9" t="n">
         <v>2.996983333333331</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.999</v>
+      </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +787,27 @@
         <v>1013861.5748</v>
       </c>
       <c r="G10" t="n">
+        <v>3.009333333333335</v>
+      </c>
+      <c r="H10" t="n">
         <v>2.99703333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.999</v>
+      </c>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +831,27 @@
         <v>94280.5533</v>
       </c>
       <c r="G11" t="n">
+        <v>3.007000000000001</v>
+      </c>
+      <c r="H11" t="n">
         <v>2.997299999999997</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.999</v>
+      </c>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +875,27 @@
         <v>3500</v>
       </c>
       <c r="G12" t="n">
+        <v>3.005133333333334</v>
+      </c>
+      <c r="H12" t="n">
         <v>2.998099999999997</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.999</v>
+      </c>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +919,27 @@
         <v>30000</v>
       </c>
       <c r="G13" t="n">
+        <v>3.002600000000001</v>
+      </c>
+      <c r="H13" t="n">
         <v>2.99888333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.992</v>
+      </c>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +963,27 @@
         <v>19007.856</v>
       </c>
       <c r="G14" t="n">
+        <v>3.0004</v>
+      </c>
+      <c r="H14" t="n">
         <v>2.999716666666664</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.992</v>
+      </c>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,22 +1007,27 @@
         <v>50920.6234</v>
       </c>
       <c r="G15" t="n">
+        <v>2.998400000000001</v>
+      </c>
+      <c r="H15" t="n">
         <v>3.000616666666664</v>
       </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.988</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>2.988</v>
       </c>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -942,26 +1051,27 @@
         <v>272669.449</v>
       </c>
       <c r="G16" t="n">
+        <v>2.996533333333334</v>
+      </c>
+      <c r="H16" t="n">
         <v>3.00158333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.988</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>2.988</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -985,26 +1095,27 @@
         <v>1474.856</v>
       </c>
       <c r="G17" t="n">
+        <v>2.995866666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>3.002449999999997</v>
       </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.988</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>2.988</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1028,24 +1139,27 @@
         <v>365161.8812</v>
       </c>
       <c r="G18" t="n">
+        <v>2.995400000000001</v>
+      </c>
+      <c r="H18" t="n">
         <v>3.003299999999997</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="L18" t="inlineStr">
+        <v>2.999</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1069,24 +1183,27 @@
         <v>210564.1176</v>
       </c>
       <c r="G19" t="n">
+        <v>2.994533333333334</v>
+      </c>
+      <c r="H19" t="n">
         <v>3.00388333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="L19" t="inlineStr">
+        <v>2.999</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1110,24 +1227,27 @@
         <v>118976.8538</v>
       </c>
       <c r="G20" t="n">
+        <v>2.9946</v>
+      </c>
+      <c r="H20" t="n">
         <v>3.00443333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="L20" t="inlineStr">
+        <v>2.983</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1151,24 +1271,27 @@
         <v>1205</v>
       </c>
       <c r="G21" t="n">
+        <v>2.994266666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>3.005316666666664</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="L21" t="inlineStr">
+        <v>2.983</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1192,24 +1315,25 @@
         <v>5098.56</v>
       </c>
       <c r="G22" t="n">
+        <v>2.994</v>
+      </c>
+      <c r="H22" t="n">
         <v>3.006133333333331</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1233,24 +1357,25 @@
         <v>21897.5</v>
       </c>
       <c r="G23" t="n">
+        <v>2.994</v>
+      </c>
+      <c r="H23" t="n">
         <v>3.006983333333331</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,24 +1399,25 @@
         <v>86393.5</v>
       </c>
       <c r="G24" t="n">
+        <v>2.9934</v>
+      </c>
+      <c r="H24" t="n">
         <v>3.007466666666664</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1315,24 +1441,25 @@
         <v>2507.856</v>
       </c>
       <c r="G25" t="n">
+        <v>2.993666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>3.007933333333331</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1356,24 +1483,25 @@
         <v>5321.85</v>
       </c>
       <c r="G26" t="n">
+        <v>2.9936</v>
+      </c>
+      <c r="H26" t="n">
         <v>3.008316666666664</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1397,24 +1525,25 @@
         <v>97425.5583</v>
       </c>
       <c r="G27" t="n">
+        <v>2.995333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>3.008849999999998</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1438,24 +1567,25 @@
         <v>80119.9644</v>
       </c>
       <c r="G28" t="n">
+        <v>2.997066666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>3.009566666666665</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,24 +1609,25 @@
         <v>14667.3005</v>
       </c>
       <c r="G29" t="n">
+        <v>2.999066666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>3.010283333333331</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1520,24 +1651,25 @@
         <v>15000</v>
       </c>
       <c r="G30" t="n">
+        <v>3.001933333333334</v>
+      </c>
+      <c r="H30" t="n">
         <v>3.011383333333332</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1561,24 +1693,25 @@
         <v>6700.1332</v>
       </c>
       <c r="G31" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="H31" t="n">
         <v>3.012366666666665</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1602,24 +1735,25 @@
         <v>1000</v>
       </c>
       <c r="G32" t="n">
+        <v>3.007333333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>3.013583333333331</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1643,24 +1777,25 @@
         <v>299209.8719</v>
       </c>
       <c r="G33" t="n">
+        <v>3.009933333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>3.014449999999998</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1684,24 +1819,25 @@
         <v>6805.1272</v>
       </c>
       <c r="G34" t="n">
+        <v>3.013333333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>3.015016666666665</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1725,24 +1861,25 @@
         <v>34001</v>
       </c>
       <c r="G35" t="n">
+        <v>3.017066666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>3.015066666666664</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1766,24 +1903,25 @@
         <v>270933.0476</v>
       </c>
       <c r="G36" t="n">
+        <v>3.019466666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>3.01508333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1807,24 +1945,25 @@
         <v>398839.8170995064</v>
       </c>
       <c r="G37" t="n">
+        <v>3.022333333333334</v>
+      </c>
+      <c r="H37" t="n">
         <v>3.015116666666664</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,24 +1987,25 @@
         <v>930265.9025</v>
       </c>
       <c r="G38" t="n">
+        <v>3.025466666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>3.015199999999997</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1889,24 +2029,25 @@
         <v>417128.0801</v>
       </c>
       <c r="G39" t="n">
+        <v>3.031466666666666</v>
+      </c>
+      <c r="H39" t="n">
         <v>3.015849999999998</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1930,24 +2071,25 @@
         <v>883017.6272</v>
       </c>
       <c r="G40" t="n">
+        <v>3.037866666666666</v>
+      </c>
+      <c r="H40" t="n">
         <v>3.016866666666664</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1971,24 +2113,25 @@
         <v>1126653.3279</v>
       </c>
       <c r="G41" t="n">
+        <v>3.0446</v>
+      </c>
+      <c r="H41" t="n">
         <v>3.017916666666664</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2012,24 +2155,25 @@
         <v>685535.193</v>
       </c>
       <c r="G42" t="n">
+        <v>3.050066666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>3.018916666666664</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2053,24 +2197,25 @@
         <v>882048.8391</v>
       </c>
       <c r="G43" t="n">
+        <v>3.055533333333334</v>
+      </c>
+      <c r="H43" t="n">
         <v>3.02008333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2094,166 +2239,193 @@
         <v>5098.387096774193</v>
       </c>
       <c r="G44" t="n">
+        <v>3.061</v>
+      </c>
+      <c r="H44" t="n">
         <v>3.02128333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="L44" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1166941.606203226</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3.066933333333334</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.023016666666664</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3.129</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3.129</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="F46" t="n">
+        <v>642956.2643</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3.073266666666667</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.024999999999997</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="F47" t="n">
+        <v>33296.4127</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3.079</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.026499999999997</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3.146</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="F48" t="n">
+        <v>931565.8517997457</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3.083800000000001</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3.027833333333331</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1.032483266398929</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="C45" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="D45" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="E45" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1166941.606203226</v>
-      </c>
-      <c r="G45" t="n">
-        <v>3.023016666666664</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="C46" t="n">
-        <v>3.129</v>
-      </c>
-      <c r="D46" t="n">
-        <v>3.129</v>
-      </c>
-      <c r="E46" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="F46" t="n">
-        <v>642956.2643</v>
-      </c>
-      <c r="G46" t="n">
-        <v>3.024999999999997</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="C47" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="D47" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="E47" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="F47" t="n">
-        <v>33296.4127</v>
-      </c>
-      <c r="G47" t="n">
-        <v>3.026499999999997</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="C48" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="D48" t="n">
-        <v>3.146</v>
-      </c>
-      <c r="E48" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="F48" t="n">
-        <v>931565.8517997457</v>
-      </c>
-      <c r="G48" t="n">
-        <v>3.027833333333331</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2275,18 +2447,21 @@
         <v>2304</v>
       </c>
       <c r="G49" t="n">
+        <v>3.091266666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>3.029616666666664</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2310,18 +2485,21 @@
         <v>6907.856</v>
       </c>
       <c r="G50" t="n">
+        <v>3.096733333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>3.031366666666664</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2345,18 +2523,21 @@
         <v>81.43000000000001</v>
       </c>
       <c r="G51" t="n">
+        <v>3.101466666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>3.033033333333331</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2380,18 +2561,21 @@
         <v>11001.895</v>
       </c>
       <c r="G52" t="n">
+        <v>3.106</v>
+      </c>
+      <c r="H52" t="n">
         <v>3.034599999999998</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2415,18 +2599,21 @@
         <v>187803.0483</v>
       </c>
       <c r="G53" t="n">
+        <v>3.108333333333334</v>
+      </c>
+      <c r="H53" t="n">
         <v>3.035466666666665</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2450,18 +2637,21 @@
         <v>1688.5309</v>
       </c>
       <c r="G54" t="n">
+        <v>3.110333333333334</v>
+      </c>
+      <c r="H54" t="n">
         <v>3.036816666666665</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2485,18 +2675,21 @@
         <v>2107.856</v>
       </c>
       <c r="G55" t="n">
+        <v>3.1104</v>
+      </c>
+      <c r="H55" t="n">
         <v>3.037816666666665</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2520,18 +2713,21 @@
         <v>4500</v>
       </c>
       <c r="G56" t="n">
+        <v>3.109866666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>3.038766666666666</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2555,18 +2751,21 @@
         <v>16119.1511</v>
       </c>
       <c r="G57" t="n">
+        <v>3.108600000000001</v>
+      </c>
+      <c r="H57" t="n">
         <v>3.039783333333332</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,18 +2789,21 @@
         <v>629069.9436</v>
       </c>
       <c r="G58" t="n">
+        <v>3.103933333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>3.039783333333332</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2625,18 +2827,21 @@
         <v>1014900.789</v>
       </c>
       <c r="G59" t="n">
+        <v>3.099266666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>3.039933333333332</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2660,18 +2865,21 @@
         <v>46178.816</v>
       </c>
       <c r="G60" t="n">
+        <v>3.093266666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>3.040133333333332</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2695,18 +2903,21 @@
         <v>924290.9136</v>
       </c>
       <c r="G61" t="n">
+        <v>3.084666666666668</v>
+      </c>
+      <c r="H61" t="n">
         <v>3.039866666666666</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2730,18 +2941,21 @@
         <v>1389660.9035</v>
       </c>
       <c r="G62" t="n">
+        <v>3.077733333333335</v>
+      </c>
+      <c r="H62" t="n">
         <v>3.039983333333332</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2765,18 +2979,21 @@
         <v>11810.5175</v>
       </c>
       <c r="G63" t="n">
+        <v>3.072400000000001</v>
+      </c>
+      <c r="H63" t="n">
         <v>3.040383333333332</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2800,18 +3017,21 @@
         <v>2307.856</v>
       </c>
       <c r="G64" t="n">
+        <v>3.066666666666668</v>
+      </c>
+      <c r="H64" t="n">
         <v>3.041449999999999</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2835,18 +3055,21 @@
         <v>3287.8563</v>
       </c>
       <c r="G65" t="n">
+        <v>3.061866666666668</v>
+      </c>
+      <c r="H65" t="n">
         <v>3.042566666666666</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,18 +3093,21 @@
         <v>2307.96</v>
       </c>
       <c r="G66" t="n">
+        <v>3.058466666666668</v>
+      </c>
+      <c r="H66" t="n">
         <v>3.043416666666666</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2905,18 +3131,21 @@
         <v>99477.852</v>
       </c>
       <c r="G67" t="n">
+        <v>3.053333333333335</v>
+      </c>
+      <c r="H67" t="n">
         <v>3.043916666666666</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2940,18 +3169,21 @@
         <v>8080.716</v>
       </c>
       <c r="G68" t="n">
+        <v>3.050000000000001</v>
+      </c>
+      <c r="H68" t="n">
         <v>3.044449999999999</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2975,18 +3207,21 @@
         <v>11945.7618</v>
       </c>
       <c r="G69" t="n">
+        <v>3.044866666666668</v>
+      </c>
+      <c r="H69" t="n">
         <v>3.045016666666666</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3010,18 +3245,21 @@
         <v>337.6673</v>
       </c>
       <c r="G70" t="n">
+        <v>3.040200000000001</v>
+      </c>
+      <c r="H70" t="n">
         <v>3.045533333333332</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3045,18 +3283,21 @@
         <v>65500</v>
       </c>
       <c r="G71" t="n">
+        <v>3.036133333333334</v>
+      </c>
+      <c r="H71" t="n">
         <v>3.046049999999999</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3080,18 +3321,21 @@
         <v>30334.8752</v>
       </c>
       <c r="G72" t="n">
+        <v>3.032933333333334</v>
+      </c>
+      <c r="H72" t="n">
         <v>3.046733333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3115,18 +3359,21 @@
         <v>3278.688524590164</v>
       </c>
       <c r="G73" t="n">
+        <v>3.034266666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>3.047699999999999</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3150,18 +3397,21 @@
         <v>38498.9065</v>
       </c>
       <c r="G74" t="n">
+        <v>3.033600000000001</v>
+      </c>
+      <c r="H74" t="n">
         <v>3.048233333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3185,18 +3435,21 @@
         <v>540914.428</v>
       </c>
       <c r="G75" t="n">
+        <v>3.032866666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>3.04875</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3220,18 +3473,21 @@
         <v>3242.5187</v>
       </c>
       <c r="G76" t="n">
+        <v>3.033933333333334</v>
+      </c>
+      <c r="H76" t="n">
         <v>3.049216666666666</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3255,18 +3511,21 @@
         <v>2963.7214</v>
       </c>
       <c r="G77" t="n">
+        <v>3.033733333333334</v>
+      </c>
+      <c r="H77" t="n">
         <v>3.04945</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3290,18 +3549,21 @@
         <v>158510.0662</v>
       </c>
       <c r="G78" t="n">
+        <v>3.031133333333334</v>
+      </c>
+      <c r="H78" t="n">
         <v>3.049316666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3325,18 +3587,21 @@
         <v>99140</v>
       </c>
       <c r="G79" t="n">
+        <v>3.0272</v>
+      </c>
+      <c r="H79" t="n">
         <v>3.049616666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3360,18 +3625,21 @@
         <v>860</v>
       </c>
       <c r="G80" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="H80" t="n">
         <v>3.049916666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3395,18 +3663,21 @@
         <v>500</v>
       </c>
       <c r="G81" t="n">
+        <v>3.022066666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>3.050366666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3430,18 +3701,21 @@
         <v>208836.7429</v>
       </c>
       <c r="G82" t="n">
+        <v>3.019133333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>3.0502</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3465,18 +3739,21 @@
         <v>65077.095</v>
       </c>
       <c r="G83" t="n">
+        <v>3.016266666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>3.050016666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3500,18 +3777,21 @@
         <v>3963.5975</v>
       </c>
       <c r="G84" t="n">
+        <v>3.013266666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>3.049983333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3535,18 +3815,21 @@
         <v>170</v>
       </c>
       <c r="G85" t="n">
+        <v>3.010333333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>3.0497</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3570,18 +3853,21 @@
         <v>491494.1299</v>
       </c>
       <c r="G86" t="n">
+        <v>3.006999999999999</v>
+      </c>
+      <c r="H86" t="n">
         <v>3.049399999999999</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3605,18 +3891,21 @@
         <v>26196.313</v>
       </c>
       <c r="G87" t="n">
+        <v>3.003533333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>3.048783333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3640,18 +3929,21 @@
         <v>1329361.032</v>
       </c>
       <c r="G88" t="n">
+        <v>2.998933333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>3.048166666666666</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3675,18 +3967,21 @@
         <v>54001.856</v>
       </c>
       <c r="G89" t="n">
+        <v>2.997466666666666</v>
+      </c>
+      <c r="H89" t="n">
         <v>3.047833333333332</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3710,18 +4005,21 @@
         <v>705733.8456999999</v>
       </c>
       <c r="G90" t="n">
+        <v>3.000133333333332</v>
+      </c>
+      <c r="H90" t="n">
         <v>3.048299999999999</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3745,18 +4043,21 @@
         <v>21004.2676</v>
       </c>
       <c r="G91" t="n">
+        <v>3.003399999999999</v>
+      </c>
+      <c r="H91" t="n">
         <v>3.048816666666666</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3780,18 +4081,21 @@
         <v>54869.0905</v>
       </c>
       <c r="G92" t="n">
+        <v>3.008</v>
+      </c>
+      <c r="H92" t="n">
         <v>3.049616666666666</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3815,18 +4119,21 @@
         <v>241.9095</v>
       </c>
       <c r="G93" t="n">
+        <v>3.013333333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>3.050166666666665</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3850,18 +4157,21 @@
         <v>12646.4497</v>
       </c>
       <c r="G94" t="n">
+        <v>3.016733333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>3.050466666666666</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3885,18 +4195,21 @@
         <v>1000</v>
       </c>
       <c r="G95" t="n">
+        <v>3.020133333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>3.050683333333332</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3920,18 +4233,21 @@
         <v>8387.179599999999</v>
       </c>
       <c r="G96" t="n">
+        <v>3.020733333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>3.050683333333332</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3955,18 +4271,21 @@
         <v>3815.1777</v>
       </c>
       <c r="G97" t="n">
+        <v>3.024799999999999</v>
+      </c>
+      <c r="H97" t="n">
         <v>3.050816666666666</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3990,18 +4309,21 @@
         <v>83634.8679</v>
       </c>
       <c r="G98" t="n">
+        <v>3.0276</v>
+      </c>
+      <c r="H98" t="n">
         <v>3.050549999999999</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4025,18 +4347,21 @@
         <v>50530</v>
       </c>
       <c r="G99" t="n">
+        <v>3.0302</v>
+      </c>
+      <c r="H99" t="n">
         <v>3.049666666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4060,18 +4385,21 @@
         <v>9009.856</v>
       </c>
       <c r="G100" t="n">
+        <v>3.0328</v>
+      </c>
+      <c r="H100" t="n">
         <v>3.048433333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4095,18 +4423,21 @@
         <v>15356.8807</v>
       </c>
       <c r="G101" t="n">
+        <v>3.0354</v>
+      </c>
+      <c r="H101" t="n">
         <v>3.047099999999999</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4130,18 +4461,21 @@
         <v>336.4344</v>
       </c>
       <c r="G102" t="n">
+        <v>3.038666666666666</v>
+      </c>
+      <c r="H102" t="n">
         <v>3.045933333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4165,18 +4499,21 @@
         <v>5331.2237</v>
       </c>
       <c r="G103" t="n">
+        <v>3.041199999999999</v>
+      </c>
+      <c r="H103" t="n">
         <v>3.044583333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,18 +4537,21 @@
         <v>4634.1047</v>
       </c>
       <c r="G104" t="n">
+        <v>3.0424</v>
+      </c>
+      <c r="H104" t="n">
         <v>3.043183333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4235,18 +4575,21 @@
         <v>37498.563</v>
       </c>
       <c r="G105" t="n">
+        <v>3.038466666666666</v>
+      </c>
+      <c r="H105" t="n">
         <v>3.041183333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4270,18 +4613,21 @@
         <v>8544.1353</v>
       </c>
       <c r="G106" t="n">
+        <v>3.033733333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>3.038933333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4305,18 +4651,21 @@
         <v>12095.563</v>
       </c>
       <c r="G107" t="n">
+        <v>3.0278</v>
+      </c>
+      <c r="H107" t="n">
         <v>3.036816666666666</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4340,18 +4689,21 @@
         <v>10675.5278</v>
       </c>
       <c r="G108" t="n">
+        <v>3.022266666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>3.034783333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,18 +4727,21 @@
         <v>855612.9928</v>
       </c>
       <c r="G109" t="n">
+        <v>3.017466666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>3.032016666666666</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4410,18 +4765,21 @@
         <v>500</v>
       </c>
       <c r="G110" t="n">
+        <v>3.0156</v>
+      </c>
+      <c r="H110" t="n">
         <v>3.030399999999999</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4445,18 +4803,21 @@
         <v>600000</v>
       </c>
       <c r="G111" t="n">
+        <v>3.0146</v>
+      </c>
+      <c r="H111" t="n">
         <v>3.028966666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4480,18 +4841,21 @@
         <v>118996.5738</v>
       </c>
       <c r="G112" t="n">
+        <v>3.012866666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>3.027533333333332</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4515,18 +4879,21 @@
         <v>23462.6429</v>
       </c>
       <c r="G113" t="n">
+        <v>3.010866666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>3.026183333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4550,18 +4917,21 @@
         <v>111040</v>
       </c>
       <c r="G114" t="n">
+        <v>3.010666666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>3.024749999999999</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4585,18 +4955,21 @@
         <v>107580.6839</v>
       </c>
       <c r="G115" t="n">
+        <v>3.008333333333334</v>
+      </c>
+      <c r="H115" t="n">
         <v>3.022916666666666</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4620,18 +4993,21 @@
         <v>500</v>
       </c>
       <c r="G116" t="n">
+        <v>3.008666666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>3.021799999999999</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4655,18 +5031,21 @@
         <v>125620</v>
       </c>
       <c r="G117" t="n">
+        <v>3.007333333333334</v>
+      </c>
+      <c r="H117" t="n">
         <v>3.020616666666666</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4690,18 +5069,21 @@
         <v>299828.0802</v>
       </c>
       <c r="G118" t="n">
+        <v>3.006666666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>3.020266666666665</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4725,18 +5107,21 @@
         <v>131522.345</v>
       </c>
       <c r="G119" t="n">
+        <v>3.006266666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>3.019933333333332</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4760,18 +5145,21 @@
         <v>126120</v>
       </c>
       <c r="G120" t="n">
+        <v>3.006933333333334</v>
+      </c>
+      <c r="H120" t="n">
         <v>3.019599999999998</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4795,18 +5183,21 @@
         <v>130157.4791</v>
       </c>
       <c r="G121" t="n">
+        <v>3.006666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>3.019433333333332</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4830,18 +5221,21 @@
         <v>114653.9907</v>
       </c>
       <c r="G122" t="n">
+        <v>3.0058</v>
+      </c>
+      <c r="H122" t="n">
         <v>3.018833333333332</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4865,18 +5259,21 @@
         <v>10000</v>
       </c>
       <c r="G123" t="n">
+        <v>3.005266666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>3.017999999999998</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4900,18 +5297,21 @@
         <v>349231.9395</v>
       </c>
       <c r="G124" t="n">
+        <v>3.005266666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>3.016666666666665</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4935,18 +5335,21 @@
         <v>1500</v>
       </c>
       <c r="G125" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="H125" t="n">
         <v>3.016183333333331</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4970,18 +5373,21 @@
         <v>600</v>
       </c>
       <c r="G126" t="n">
+        <v>3.004666666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>3.015516666666665</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5005,18 +5411,21 @@
         <v>25119.1511</v>
       </c>
       <c r="G127" t="n">
+        <v>3.004266666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>3.015266666666665</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5040,18 +5449,21 @@
         <v>15596.3183</v>
       </c>
       <c r="G128" t="n">
+        <v>3.006066666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>3.015199999999998</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5075,18 +5487,21 @@
         <v>2905.6677</v>
       </c>
       <c r="G129" t="n">
+        <v>3.0058</v>
+      </c>
+      <c r="H129" t="n">
         <v>3.014983333333332</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5110,18 +5525,21 @@
         <v>500</v>
       </c>
       <c r="G130" t="n">
+        <v>3.008266666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>3.014933333333332</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5145,18 +5563,21 @@
         <v>95501.8802</v>
       </c>
       <c r="G131" t="n">
+        <v>3.008866666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>3.014983333333332</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5180,18 +5601,21 @@
         <v>42007.956</v>
       </c>
       <c r="G132" t="n">
+        <v>3.011066666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>3.015149999999998</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5215,18 +5639,21 @@
         <v>500</v>
       </c>
       <c r="G133" t="n">
+        <v>3.013533333333334</v>
+      </c>
+      <c r="H133" t="n">
         <v>3.015083333333331</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5250,18 +5677,21 @@
         <v>80008.56</v>
       </c>
       <c r="G134" t="n">
+        <v>3.0162</v>
+      </c>
+      <c r="H134" t="n">
         <v>3.015583333333332</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5285,18 +5715,21 @@
         <v>250124</v>
       </c>
       <c r="G135" t="n">
+        <v>3.017733333333334</v>
+      </c>
+      <c r="H135" t="n">
         <v>3.015816666666665</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5320,18 +5753,21 @@
         <v>20211</v>
       </c>
       <c r="G136" t="n">
+        <v>3.021733333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>3.016383333333331</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5355,18 +5791,21 @@
         <v>2526520.4092</v>
       </c>
       <c r="G137" t="n">
+        <v>3.0264</v>
+      </c>
+      <c r="H137" t="n">
         <v>3.016999999999998</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5390,18 +5829,21 @@
         <v>76315.0053</v>
       </c>
       <c r="G138" t="n">
+        <v>3.029933333333334</v>
+      </c>
+      <c r="H138" t="n">
         <v>3.017699999999998</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5425,18 +5867,21 @@
         <v>717687.134</v>
       </c>
       <c r="G139" t="n">
+        <v>3.0346</v>
+      </c>
+      <c r="H139" t="n">
         <v>3.018516666666665</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5460,18 +5905,21 @@
         <v>11536.0338</v>
       </c>
       <c r="G140" t="n">
+        <v>3.037266666666667</v>
+      </c>
+      <c r="H140" t="n">
         <v>3.019499999999998</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5495,18 +5943,21 @@
         <v>40965.0827</v>
       </c>
       <c r="G141" t="n">
+        <v>3.041333333333334</v>
+      </c>
+      <c r="H141" t="n">
         <v>3.020333333333332</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5530,18 +5981,21 @@
         <v>654981.4261</v>
       </c>
       <c r="G142" t="n">
+        <v>3.045466666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>3.021849999999998</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5565,18 +6019,21 @@
         <v>285063</v>
       </c>
       <c r="G143" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="H143" t="n">
         <v>3.023383333333332</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5600,18 +6057,21 @@
         <v>1554.9456</v>
       </c>
       <c r="G144" t="n">
+        <v>3.053399999999999</v>
+      </c>
+      <c r="H144" t="n">
         <v>3.025016666666665</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5635,18 +6095,21 @@
         <v>6301.0544</v>
       </c>
       <c r="G145" t="n">
+        <v>3.057333333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>3.026683333333332</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5670,18 +6133,21 @@
         <v>3001.856</v>
       </c>
       <c r="G146" t="n">
+        <v>3.060133333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>3.028266666666666</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5705,18 +6171,21 @@
         <v>1609063.4507</v>
       </c>
       <c r="G147" t="n">
+        <v>3.051933333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>3.027249999999999</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5740,18 +6209,21 @@
         <v>864702.0307589135</v>
       </c>
       <c r="G148" t="n">
+        <v>3.044866666666666</v>
+      </c>
+      <c r="H148" t="n">
         <v>3.026566666666666</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5775,18 +6247,21 @@
         <v>302738.9953</v>
       </c>
       <c r="G149" t="n">
+        <v>3.037533333333333</v>
+      </c>
+      <c r="H149" t="n">
         <v>3.025599999999999</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5810,18 +6285,21 @@
         <v>87875.01210000001</v>
       </c>
       <c r="G150" t="n">
+        <v>3.033333333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>3.024116666666666</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5845,18 +6323,21 @@
         <v>228078.4093</v>
       </c>
       <c r="G151" t="n">
+        <v>3.029333333333333</v>
+      </c>
+      <c r="H151" t="n">
         <v>3.022866666666666</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5880,18 +6361,21 @@
         <v>44420.21147041517</v>
       </c>
       <c r="G152" t="n">
+        <v>3.026133333333334</v>
+      </c>
+      <c r="H152" t="n">
         <v>3.021533333333333</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5915,18 +6399,21 @@
         <v>500</v>
       </c>
       <c r="G153" t="n">
+        <v>3.0264</v>
+      </c>
+      <c r="H153" t="n">
         <v>3.020966666666666</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5950,18 +6437,21 @@
         <v>11220</v>
       </c>
       <c r="G154" t="n">
+        <v>3.0224</v>
+      </c>
+      <c r="H154" t="n">
         <v>3.019933333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5985,18 +6475,21 @@
         <v>496411.7868</v>
       </c>
       <c r="G155" t="n">
+        <v>3.013066666666667</v>
+      </c>
+      <c r="H155" t="n">
         <v>3.017733333333333</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6020,18 +6513,21 @@
         <v>258195.0487</v>
       </c>
       <c r="G156" t="n">
+        <v>3.003133333333333</v>
+      </c>
+      <c r="H156" t="n">
         <v>3.015933333333334</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6055,18 +6551,21 @@
         <v>4414.923</v>
       </c>
       <c r="G157" t="n">
+        <v>2.994933333333334</v>
+      </c>
+      <c r="H157" t="n">
         <v>3.014383333333333</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6090,18 +6589,21 @@
         <v>500</v>
       </c>
       <c r="G158" t="n">
+        <v>2.986800000000001</v>
+      </c>
+      <c r="H158" t="n">
         <v>3.013183333333333</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6125,18 +6627,21 @@
         <v>96675.8024</v>
       </c>
       <c r="G159" t="n">
+        <v>2.978266666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>3.012033333333334</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,18 +6665,21 @@
         <v>1026211.1063</v>
       </c>
       <c r="G160" t="n">
+        <v>2.967933333333334</v>
+      </c>
+      <c r="H160" t="n">
         <v>3.010466666666667</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6195,18 +6703,21 @@
         <v>500</v>
       </c>
       <c r="G161" t="n">
+        <v>2.9602</v>
+      </c>
+      <c r="H161" t="n">
         <v>3.009466666666667</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6230,18 +6741,21 @@
         <v>4288.8378</v>
       </c>
       <c r="G162" t="n">
+        <v>2.962200000000001</v>
+      </c>
+      <c r="H162" t="n">
         <v>3.008133333333333</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6265,18 +6779,21 @@
         <v>2504.8956</v>
       </c>
       <c r="G163" t="n">
+        <v>2.965533333333334</v>
+      </c>
+      <c r="H163" t="n">
         <v>3.00765</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6300,18 +6817,21 @@
         <v>6999.0837</v>
       </c>
       <c r="G164" t="n">
+        <v>2.9674</v>
+      </c>
+      <c r="H164" t="n">
         <v>3.00685</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6335,18 +6855,21 @@
         <v>14341.6346</v>
       </c>
       <c r="G165" t="n">
+        <v>2.967866666666667</v>
+      </c>
+      <c r="H165" t="n">
         <v>3.006466666666667</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6370,18 +6893,21 @@
         <v>2081</v>
       </c>
       <c r="G166" t="n">
+        <v>2.967866666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>3.0064</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6405,18 +6931,21 @@
         <v>1205.856</v>
       </c>
       <c r="G167" t="n">
+        <v>2.967066666666667</v>
+      </c>
+      <c r="H167" t="n">
         <v>3.00635</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6440,18 +6969,21 @@
         <v>60024.144</v>
       </c>
       <c r="G168" t="n">
+        <v>2.963933333333334</v>
+      </c>
+      <c r="H168" t="n">
         <v>3.006383333333334</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6475,18 +7007,21 @@
         <v>6999.0837</v>
       </c>
       <c r="G169" t="n">
+        <v>2.9646</v>
+      </c>
+      <c r="H169" t="n">
         <v>3.006716666666668</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6510,18 +7045,21 @@
         <v>9391.1751</v>
       </c>
       <c r="G170" t="n">
+        <v>2.971266666666667</v>
+      </c>
+      <c r="H170" t="n">
         <v>3.006650000000001</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6545,18 +7083,21 @@
         <v>699009.5600000001</v>
       </c>
       <c r="G171" t="n">
+        <v>2.976533333333334</v>
+      </c>
+      <c r="H171" t="n">
         <v>3.006416666666667</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6580,18 +7121,21 @@
         <v>29610</v>
       </c>
       <c r="G172" t="n">
+        <v>2.981400000000001</v>
+      </c>
+      <c r="H172" t="n">
         <v>3.006516666666668</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6615,18 +7159,21 @@
         <v>5891.856</v>
       </c>
       <c r="G173" t="n">
+        <v>2.985533333333334</v>
+      </c>
+      <c r="H173" t="n">
         <v>3.006850000000001</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6650,18 +7197,21 @@
         <v>70840.9791</v>
       </c>
       <c r="G174" t="n">
+        <v>2.989000000000001</v>
+      </c>
+      <c r="H174" t="n">
         <v>3.006616666666667</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6685,18 +7235,21 @@
         <v>500</v>
       </c>
       <c r="G175" t="n">
+        <v>2.994933333333335</v>
+      </c>
+      <c r="H175" t="n">
         <v>3.007116666666668</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6720,18 +7273,21 @@
         <v>447741.3792</v>
       </c>
       <c r="G176" t="n">
+        <v>2.993733333333334</v>
+      </c>
+      <c r="H176" t="n">
         <v>3.005733333333334</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6755,18 +7311,21 @@
         <v>1204.856</v>
       </c>
       <c r="G177" t="n">
+        <v>2.997133333333335</v>
+      </c>
+      <c r="H177" t="n">
         <v>3.005583333333334</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6790,18 +7349,21 @@
         <v>1263990.7246</v>
       </c>
       <c r="G178" t="n">
+        <v>2.993800000000001</v>
+      </c>
+      <c r="H178" t="n">
         <v>3.004433333333334</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6825,18 +7387,21 @@
         <v>423520</v>
       </c>
       <c r="G179" t="n">
+        <v>2.994533333333334</v>
+      </c>
+      <c r="H179" t="n">
         <v>3.003916666666668</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6860,18 +7425,21 @@
         <v>155663.6977</v>
       </c>
       <c r="G180" t="n">
+        <v>2.998800000000001</v>
+      </c>
+      <c r="H180" t="n">
         <v>3.004433333333335</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6895,18 +7463,21 @@
         <v>411958.8056</v>
       </c>
       <c r="G181" t="n">
+        <v>3.001466666666667</v>
+      </c>
+      <c r="H181" t="n">
         <v>3.005100000000001</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6930,18 +7501,21 @@
         <v>126977.0704</v>
       </c>
       <c r="G182" t="n">
+        <v>3.0066</v>
+      </c>
+      <c r="H182" t="n">
         <v>3.006550000000002</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6965,18 +7539,21 @@
         <v>16501</v>
       </c>
       <c r="G183" t="n">
+        <v>3.0118</v>
+      </c>
+      <c r="H183" t="n">
         <v>3.008016666666669</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7000,18 +7577,21 @@
         <v>149466.1473</v>
       </c>
       <c r="G184" t="n">
+        <v>3.016733333333333</v>
+      </c>
+      <c r="H184" t="n">
         <v>3.009583333333336</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7035,18 +7615,21 @@
         <v>14420.4625</v>
       </c>
       <c r="G185" t="n">
+        <v>3.020333333333333</v>
+      </c>
+      <c r="H185" t="n">
         <v>3.010483333333336</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7070,18 +7653,21 @@
         <v>25083.56</v>
       </c>
       <c r="G186" t="n">
+        <v>3.024866666666667</v>
+      </c>
+      <c r="H186" t="n">
         <v>3.011466666666669</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7105,18 +7691,21 @@
         <v>140507.5422</v>
       </c>
       <c r="G187" t="n">
+        <v>3.024933333333333</v>
+      </c>
+      <c r="H187" t="n">
         <v>3.011683333333336</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7140,18 +7729,21 @@
         <v>198958.8833</v>
       </c>
       <c r="G188" t="n">
+        <v>3.025599999999999</v>
+      </c>
+      <c r="H188" t="n">
         <v>3.011733333333336</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7175,18 +7767,21 @@
         <v>77779.1921</v>
       </c>
       <c r="G189" t="n">
+        <v>3.028533333333333</v>
+      </c>
+      <c r="H189" t="n">
         <v>3.012300000000003</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7210,18 +7805,21 @@
         <v>10011.418</v>
       </c>
       <c r="G190" t="n">
+        <v>3.0312</v>
+      </c>
+      <c r="H190" t="n">
         <v>3.012850000000003</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7245,18 +7843,21 @@
         <v>103206.9135</v>
       </c>
       <c r="G191" t="n">
+        <v>3.037133333333333</v>
+      </c>
+      <c r="H191" t="n">
         <v>3.012800000000003</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7280,18 +7881,21 @@
         <v>3804.0932</v>
       </c>
       <c r="G192" t="n">
+        <v>3.038466666666666</v>
+      </c>
+      <c r="H192" t="n">
         <v>3.012433333333336</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7315,18 +7919,21 @@
         <v>4275.7401</v>
       </c>
       <c r="G193" t="n">
+        <v>3.043866666666667</v>
+      </c>
+      <c r="H193" t="n">
         <v>3.012016666666669</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7350,18 +7957,21 @@
         <v>5005.85</v>
       </c>
       <c r="G194" t="n">
+        <v>3.047933333333333</v>
+      </c>
+      <c r="H194" t="n">
         <v>3.011850000000003</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7385,18 +7995,21 @@
         <v>8008.9653</v>
       </c>
       <c r="G195" t="n">
+        <v>3.047866666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>3.011966666666669</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7420,18 +8033,21 @@
         <v>12074.63</v>
       </c>
       <c r="G196" t="n">
+        <v>3.047933333333333</v>
+      </c>
+      <c r="H196" t="n">
         <v>3.011650000000003</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7455,18 +8071,21 @@
         <v>2776.4537</v>
       </c>
       <c r="G197" t="n">
+        <v>3.045533333333333</v>
+      </c>
+      <c r="H197" t="n">
         <v>3.011333333333336</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7490,18 +8109,21 @@
         <v>40310</v>
       </c>
       <c r="G198" t="n">
+        <v>3.042666666666667</v>
+      </c>
+      <c r="H198" t="n">
         <v>3.011200000000003</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7525,18 +8147,21 @@
         <v>13440</v>
       </c>
       <c r="G199" t="n">
+        <v>3.0394</v>
+      </c>
+      <c r="H199" t="n">
         <v>3.010783333333336</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7560,18 +8185,21 @@
         <v>13248.6486</v>
       </c>
       <c r="G200" t="n">
+        <v>3.035866666666667</v>
+      </c>
+      <c r="H200" t="n">
         <v>3.010133333333336</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7595,18 +8223,21 @@
         <v>24220.0334</v>
       </c>
       <c r="G201" t="n">
+        <v>3.030666666666667</v>
+      </c>
+      <c r="H201" t="n">
         <v>3.008800000000002</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7630,18 +8261,21 @@
         <v>3358.5911</v>
       </c>
       <c r="G202" t="n">
+        <v>3.0284</v>
+      </c>
+      <c r="H202" t="n">
         <v>3.007416666666669</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7665,18 +8299,21 @@
         <v>3735.5442</v>
       </c>
       <c r="G203" t="n">
+        <v>3.026</v>
+      </c>
+      <c r="H203" t="n">
         <v>3.005983333333335</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7700,18 +8337,21 @@
         <v>6602.0497</v>
       </c>
       <c r="G204" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="H204" t="n">
         <v>3.004450000000002</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7735,18 +8375,21 @@
         <v>331.856</v>
       </c>
       <c r="G205" t="n">
+        <v>3.019</v>
+      </c>
+      <c r="H205" t="n">
         <v>3.003266666666668</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7770,18 +8413,21 @@
         <v>7007.563</v>
       </c>
       <c r="G206" t="n">
+        <v>3.017</v>
+      </c>
+      <c r="H206" t="n">
         <v>3.002016666666668</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7805,18 +8451,21 @@
         <v>500</v>
       </c>
       <c r="G207" t="n">
+        <v>3.0166</v>
+      </c>
+      <c r="H207" t="n">
         <v>3.003600000000001</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7840,18 +8489,21 @@
         <v>2538.977</v>
       </c>
       <c r="G208" t="n">
+        <v>3.0148</v>
+      </c>
+      <c r="H208" t="n">
         <v>3.004500000000002</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7875,18 +8527,21 @@
         <v>35383.2014</v>
       </c>
       <c r="G209" t="n">
+        <v>3.011466666666666</v>
+      </c>
+      <c r="H209" t="n">
         <v>3.005333333333335</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7910,18 +8565,21 @@
         <v>1354017.292</v>
       </c>
       <c r="G210" t="n">
+        <v>3.0048</v>
+      </c>
+      <c r="H210" t="n">
         <v>3.004833333333335</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7945,18 +8603,21 @@
         <v>12695.246</v>
       </c>
       <c r="G211" t="n">
+        <v>3.000733333333333</v>
+      </c>
+      <c r="H211" t="n">
         <v>3.004500000000002</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7980,18 +8641,21 @@
         <v>2002.896</v>
       </c>
       <c r="G212" t="n">
+        <v>2.997333333333333</v>
+      </c>
+      <c r="H212" t="n">
         <v>3.004133333333335</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8015,18 +8679,21 @@
         <v>77997.10400000001</v>
       </c>
       <c r="G213" t="n">
+        <v>2.994333333333333</v>
+      </c>
+      <c r="H213" t="n">
         <v>3.003183333333334</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8050,18 +8717,21 @@
         <v>500</v>
       </c>
       <c r="G214" t="n">
+        <v>2.992733333333333</v>
+      </c>
+      <c r="H214" t="n">
         <v>3.003366666666667</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8085,18 +8755,21 @@
         <v>11074.856</v>
       </c>
       <c r="G215" t="n">
+        <v>2.991266666666666</v>
+      </c>
+      <c r="H215" t="n">
         <v>3.004683333333334</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8120,18 +8793,401 @@
         <v>5098.3871</v>
       </c>
       <c r="G216" t="n">
+        <v>2.990666666666666</v>
+      </c>
+      <c r="H216" t="n">
         <v>3.005683333333335</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>2.991</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2.991</v>
+      </c>
+      <c r="D217" t="n">
+        <v>2.991</v>
+      </c>
+      <c r="E217" t="n">
+        <v>2.991</v>
+      </c>
+      <c r="F217" t="n">
+        <v>6998.4689</v>
+      </c>
+      <c r="G217" t="n">
+        <v>2.990266666666666</v>
+      </c>
+      <c r="H217" t="n">
+        <v>3.006250000000001</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>2.991</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="D218" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="E218" t="n">
+        <v>2.991</v>
+      </c>
+      <c r="F218" t="n">
+        <v>16265.5545</v>
+      </c>
+      <c r="G218" t="n">
+        <v>2.9906</v>
+      </c>
+      <c r="H218" t="n">
+        <v>3.006933333333335</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>3.011</v>
+      </c>
+      <c r="C219" t="n">
+        <v>3.011</v>
+      </c>
+      <c r="D219" t="n">
+        <v>3.011</v>
+      </c>
+      <c r="E219" t="n">
+        <v>3.011</v>
+      </c>
+      <c r="F219" t="n">
+        <v>2002.963</v>
+      </c>
+      <c r="G219" t="n">
+        <v>2.991733333333333</v>
+      </c>
+      <c r="H219" t="n">
+        <v>3.007816666666668</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>3.003</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="D220" t="n">
+        <v>3.003</v>
+      </c>
+      <c r="E220" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="F220" t="n">
+        <v>5349.6887</v>
+      </c>
+      <c r="G220" t="n">
+        <v>2.990666666666667</v>
+      </c>
+      <c r="H220" t="n">
+        <v>3.008950000000001</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="D221" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="E221" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="F221" t="n">
+        <v>8647.983399999999</v>
+      </c>
+      <c r="G221" t="n">
+        <v>2.9906</v>
+      </c>
+      <c r="H221" t="n">
+        <v>3.009616666666667</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="C222" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="D222" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="E222" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="F222" t="n">
+        <v>3356.0026</v>
+      </c>
+      <c r="G222" t="n">
+        <v>2.989533333333334</v>
+      </c>
+      <c r="H222" t="n">
+        <v>3.010433333333334</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="C223" t="n">
+        <v>3.001</v>
+      </c>
+      <c r="D223" t="n">
+        <v>3.001</v>
+      </c>
+      <c r="E223" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="F223" t="n">
+        <v>9009.856</v>
+      </c>
+      <c r="G223" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="H223" t="n">
+        <v>3.010616666666668</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="C224" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="D224" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="E224" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="F224" t="n">
+        <v>4001.856</v>
+      </c>
+      <c r="G224" t="n">
+        <v>2.9906</v>
+      </c>
+      <c r="H224" t="n">
+        <v>3.011133333333334</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="C225" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="D225" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="E225" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="F225" t="n">
+        <v>6393.5206</v>
+      </c>
+      <c r="G225" t="n">
+        <v>2.994533333333334</v>
+      </c>
+      <c r="H225" t="n">
+        <v>3.011500000000001</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>3.001</v>
+      </c>
+      <c r="C226" t="n">
+        <v>3.001</v>
+      </c>
+      <c r="D226" t="n">
+        <v>3.001</v>
+      </c>
+      <c r="E226" t="n">
+        <v>3.001</v>
+      </c>
+      <c r="F226" t="n">
+        <v>41600</v>
+      </c>
+      <c r="G226" t="n">
+        <v>2.9966</v>
+      </c>
+      <c r="H226" t="n">
+        <v>3.011683333333334</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-19 BackTest MIX.xlsx
+++ b/BackTest/2020-01-19 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-186352.549889898</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -748,10 +748,14 @@
         <v>-105320.4663898979</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -781,11 +785,19 @@
         <v>-120044.6642898979</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.945</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +826,19 @@
         <v>-223734.6188898979</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.938</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +867,19 @@
         <v>-330840.231989898</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.934</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +908,19 @@
         <v>-298246.145989898</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +949,19 @@
         <v>-292048.5734898979</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.947</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +990,19 @@
         <v>-292048.5734898979</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.948</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1031,19 @@
         <v>-276435.3793898979</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.948</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1072,19 @@
         <v>-276435.3793898979</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,15 +1113,19 @@
         <v>-276435.3793898979</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>2.95</v>
       </c>
       <c r="J20" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,15 +1154,17 @@
         <v>-278273.4092898979</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.95</v>
+      </c>
       <c r="J21" t="n">
-        <v>2.95</v>
+        <v>2.944</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1121,15 +1195,17 @@
         <v>42331.02471010207</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.948</v>
+      </c>
       <c r="J22" t="n">
-        <v>2.95</v>
+        <v>2.944</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1160,11 +1236,19 @@
         <v>42531.02471010207</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.961</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1193,11 +1277,19 @@
         <v>42531.02471010207</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.975</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1229,8 +1321,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1262,8 +1360,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1295,8 +1399,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1328,8 +1438,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1361,8 +1477,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1394,8 +1516,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1424,11 +1552,19 @@
         <v>68193.19311010207</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.961</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1457,15 +1593,19 @@
         <v>85352.12901010207</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>2.986</v>
       </c>
       <c r="J32" t="n">
-        <v>2.986</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1498,11 +1638,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>2.986</v>
+        <v>2.944</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -1537,11 +1677,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>2.986</v>
+        <v>2.944</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -1575,8 +1715,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1608,8 +1754,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1641,8 +1793,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1674,8 +1832,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1707,8 +1871,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1740,8 +1910,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1773,8 +1949,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1806,8 +1988,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1839,8 +2027,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1872,8 +2066,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1905,8 +2105,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1938,8 +2144,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1971,8 +2183,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2004,8 +2222,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2037,8 +2261,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2070,8 +2300,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2103,8 +2339,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2136,8 +2378,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2169,8 +2417,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2202,8 +2456,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2235,8 +2495,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2268,8 +2534,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2301,8 +2573,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2334,8 +2612,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2367,8 +2651,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2397,15 +2687,17 @@
         <v>506886.4055105957</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>3.016</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -2436,12 +2728,14 @@
         <v>440114.7529105957</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>3.009</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2475,12 +2769,14 @@
         <v>415161.3032105957</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>3.006</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2514,12 +2810,14 @@
         <v>413161.3032105957</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>2.996</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2553,12 +2851,14 @@
         <v>417273.7174105957</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>2.982</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2592,12 +2892,14 @@
         <v>407380.4196105957</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>3.008</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2631,12 +2933,14 @@
         <v>395375.5636105958</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>3.003</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2670,12 +2974,14 @@
         <v>395375.5636105958</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>2.999</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2709,10 +3015,14 @@
         <v>395375.5636105958</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2746,10 +3056,14 @@
         <v>395375.5636105958</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2783,10 +3097,14 @@
         <v>391875.5636105958</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2820,12 +3138,14 @@
         <v>391875.5636105958</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>2.992</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2859,12 +3179,14 @@
         <v>372867.7076105957</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>2.992</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2898,12 +3220,14 @@
         <v>372867.7076105957</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>2.988</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2937,12 +3261,14 @@
         <v>372867.7076105957</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>2.988</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2976,12 +3302,14 @@
         <v>374342.5636105958</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>2.988</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3015,10 +3343,14 @@
         <v>374342.5636105958</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3052,12 +3384,14 @@
         <v>163778.4460105958</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>2.999</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3091,10 +3425,14 @@
         <v>163778.4460105958</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2.983</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3128,12 +3466,14 @@
         <v>164983.4460105958</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>2.983</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3167,12 +3507,14 @@
         <v>159884.8860105958</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>3.003</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3206,12 +3548,14 @@
         <v>159884.8860105958</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>2.999</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3245,10 +3589,14 @@
         <v>73491.38601059577</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3282,12 +3630,14 @@
         <v>75999.24201059577</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>2.99</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3321,10 +3671,14 @@
         <v>70677.39201059577</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3.003</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3361,7 +3715,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3398,7 +3754,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3435,7 +3793,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3472,7 +3832,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3509,7 +3871,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3546,7 +3910,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3583,7 +3949,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3620,7 +3988,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3657,7 +4027,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3694,7 +4066,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3731,7 +4105,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3768,7 +4144,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3805,7 +4183,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3842,7 +4222,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3876,16 +4258,20 @@
         <v>3145460.255110102</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>2.944</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
       <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -3911,11 +4297,17 @@
         <v>3830995.448110102</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3944,11 +4336,17 @@
         <v>3830995.448110102</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3977,11 +4375,17 @@
         <v>3830995.448110102</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4010,11 +4414,17 @@
         <v>4997937.054313328</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4043,11 +4453,17 @@
         <v>5640893.318613328</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4076,11 +4492,17 @@
         <v>5607596.905913328</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4112,8 +4534,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4142,11 +4570,17 @@
         <v>4678335.054113582</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4175,11 +4609,17 @@
         <v>4671427.198113582</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4208,11 +4648,17 @@
         <v>4671345.768113582</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4241,11 +4687,17 @@
         <v>4671345.768113582</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4274,11 +4726,17 @@
         <v>4483542.719813582</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4310,8 +4768,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4340,13 +4804,19 @@
         <v>4483123.394713582</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L113" t="n">
-        <v>1</v>
+        <v>1.047989130434783</v>
       </c>
       <c r="M113" t="inlineStr"/>
     </row>
@@ -4373,7 +4843,7 @@
         <v>4478623.394713582</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4406,7 +4876,7 @@
         <v>4462504.243613582</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4439,7 +4909,7 @@
         <v>3833434.300013582</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4472,7 +4942,7 @@
         <v>3833434.300013582</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4505,7 +4975,7 @@
         <v>3833434.300013582</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4538,7 +5008,7 @@
         <v>2909143.386413582</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4571,7 +5041,7 @@
         <v>4298804.289913582</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4604,7 +5074,7 @@
         <v>4310614.807413582</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4637,7 +5107,7 @@
         <v>4312922.663413581</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4670,7 +5140,7 @@
         <v>4309634.807113581</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4703,7 +5173,7 @@
         <v>4311942.767113581</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4736,7 +5206,7 @@
         <v>4212464.915113581</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4769,7 +5239,7 @@
         <v>4204384.199113581</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4802,7 +5272,7 @@
         <v>4216329.960913582</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4835,7 +5305,7 @@
         <v>4215992.293613582</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4868,7 +5338,7 @@
         <v>4215992.293613582</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4901,7 +5371,7 @@
         <v>4246327.168813582</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4934,7 +5404,7 @@
         <v>4249605.857338171</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4967,7 +5437,7 @@
         <v>4211106.950838172</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5000,7 +5470,7 @@
         <v>3670192.522838172</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5033,7 +5503,7 @@
         <v>3666950.004138172</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5066,7 +5536,7 @@
         <v>3663986.282738172</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5099,7 +5569,7 @@
         <v>3505476.216538172</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5165,7 +5635,7 @@
         <v>3604616.216538172</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5198,7 +5668,7 @@
         <v>3605116.216538172</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5231,7 +5701,7 @@
         <v>3396279.473638172</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5330,7 +5800,7 @@
         <v>3331032.378638172</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5363,7 +5833,7 @@
         <v>2839538.248738172</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5396,7 +5866,7 @@
         <v>2865734.561738172</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5429,7 +5899,7 @@
         <v>2865734.561738172</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5462,7 +5932,7 @@
         <v>2919736.417738172</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5495,7 +5965,7 @@
         <v>3625470.263438172</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5528,7 +5998,7 @@
         <v>3646474.531038172</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5561,7 +6031,7 @@
         <v>3701343.621538172</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5594,7 +6064,7 @@
         <v>3701101.712038172</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5627,7 +6097,7 @@
         <v>3688455.262338172</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5660,7 +6130,7 @@
         <v>3688455.262338172</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5693,7 +6163,7 @@
         <v>3680068.082738172</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5726,7 +6196,7 @@
         <v>3683883.260438172</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5759,7 +6229,7 @@
         <v>3600248.392538172</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6353,7 +6823,7 @@
         <v>2572292.653138171</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -8729,7 +9199,7 @@
         <v>-1237005.560932499</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9455,17 +9925,11 @@
         <v>-2746282.732232499</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I268" t="n">
-        <v>2.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9498,11 +9962,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9535,11 +9995,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9572,11 +10028,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9609,11 +10061,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9646,11 +10094,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9683,11 +10127,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9716,15 +10156,15 @@
         <v>-2747257.833332499</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>2.991</v>
+      </c>
+      <c r="J275" t="n">
+        <v>2.991</v>
+      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9753,13 +10193,17 @@
         <v>-2730992.278832499</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>2.991</v>
+      </c>
+      <c r="J276" t="n">
+        <v>2.991</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L276" t="n">
@@ -9790,10 +10234,14 @@
         <v>-2728989.315832499</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="J277" t="n">
+        <v>2.991</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9827,10 +10275,14 @@
         <v>-2734339.004532499</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>3.011</v>
+      </c>
+      <c r="J278" t="n">
+        <v>2.991</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9864,10 +10316,14 @@
         <v>-2734339.004532499</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="J279" t="n">
+        <v>2.991</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9901,10 +10357,14 @@
         <v>-2734339.004532499</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="J280" t="n">
+        <v>2.991</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9938,10 +10398,14 @@
         <v>-2725329.148532499</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="J281" t="n">
+        <v>2.991</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9975,10 +10439,14 @@
         <v>-2729331.004532499</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>3.001</v>
+      </c>
+      <c r="J282" t="n">
+        <v>2.991</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10012,10 +10480,14 @@
         <v>-2729331.004532499</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="J283" t="n">
+        <v>2.991</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10052,7 +10524,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>2.991</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10064,6 +10538,6 @@
       <c r="M284" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest MIX.xlsx
+++ b/BackTest/2020-01-19 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-186352.549889898</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -748,14 +748,10 @@
         <v>-105320.4663898979</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.944</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -785,60 +781,50 @@
         <v>-120044.6642898979</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.945</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K12" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2.941</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.934</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.941</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.934</v>
+      </c>
+      <c r="F13" t="n">
+        <v>103689.9546</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-223734.6188898979</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.938</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2.941</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.934</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2.941</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.934</v>
-      </c>
-      <c r="F13" t="n">
-        <v>103689.9546</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-223734.6188898979</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.938</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -872,9 +858,7 @@
       <c r="I14" t="n">
         <v>2.934</v>
       </c>
-      <c r="J14" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -913,9 +897,7 @@
       <c r="I15" t="n">
         <v>2.93</v>
       </c>
-      <c r="J15" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -954,9 +936,7 @@
       <c r="I16" t="n">
         <v>2.947</v>
       </c>
-      <c r="J16" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -995,9 +975,7 @@
       <c r="I17" t="n">
         <v>2.948</v>
       </c>
-      <c r="J17" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1036,9 +1014,7 @@
       <c r="I18" t="n">
         <v>2.948</v>
       </c>
-      <c r="J18" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1077,9 +1053,7 @@
       <c r="I19" t="n">
         <v>2.95</v>
       </c>
-      <c r="J19" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1118,9 +1092,7 @@
       <c r="I20" t="n">
         <v>2.95</v>
       </c>
-      <c r="J20" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1159,9 +1131,7 @@
       <c r="I21" t="n">
         <v>2.95</v>
       </c>
-      <c r="J21" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1200,9 +1170,7 @@
       <c r="I22" t="n">
         <v>2.948</v>
       </c>
-      <c r="J22" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1236,14 +1204,10 @@
         <v>42531.02471010207</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.961</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2.944</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1277,14 +1241,10 @@
         <v>42531.02471010207</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.975</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2.944</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1321,9 +1281,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1360,9 +1318,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1399,9 +1355,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1438,9 +1392,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1477,9 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1516,9 +1466,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1552,14 +1500,10 @@
         <v>68193.19311010207</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2.961</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2.944</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1593,14 +1537,10 @@
         <v>85352.12901010207</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2.986</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2.944</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1637,9 +1577,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1676,9 +1614,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1715,9 +1651,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1754,9 +1688,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1793,9 +1725,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1832,9 +1762,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1871,9 +1799,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1910,9 +1836,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1949,9 +1873,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1988,9 +1910,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2027,9 +1947,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2066,9 +1984,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2105,9 +2021,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2144,9 +2058,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2183,9 +2095,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2222,9 +2132,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2261,9 +2169,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2300,9 +2206,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2339,9 +2243,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2378,9 +2280,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2417,9 +2317,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2456,9 +2354,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2495,9 +2391,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2534,9 +2428,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2573,9 +2465,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2612,9 +2502,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2648,20 +2536,16 @@
         <v>513915.2178105957</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>2.944</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
@@ -2687,19 +2571,11 @@
         <v>506886.4055105957</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="J60" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2728,19 +2604,11 @@
         <v>440114.7529105957</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3.009</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2769,19 +2637,11 @@
         <v>415161.3032105957</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>3.006</v>
-      </c>
-      <c r="J62" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2810,19 +2670,11 @@
         <v>413161.3032105957</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2851,19 +2703,11 @@
         <v>417273.7174105957</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2.982</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2892,19 +2736,11 @@
         <v>407380.4196105957</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3.008</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2933,19 +2769,11 @@
         <v>395375.5636105958</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>3.003</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2974,19 +2802,11 @@
         <v>395375.5636105958</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>2.999</v>
-      </c>
-      <c r="J67" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3015,19 +2835,11 @@
         <v>395375.5636105958</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2.999</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3056,19 +2868,11 @@
         <v>395375.5636105958</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2.999</v>
-      </c>
-      <c r="J69" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3097,19 +2901,11 @@
         <v>391875.5636105958</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2.999</v>
-      </c>
-      <c r="J70" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3138,19 +2934,11 @@
         <v>391875.5636105958</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>2.992</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3179,19 +2967,11 @@
         <v>372867.7076105957</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2.992</v>
-      </c>
-      <c r="J72" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3220,19 +3000,11 @@
         <v>372867.7076105957</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="J73" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3261,19 +3033,11 @@
         <v>372867.7076105957</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="J74" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3302,19 +3066,11 @@
         <v>374342.5636105958</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="J75" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3343,19 +3099,11 @@
         <v>374342.5636105958</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>2.999</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3384,19 +3132,11 @@
         <v>163778.4460105958</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2.999</v>
-      </c>
-      <c r="J77" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3425,19 +3165,11 @@
         <v>163778.4460105958</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>2.983</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3466,19 +3198,11 @@
         <v>164983.4460105958</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>2.983</v>
-      </c>
-      <c r="J79" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3507,19 +3231,11 @@
         <v>159884.8860105958</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>3.003</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3548,19 +3264,11 @@
         <v>159884.8860105958</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>2.999</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3589,19 +3297,11 @@
         <v>73491.38601059577</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>2.999</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3630,19 +3330,11 @@
         <v>75999.24201059577</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="J83" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3671,19 +3363,11 @@
         <v>70677.39201059577</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3.003</v>
-      </c>
-      <c r="J84" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3715,14 +3399,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3754,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3793,14 +3465,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3832,14 +3498,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3871,14 +3531,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3910,14 +3564,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3949,14 +3597,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3988,14 +3630,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4027,14 +3663,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4066,14 +3696,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4105,14 +3729,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4144,14 +3762,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4183,14 +3795,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4222,14 +3828,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4261,14 +3861,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4300,14 +3894,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4339,14 +3927,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4378,14 +3960,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4417,14 +3993,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4456,14 +4026,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4495,14 +4059,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4534,14 +4092,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4573,14 +4125,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4612,14 +4158,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4651,14 +4191,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4690,14 +4224,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4729,14 +4257,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4768,14 +4290,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4804,19 +4320,13 @@
         <v>4483123.394713582</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
-        <v>1.047989130434783</v>
+        <v>1</v>
       </c>
       <c r="M113" t="inlineStr"/>
     </row>
@@ -4843,7 +4353,7 @@
         <v>4478623.394713582</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4876,7 +4386,7 @@
         <v>4462504.243613582</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4909,7 +4419,7 @@
         <v>3833434.300013582</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4942,7 +4452,7 @@
         <v>3833434.300013582</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4975,7 +4485,7 @@
         <v>3833434.300013582</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -5008,7 +4518,7 @@
         <v>2909143.386413582</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -5041,7 +4551,7 @@
         <v>4298804.289913582</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -5206,7 +4716,7 @@
         <v>4212464.915113581</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5239,7 +4749,7 @@
         <v>4204384.199113581</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5272,7 +4782,7 @@
         <v>4216329.960913582</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5470,7 +4980,7 @@
         <v>3670192.522838172</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5503,7 +5013,7 @@
         <v>3666950.004138172</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5536,7 +5046,7 @@
         <v>3663986.282738172</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5569,7 +5079,7 @@
         <v>3505476.216538172</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5800,7 +5310,7 @@
         <v>3331032.378638172</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5833,7 +5343,7 @@
         <v>2839538.248738172</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5866,7 +5376,7 @@
         <v>2865734.561738172</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5899,7 +5409,7 @@
         <v>2865734.561738172</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5932,7 +5442,7 @@
         <v>2919736.417738172</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5965,7 +5475,7 @@
         <v>3625470.263438172</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5998,7 +5508,7 @@
         <v>3646474.531038172</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6031,7 +5541,7 @@
         <v>3701343.621538172</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6064,7 +5574,7 @@
         <v>3701101.712038172</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6097,7 +5607,7 @@
         <v>3688455.262338172</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6130,7 +5640,7 @@
         <v>3688455.262338172</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6163,7 +5673,7 @@
         <v>3680068.082738172</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6196,7 +5706,7 @@
         <v>3683883.260438172</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6229,7 +5739,7 @@
         <v>3600248.392538172</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6823,7 +6333,7 @@
         <v>2572292.653138171</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -7450,7 +6960,7 @@
         <v>1990421.343838171</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7483,7 +6993,7 @@
         <v>2010632.343838171</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -8704,7 +8214,7 @@
         <v>398076.4216675003</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8737,7 +8247,7 @@
         <v>327235.4425675003</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8770,7 +8280,7 @@
         <v>327735.4425675003</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8803,7 +8313,7 @@
         <v>-120005.9366324997</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8836,7 +8346,7 @@
         <v>-118801.0806324997</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9034,7 +8544,7 @@
         <v>-1072088.8427325</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9100,7 +8610,7 @@
         <v>-922622.6954324995</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9133,7 +8643,7 @@
         <v>-897539.1354324995</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9826,7 +9336,7 @@
         <v>-1354343.261832499</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9859,7 +9369,7 @@
         <v>-1356882.238832499</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9892,7 +9402,7 @@
         <v>-1392265.440232499</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9925,7 +9435,7 @@
         <v>-2746282.732232499</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9958,7 +9468,7 @@
         <v>-2733587.486232499</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9991,7 +9501,7 @@
         <v>-2731584.590232499</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10024,7 +9534,7 @@
         <v>-2731584.590232499</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10057,7 +9567,7 @@
         <v>-2731084.590232499</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10090,7 +9600,7 @@
         <v>-2742159.446232499</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10123,7 +9633,7 @@
         <v>-2747257.833332499</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10156,14 +9666,10 @@
         <v>-2747257.833332499</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>2.991</v>
-      </c>
-      <c r="J275" t="n">
-        <v>2.991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
@@ -10193,19 +9699,11 @@
         <v>-2730992.278832499</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>2.991</v>
-      </c>
-      <c r="J276" t="n">
-        <v>2.991</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10234,19 +9732,11 @@
         <v>-2728989.315832499</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>2.999</v>
-      </c>
-      <c r="J277" t="n">
-        <v>2.991</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10275,19 +9765,11 @@
         <v>-2734339.004532499</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>3.011</v>
-      </c>
-      <c r="J278" t="n">
-        <v>2.991</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10316,19 +9798,11 @@
         <v>-2734339.004532499</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>2.999</v>
-      </c>
-      <c r="J279" t="n">
-        <v>2.991</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10357,19 +9831,11 @@
         <v>-2734339.004532499</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>2.999</v>
-      </c>
-      <c r="J280" t="n">
-        <v>2.991</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10398,19 +9864,11 @@
         <v>-2725329.148532499</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>2.999</v>
-      </c>
-      <c r="J281" t="n">
-        <v>2.991</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10439,19 +9897,11 @@
         <v>-2729331.004532499</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>3.001</v>
-      </c>
-      <c r="J282" t="n">
-        <v>2.991</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10480,19 +9930,11 @@
         <v>-2729331.004532499</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>2.999</v>
-      </c>
-      <c r="J283" t="n">
-        <v>2.991</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10524,20 +9966,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>2.991</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
       <c r="M284" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest MIX.xlsx
+++ b/BackTest/2020-01-19 BackTest MIX.xlsx
@@ -451,7 +451,7 @@
         <v>-186352.549889898</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-185852.549889898</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -520,8 +524,14 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +560,19 @@
         <v>-186279.828589898</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,19 @@
         <v>-191349.828589898</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.026</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +642,19 @@
         <v>-191349.828589898</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.986</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +683,19 @@
         <v>-182249.828589898</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.986</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +724,19 @@
         <v>-185070.8461898979</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +765,19 @@
         <v>-236630.407089898</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.983</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +806,19 @@
         <v>-105320.4663898979</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +847,19 @@
         <v>-120044.6642898979</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.945</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -819,10 +893,12 @@
       <c r="I13" t="n">
         <v>2.938</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -858,7 +934,9 @@
       <c r="I14" t="n">
         <v>2.934</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -897,7 +975,9 @@
       <c r="I15" t="n">
         <v>2.93</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -936,7 +1016,9 @@
       <c r="I16" t="n">
         <v>2.947</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -975,7 +1057,9 @@
       <c r="I17" t="n">
         <v>2.948</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1014,7 +1098,9 @@
       <c r="I18" t="n">
         <v>2.948</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1053,7 +1139,9 @@
       <c r="I19" t="n">
         <v>2.95</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1092,7 +1180,9 @@
       <c r="I20" t="n">
         <v>2.95</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1131,7 +1221,9 @@
       <c r="I21" t="n">
         <v>2.95</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1170,7 +1262,9 @@
       <c r="I22" t="n">
         <v>2.948</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1204,10 +1298,14 @@
         <v>42531.02471010207</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.961</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1241,10 +1339,14 @@
         <v>42531.02471010207</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.975</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1278,10 +1380,14 @@
         <v>42701.02471010207</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.975</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1315,10 +1421,14 @@
         <v>26715.44781010206</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.986</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1352,10 +1462,14 @@
         <v>26715.44781010206</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.975</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1389,10 +1503,14 @@
         <v>11729.06221010207</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.975</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1426,10 +1544,14 @@
         <v>66574.02381010207</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.965</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1463,10 +1585,14 @@
         <v>-62946.74758989793</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.975</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1500,10 +1626,14 @@
         <v>68193.19311010207</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.961</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1537,10 +1667,14 @@
         <v>85352.12901010207</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.986</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1574,10 +1708,14 @@
         <v>108116.9438101021</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1611,10 +1749,14 @@
         <v>171474.1452101021</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3.036</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1651,7 +1793,9 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1685,10 +1829,14 @@
         <v>395684.5671101021</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1725,7 +1873,9 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1762,7 +1912,9 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1799,7 +1951,9 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1836,7 +1990,9 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1873,7 +2029,9 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1907,10 +2065,14 @@
         <v>231084.3707101021</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1944,10 +2106,14 @@
         <v>130611.8911101021</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1981,10 +2147,14 @@
         <v>124570.0391101021</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2018,10 +2188,14 @@
         <v>125651.0391101021</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2055,10 +2229,14 @@
         <v>125651.0391101021</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2092,10 +2270,14 @@
         <v>187570.1456105957</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2129,10 +2311,14 @@
         <v>123575.4947105957</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2166,10 +2352,14 @@
         <v>95893.6387105957</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2203,10 +2393,14 @@
         <v>107233.6387105957</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2240,10 +2434,14 @@
         <v>489277.5542105957</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2277,10 +2475,14 @@
         <v>489277.5542105957</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3.029</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2314,10 +2516,14 @@
         <v>513666.4102105957</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3.029</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2351,10 +2557,14 @@
         <v>510660.5146105957</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2388,10 +2598,14 @@
         <v>492163.2437105957</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3.034</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2425,10 +2639,14 @@
         <v>523706.7874105957</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2462,10 +2680,14 @@
         <v>521706.7874105957</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2499,10 +2721,14 @@
         <v>517117.3460105957</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3.021</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2536,16 +2762,22 @@
         <v>513915.2178105957</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3.018</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2.996</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
       <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
@@ -2571,11 +2803,19 @@
         <v>506886.4055105957</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2604,11 +2844,19 @@
         <v>440114.7529105957</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3.009</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2637,11 +2885,19 @@
         <v>415161.3032105957</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3.006</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2670,11 +2926,19 @@
         <v>413161.3032105957</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2703,11 +2967,19 @@
         <v>417273.7174105957</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2.982</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2736,11 +3008,19 @@
         <v>407380.4196105957</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3.008</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2769,11 +3049,19 @@
         <v>395375.5636105958</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3.003</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2802,11 +3090,19 @@
         <v>395375.5636105958</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2835,11 +3131,19 @@
         <v>395375.5636105958</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2868,11 +3172,19 @@
         <v>395375.5636105958</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2901,11 +3213,19 @@
         <v>391875.5636105958</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2934,11 +3254,19 @@
         <v>391875.5636105958</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2.992</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2967,11 +3295,19 @@
         <v>372867.7076105957</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2.992</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3000,11 +3336,19 @@
         <v>372867.7076105957</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3033,11 +3377,19 @@
         <v>372867.7076105957</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3066,11 +3418,19 @@
         <v>374342.5636105958</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3099,11 +3459,19 @@
         <v>374342.5636105958</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3132,11 +3500,19 @@
         <v>163778.4460105958</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3165,11 +3541,19 @@
         <v>163778.4460105958</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2.983</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3198,11 +3582,19 @@
         <v>164983.4460105958</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>2.983</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3231,11 +3623,19 @@
         <v>159884.8860105958</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>3.003</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3264,11 +3664,19 @@
         <v>159884.8860105958</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3297,11 +3705,19 @@
         <v>73491.38601059577</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3330,11 +3746,19 @@
         <v>75999.24201059577</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3363,11 +3787,19 @@
         <v>70677.39201059577</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3.003</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3396,11 +3828,19 @@
         <v>168102.9503105958</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2.998</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3429,11 +3869,19 @@
         <v>168102.9503105958</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>3.018</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3462,11 +3910,19 @@
         <v>168102.9503105958</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>3.018</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3495,11 +3951,19 @@
         <v>183102.9503105958</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3.018</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3528,11 +3992,19 @@
         <v>189803.0835105958</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>3.031</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3561,11 +4033,19 @@
         <v>189803.0835105958</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>3.034</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3594,11 +4074,19 @@
         <v>489012.9554105958</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>3.034</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3630,8 +4118,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3660,11 +4154,19 @@
         <v>516208.8282105958</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3.034</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3693,11 +4195,19 @@
         <v>516208.8282105958</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3726,11 +4236,19 @@
         <v>915048.6453101023</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3759,11 +4277,19 @@
         <v>1845314.547810102</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>3.042</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3792,11 +4318,19 @@
         <v>2262442.627910102</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>3.046</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3828,8 +4362,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3861,8 +4401,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3894,8 +4440,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3927,8 +4479,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3960,8 +4518,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3993,8 +4557,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4026,8 +4596,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4056,13 +4632,19 @@
         <v>5607596.905913328</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L105" t="n">
-        <v>1</v>
+        <v>1.036388518024032</v>
       </c>
       <c r="M105" t="inlineStr"/>
     </row>
@@ -4089,7 +4671,7 @@
         <v>4676031.054113582</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4122,7 +4704,7 @@
         <v>4678335.054113582</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4155,7 +4737,7 @@
         <v>4671427.198113582</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4188,7 +4770,7 @@
         <v>4671345.768113582</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4221,7 +4803,7 @@
         <v>4671345.768113582</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4254,7 +4836,7 @@
         <v>4483542.719813582</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4287,7 +4869,7 @@
         <v>4485231.250713582</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4320,7 +4902,7 @@
         <v>4483123.394713582</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4353,7 +4935,7 @@
         <v>4478623.394713582</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4386,7 +4968,7 @@
         <v>4462504.243613582</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4584,7 +5166,7 @@
         <v>4310614.807413582</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4617,7 +5199,7 @@
         <v>4312922.663413581</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4650,7 +5232,7 @@
         <v>4309634.807113581</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4683,7 +5265,7 @@
         <v>4311942.767113581</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4815,7 +5397,7 @@
         <v>4215992.293613582</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4848,7 +5430,7 @@
         <v>4215992.293613582</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4881,7 +5463,7 @@
         <v>4246327.168813582</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4914,7 +5496,7 @@
         <v>4249605.857338171</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4947,7 +5529,7 @@
         <v>4211106.950838172</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -6960,7 +7542,7 @@
         <v>1990421.343838171</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6993,7 +7575,7 @@
         <v>2010632.343838171</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -8214,7 +8796,7 @@
         <v>398076.4216675003</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8247,7 +8829,7 @@
         <v>327235.4425675003</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8280,7 +8862,7 @@
         <v>327735.4425675003</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8313,7 +8895,7 @@
         <v>-120005.9366324997</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8346,7 +8928,7 @@
         <v>-118801.0806324997</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8544,7 +9126,7 @@
         <v>-1072088.8427325</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8610,7 +9192,7 @@
         <v>-922622.6954324995</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8643,7 +9225,7 @@
         <v>-897539.1354324995</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9336,7 +9918,7 @@
         <v>-1354343.261832499</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9369,10 +9951,14 @@
         <v>-1356882.238832499</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="J266" t="n">
+        <v>3.015</v>
+      </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
@@ -9402,11 +9988,19 @@
         <v>-1392265.440232499</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>2.994</v>
+      </c>
+      <c r="J267" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9435,11 +10029,19 @@
         <v>-2746282.732232499</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="J268" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9468,11 +10070,19 @@
         <v>-2733587.486232499</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J269" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9501,11 +10111,19 @@
         <v>-2731584.590232499</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="J270" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9534,11 +10152,19 @@
         <v>-2731584.590232499</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="J271" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9567,11 +10193,19 @@
         <v>-2731084.590232499</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="J272" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9600,11 +10234,19 @@
         <v>-2742159.446232499</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>3.001</v>
+      </c>
+      <c r="J273" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9633,11 +10275,19 @@
         <v>-2747257.833332499</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="J274" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9666,11 +10316,19 @@
         <v>-2747257.833332499</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>2.991</v>
+      </c>
+      <c r="J275" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9699,11 +10357,19 @@
         <v>-2730992.278832499</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>2.991</v>
+      </c>
+      <c r="J276" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9732,11 +10398,19 @@
         <v>-2728989.315832499</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="J277" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9765,11 +10439,19 @@
         <v>-2734339.004532499</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>3.011</v>
+      </c>
+      <c r="J278" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9798,11 +10480,19 @@
         <v>-2734339.004532499</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="J279" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9831,11 +10521,19 @@
         <v>-2734339.004532499</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="J280" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9864,11 +10562,19 @@
         <v>-2725329.148532499</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="J281" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9897,11 +10603,19 @@
         <v>-2729331.004532499</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>3.001</v>
+      </c>
+      <c r="J282" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9930,11 +10644,19 @@
         <v>-2729331.004532499</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="J283" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9963,11 +10685,19 @@
         <v>-2687731.004532499</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="J284" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-19 BackTest MIX.xlsx
+++ b/BackTest/2020-01-19 BackTest MIX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M284"/>
+  <dimension ref="A1:L284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>5823.8147</v>
       </c>
       <c r="G2" t="n">
-        <v>-186352.549889898</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,15 @@
         <v>500</v>
       </c>
       <c r="G3" t="n">
-        <v>-185852.549889898</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,24 +503,15 @@
         <v>927.2787</v>
       </c>
       <c r="G4" t="n">
-        <v>-186779.828589898</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -557,26 +533,15 @@
         <v>500</v>
       </c>
       <c r="G5" t="n">
-        <v>-186279.828589898</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,26 +563,15 @@
         <v>5070</v>
       </c>
       <c r="G6" t="n">
-        <v>-191349.828589898</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.026</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -639,26 +593,15 @@
         <v>7777</v>
       </c>
       <c r="G7" t="n">
-        <v>-191349.828589898</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.986</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -680,26 +623,15 @@
         <v>9100</v>
       </c>
       <c r="G8" t="n">
-        <v>-182249.828589898</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.986</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -721,26 +653,15 @@
         <v>2821.0176</v>
       </c>
       <c r="G9" t="n">
-        <v>-185070.8461898979</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -762,26 +683,15 @@
         <v>51559.5609</v>
       </c>
       <c r="G10" t="n">
-        <v>-236630.407089898</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.983</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -803,26 +713,19 @@
         <v>131309.9407</v>
       </c>
       <c r="G11" t="n">
-        <v>-105320.4663898979</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2.944</v>
       </c>
       <c r="I11" t="n">
         <v>2.944</v>
       </c>
-      <c r="J11" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -844,26 +747,23 @@
         <v>14724.1979</v>
       </c>
       <c r="G12" t="n">
-        <v>-120044.6642898979</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2.945</v>
       </c>
       <c r="I12" t="n">
-        <v>2.945</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -885,26 +785,23 @@
         <v>103689.9546</v>
       </c>
       <c r="G13" t="n">
-        <v>-223734.6188898979</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2.938</v>
       </c>
       <c r="I13" t="n">
-        <v>2.938</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -926,26 +823,21 @@
         <v>107105.6131</v>
       </c>
       <c r="G14" t="n">
-        <v>-330840.231989898</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>2.934</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -967,26 +859,23 @@
         <v>32594.086</v>
       </c>
       <c r="G15" t="n">
-        <v>-298246.145989898</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="I15" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1008,26 +897,21 @@
         <v>6197.5725</v>
       </c>
       <c r="G16" t="n">
-        <v>-292048.5734898979</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>2.947</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1049,26 +933,21 @@
         <v>45000</v>
       </c>
       <c r="G17" t="n">
-        <v>-292048.5734898979</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>2.948</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1090,26 +969,21 @@
         <v>15613.1941</v>
       </c>
       <c r="G18" t="n">
-        <v>-276435.3793898979</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>2.948</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1131,26 +1005,21 @@
         <v>27800.3797</v>
       </c>
       <c r="G19" t="n">
-        <v>-276435.3793898979</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1172,26 +1041,23 @@
         <v>150000</v>
       </c>
       <c r="G20" t="n">
-        <v>-276435.3793898979</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2.95</v>
       </c>
       <c r="I20" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1213,26 +1079,23 @@
         <v>1838.0299</v>
       </c>
       <c r="G21" t="n">
-        <v>-278273.4092898979</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2.95</v>
       </c>
       <c r="I21" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1254,26 +1117,23 @@
         <v>320604.434</v>
       </c>
       <c r="G22" t="n">
-        <v>42331.02471010207</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2.948</v>
       </c>
       <c r="I22" t="n">
-        <v>2.948</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1295,26 +1155,23 @@
         <v>200</v>
       </c>
       <c r="G23" t="n">
-        <v>42531.02471010207</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2.961</v>
       </c>
       <c r="I23" t="n">
-        <v>2.961</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1336,26 +1193,23 @@
         <v>1750.4662</v>
       </c>
       <c r="G24" t="n">
-        <v>42531.02471010207</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2.975</v>
       </c>
       <c r="I24" t="n">
-        <v>2.975</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1377,26 +1231,23 @@
         <v>170</v>
       </c>
       <c r="G25" t="n">
-        <v>42701.02471010207</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2.975</v>
       </c>
       <c r="I25" t="n">
-        <v>2.975</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1418,26 +1269,21 @@
         <v>15985.5769</v>
       </c>
       <c r="G26" t="n">
-        <v>26715.44781010206</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>2.986</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1459,26 +1305,21 @@
         <v>45155.0384</v>
       </c>
       <c r="G27" t="n">
-        <v>26715.44781010206</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>2.975</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1500,26 +1341,21 @@
         <v>14986.3856</v>
       </c>
       <c r="G28" t="n">
-        <v>11729.06221010207</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>2.975</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1541,26 +1377,21 @@
         <v>54844.9616</v>
       </c>
       <c r="G29" t="n">
-        <v>66574.02381010207</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>2.965</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1582,26 +1413,21 @@
         <v>129520.7714</v>
       </c>
       <c r="G30" t="n">
-        <v>-62946.74758989793</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>2.975</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1623,26 +1449,23 @@
         <v>131139.9407</v>
       </c>
       <c r="G31" t="n">
-        <v>68193.19311010207</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2.961</v>
       </c>
       <c r="I31" t="n">
-        <v>2.961</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1664,26 +1487,23 @@
         <v>17158.9359</v>
       </c>
       <c r="G32" t="n">
-        <v>85352.12901010207</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2.986</v>
       </c>
       <c r="I32" t="n">
-        <v>2.986</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1705,26 +1525,23 @@
         <v>22764.8148</v>
       </c>
       <c r="G33" t="n">
-        <v>108116.9438101021</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1746,26 +1563,23 @@
         <v>63357.2014</v>
       </c>
       <c r="G34" t="n">
-        <v>171474.1452101021</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>3.036</v>
       </c>
       <c r="I34" t="n">
-        <v>3.036</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1787,24 +1601,21 @@
         <v>133146.4033</v>
       </c>
       <c r="G35" t="n">
-        <v>304620.5485101021</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1826,26 +1637,21 @@
         <v>91064.0186</v>
       </c>
       <c r="G36" t="n">
-        <v>395684.5671101021</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1867,24 +1673,21 @@
         <v>29306.139</v>
       </c>
       <c r="G37" t="n">
-        <v>395684.5671101021</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1906,24 +1709,21 @@
         <v>137430.944</v>
       </c>
       <c r="G38" t="n">
-        <v>258253.6231101021</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1945,24 +1745,21 @@
         <v>19048.3962</v>
       </c>
       <c r="G39" t="n">
-        <v>239205.2269101021</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1984,24 +1781,21 @@
         <v>231</v>
       </c>
       <c r="G40" t="n">
-        <v>239436.2269101021</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2023,24 +1817,21 @@
         <v>500</v>
       </c>
       <c r="G41" t="n">
-        <v>238936.2269101021</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2062,26 +1853,21 @@
         <v>7851.8562</v>
       </c>
       <c r="G42" t="n">
-        <v>231084.3707101021</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2103,26 +1889,21 @@
         <v>100472.4796</v>
       </c>
       <c r="G43" t="n">
-        <v>130611.8911101021</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2144,26 +1925,23 @@
         <v>6041.852</v>
       </c>
       <c r="G44" t="n">
-        <v>124570.0391101021</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>3.016</v>
       </c>
       <c r="I44" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="J44" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2185,26 +1963,23 @@
         <v>1081</v>
       </c>
       <c r="G45" t="n">
-        <v>125651.0391101021</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>3.01</v>
       </c>
       <c r="I45" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="J45" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2226,26 +2001,23 @@
         <v>202104.705</v>
       </c>
       <c r="G46" t="n">
-        <v>125651.0391101021</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>3.03</v>
       </c>
       <c r="I46" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2267,26 +2039,23 @@
         <v>61919.10650049358</v>
       </c>
       <c r="G47" t="n">
-        <v>187570.1456105957</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>3.03</v>
       </c>
       <c r="I47" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2308,26 +2077,21 @@
         <v>63994.6509</v>
       </c>
       <c r="G48" t="n">
-        <v>123575.4947105957</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2349,26 +2113,21 @@
         <v>27681.856</v>
       </c>
       <c r="G49" t="n">
-        <v>95893.6387105957</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="J49" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2390,26 +2149,21 @@
         <v>11340</v>
       </c>
       <c r="G50" t="n">
-        <v>107233.6387105957</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2431,26 +2185,21 @@
         <v>382043.9155</v>
       </c>
       <c r="G51" t="n">
-        <v>489277.5542105957</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="J51" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2472,26 +2221,21 @@
         <v>28813.712</v>
       </c>
       <c r="G52" t="n">
-        <v>489277.5542105957</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2513,26 +2257,21 @@
         <v>24388.856</v>
       </c>
       <c r="G53" t="n">
-        <v>513666.4102105957</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2554,26 +2293,21 @@
         <v>3005.8956</v>
       </c>
       <c r="G54" t="n">
-        <v>510660.5146105957</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2595,26 +2329,21 @@
         <v>18497.2709</v>
       </c>
       <c r="G55" t="n">
-        <v>492163.2437105957</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
-        <v>3.034</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2636,26 +2365,23 @@
         <v>31543.5437</v>
       </c>
       <c r="G56" t="n">
-        <v>523706.7874105957</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>3.02</v>
       </c>
       <c r="I56" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="J56" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2677,26 +2403,23 @@
         <v>2000</v>
       </c>
       <c r="G57" t="n">
-        <v>521706.7874105957</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>3.03</v>
       </c>
       <c r="I57" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2718,26 +2441,23 @@
         <v>4589.4414</v>
       </c>
       <c r="G58" t="n">
-        <v>517117.3460105957</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>3.021</v>
       </c>
       <c r="I58" t="n">
-        <v>3.021</v>
-      </c>
-      <c r="J58" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2759,26 +2479,23 @@
         <v>3202.1282</v>
       </c>
       <c r="G59" t="n">
-        <v>513915.2178105957</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>3.018</v>
       </c>
       <c r="I59" t="n">
-        <v>3.018</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2800,26 +2517,23 @@
         <v>7028.8123</v>
       </c>
       <c r="G60" t="n">
-        <v>506886.4055105957</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>3.016</v>
       </c>
       <c r="I60" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="J60" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2841,26 +2555,23 @@
         <v>66771.6526</v>
       </c>
       <c r="G61" t="n">
-        <v>440114.7529105957</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>3.009</v>
       </c>
       <c r="I61" t="n">
-        <v>3.009</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2882,26 +2593,23 @@
         <v>24953.4497</v>
       </c>
       <c r="G62" t="n">
-        <v>415161.3032105957</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>3.006</v>
       </c>
       <c r="I62" t="n">
-        <v>3.006</v>
-      </c>
-      <c r="J62" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2923,26 +2631,23 @@
         <v>2000</v>
       </c>
       <c r="G63" t="n">
-        <v>413161.3032105957</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2.996</v>
       </c>
       <c r="I63" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2964,26 +2669,23 @@
         <v>4112.4142</v>
       </c>
       <c r="G64" t="n">
-        <v>417273.7174105957</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2.982</v>
       </c>
       <c r="I64" t="n">
-        <v>2.982</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3005,26 +2707,23 @@
         <v>9893.2978</v>
       </c>
       <c r="G65" t="n">
-        <v>407380.4196105957</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>3.008</v>
       </c>
       <c r="I65" t="n">
-        <v>3.008</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3046,26 +2745,23 @@
         <v>12004.856</v>
       </c>
       <c r="G66" t="n">
-        <v>395375.5636105958</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>3.003</v>
       </c>
       <c r="I66" t="n">
-        <v>3.003</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3087,26 +2783,23 @@
         <v>314269.1753</v>
       </c>
       <c r="G67" t="n">
-        <v>395375.5636105958</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2.999</v>
       </c>
       <c r="I67" t="n">
-        <v>2.999</v>
-      </c>
-      <c r="J67" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3128,26 +2821,23 @@
         <v>1013861.5748</v>
       </c>
       <c r="G68" t="n">
-        <v>395375.5636105958</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2.999</v>
       </c>
       <c r="I68" t="n">
-        <v>2.999</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3169,26 +2859,23 @@
         <v>94280.5533</v>
       </c>
       <c r="G69" t="n">
-        <v>395375.5636105958</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2.999</v>
       </c>
       <c r="I69" t="n">
-        <v>2.999</v>
-      </c>
-      <c r="J69" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3210,26 +2897,23 @@
         <v>3500</v>
       </c>
       <c r="G70" t="n">
-        <v>391875.5636105958</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2.999</v>
       </c>
       <c r="I70" t="n">
-        <v>2.999</v>
-      </c>
-      <c r="J70" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3251,26 +2935,23 @@
         <v>30000</v>
       </c>
       <c r="G71" t="n">
-        <v>391875.5636105958</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2.992</v>
       </c>
       <c r="I71" t="n">
-        <v>2.992</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3292,26 +2973,23 @@
         <v>19007.856</v>
       </c>
       <c r="G72" t="n">
-        <v>372867.7076105957</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2.992</v>
       </c>
       <c r="I72" t="n">
-        <v>2.992</v>
-      </c>
-      <c r="J72" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3333,26 +3011,23 @@
         <v>50920.6234</v>
       </c>
       <c r="G73" t="n">
-        <v>372867.7076105957</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2.988</v>
       </c>
       <c r="I73" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="J73" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3374,26 +3049,23 @@
         <v>272669.449</v>
       </c>
       <c r="G74" t="n">
-        <v>372867.7076105957</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2.988</v>
       </c>
       <c r="I74" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="J74" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3415,26 +3087,23 @@
         <v>1474.856</v>
       </c>
       <c r="G75" t="n">
-        <v>374342.5636105958</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2.988</v>
       </c>
       <c r="I75" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="J75" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3456,26 +3125,23 @@
         <v>365161.8812</v>
       </c>
       <c r="G76" t="n">
-        <v>374342.5636105958</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2.999</v>
       </c>
       <c r="I76" t="n">
-        <v>2.999</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3497,26 +3163,23 @@
         <v>210564.1176</v>
       </c>
       <c r="G77" t="n">
-        <v>163778.4460105958</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2.999</v>
       </c>
       <c r="I77" t="n">
-        <v>2.999</v>
-      </c>
-      <c r="J77" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3538,26 +3201,23 @@
         <v>118976.8538</v>
       </c>
       <c r="G78" t="n">
-        <v>163778.4460105958</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2.983</v>
       </c>
       <c r="I78" t="n">
-        <v>2.983</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3579,26 +3239,23 @@
         <v>1205</v>
       </c>
       <c r="G79" t="n">
-        <v>164983.4460105958</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2.983</v>
       </c>
       <c r="I79" t="n">
-        <v>2.983</v>
-      </c>
-      <c r="J79" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3620,26 +3277,23 @@
         <v>5098.56</v>
       </c>
       <c r="G80" t="n">
-        <v>159884.8860105958</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>3.003</v>
       </c>
       <c r="I80" t="n">
-        <v>3.003</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3661,26 +3315,23 @@
         <v>21897.5</v>
       </c>
       <c r="G81" t="n">
-        <v>159884.8860105958</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2.999</v>
       </c>
       <c r="I81" t="n">
-        <v>2.999</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3702,26 +3353,23 @@
         <v>86393.5</v>
       </c>
       <c r="G82" t="n">
-        <v>73491.38601059577</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2.999</v>
       </c>
       <c r="I82" t="n">
-        <v>2.999</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3743,26 +3391,23 @@
         <v>2507.856</v>
       </c>
       <c r="G83" t="n">
-        <v>75999.24201059577</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2.99</v>
       </c>
       <c r="I83" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="J83" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3784,26 +3429,23 @@
         <v>5321.85</v>
       </c>
       <c r="G84" t="n">
-        <v>70677.39201059577</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>3.003</v>
       </c>
       <c r="I84" t="n">
-        <v>3.003</v>
-      </c>
-      <c r="J84" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3825,26 +3467,23 @@
         <v>97425.5583</v>
       </c>
       <c r="G85" t="n">
-        <v>168102.9503105958</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2.998</v>
       </c>
       <c r="I85" t="n">
-        <v>2.998</v>
-      </c>
-      <c r="J85" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3866,26 +3505,23 @@
         <v>80119.9644</v>
       </c>
       <c r="G86" t="n">
-        <v>168102.9503105958</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>3.018</v>
       </c>
       <c r="I86" t="n">
-        <v>3.018</v>
-      </c>
-      <c r="J86" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3907,26 +3543,23 @@
         <v>14667.3005</v>
       </c>
       <c r="G87" t="n">
-        <v>168102.9503105958</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>3.018</v>
       </c>
       <c r="I87" t="n">
-        <v>3.018</v>
-      </c>
-      <c r="J87" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3948,26 +3581,23 @@
         <v>15000</v>
       </c>
       <c r="G88" t="n">
-        <v>183102.9503105958</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>3.018</v>
       </c>
       <c r="I88" t="n">
-        <v>3.018</v>
-      </c>
-      <c r="J88" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3989,26 +3619,23 @@
         <v>6700.1332</v>
       </c>
       <c r="G89" t="n">
-        <v>189803.0835105958</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>3.031</v>
       </c>
       <c r="I89" t="n">
-        <v>3.031</v>
-      </c>
-      <c r="J89" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4030,26 +3657,23 @@
         <v>1000</v>
       </c>
       <c r="G90" t="n">
-        <v>189803.0835105958</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>3.034</v>
       </c>
       <c r="I90" t="n">
-        <v>3.034</v>
-      </c>
-      <c r="J90" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4071,26 +3695,21 @@
         <v>299209.8719</v>
       </c>
       <c r="G91" t="n">
-        <v>489012.9554105958</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="n">
-        <v>3.034</v>
-      </c>
-      <c r="J91" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4112,24 +3731,21 @@
         <v>6805.1272</v>
       </c>
       <c r="G92" t="n">
-        <v>482207.8282105958</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4151,26 +3767,23 @@
         <v>34001</v>
       </c>
       <c r="G93" t="n">
-        <v>516208.8282105958</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>3.034</v>
       </c>
       <c r="I93" t="n">
-        <v>3.034</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4192,26 +3805,23 @@
         <v>270933.0476</v>
       </c>
       <c r="G94" t="n">
-        <v>516208.8282105958</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>3.039</v>
       </c>
       <c r="I94" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J94" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4233,26 +3843,23 @@
         <v>398839.8170995064</v>
       </c>
       <c r="G95" t="n">
-        <v>915048.6453101023</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>3.039</v>
       </c>
       <c r="I95" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J95" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4274,26 +3881,23 @@
         <v>930265.9025</v>
       </c>
       <c r="G96" t="n">
-        <v>1845314.547810102</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>3.042</v>
       </c>
       <c r="I96" t="n">
-        <v>3.042</v>
-      </c>
-      <c r="J96" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4315,26 +3919,23 @@
         <v>417128.0801</v>
       </c>
       <c r="G97" t="n">
-        <v>2262442.627910102</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>3.046</v>
       </c>
       <c r="I97" t="n">
-        <v>3.046</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>2.944</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4356,24 +3957,21 @@
         <v>883017.6272</v>
       </c>
       <c r="G98" t="n">
-        <v>3145460.255110102</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4395,24 +3993,21 @@
         <v>1126653.3279</v>
       </c>
       <c r="G99" t="n">
-        <v>3145460.255110102</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4434,24 +4029,21 @@
         <v>685535.193</v>
       </c>
       <c r="G100" t="n">
-        <v>3830995.448110102</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4473,24 +4065,21 @@
         <v>882048.8391</v>
       </c>
       <c r="G101" t="n">
-        <v>3830995.448110102</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4512,24 +4101,21 @@
         <v>5098.387096774193</v>
       </c>
       <c r="G102" t="n">
-        <v>3830995.448110102</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4551,24 +4137,21 @@
         <v>1166941.606203226</v>
       </c>
       <c r="G103" t="n">
-        <v>4997937.054313328</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4590,24 +4173,21 @@
         <v>642956.2643</v>
       </c>
       <c r="G104" t="n">
-        <v>5640893.318613328</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4629,24 +4209,21 @@
         <v>33296.4127</v>
       </c>
       <c r="G105" t="n">
-        <v>5607596.905913328</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1.036388518024032</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4668,18 +4245,21 @@
         <v>931565.8517997457</v>
       </c>
       <c r="G106" t="n">
-        <v>4676031.054113582</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4701,18 +4281,23 @@
         <v>2304</v>
       </c>
       <c r="G107" t="n">
-        <v>4678335.054113582</v>
-      </c>
-      <c r="H107" t="n">
         <v>2</v>
       </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1.063614130434783</v>
+      </c>
       <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>1.027853260869565</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4734,18 +4319,15 @@
         <v>6907.856</v>
       </c>
       <c r="G108" t="n">
-        <v>4671427.198113582</v>
-      </c>
-      <c r="H108" t="n">
         <v>2</v>
       </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4767,18 +4349,15 @@
         <v>81.43000000000001</v>
       </c>
       <c r="G109" t="n">
-        <v>4671345.768113582</v>
-      </c>
-      <c r="H109" t="n">
         <v>2</v>
       </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4800,18 +4379,15 @@
         <v>11001.895</v>
       </c>
       <c r="G110" t="n">
-        <v>4671345.768113582</v>
-      </c>
-      <c r="H110" t="n">
         <v>2</v>
       </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4833,18 +4409,15 @@
         <v>187803.0483</v>
       </c>
       <c r="G111" t="n">
-        <v>4483542.719813582</v>
-      </c>
-      <c r="H111" t="n">
         <v>2</v>
       </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4866,18 +4439,15 @@
         <v>1688.5309</v>
       </c>
       <c r="G112" t="n">
-        <v>4485231.250713582</v>
-      </c>
-      <c r="H112" t="n">
         <v>2</v>
       </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4899,18 +4469,15 @@
         <v>2107.856</v>
       </c>
       <c r="G113" t="n">
-        <v>4483123.394713582</v>
-      </c>
-      <c r="H113" t="n">
         <v>2</v>
       </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4932,18 +4499,15 @@
         <v>4500</v>
       </c>
       <c r="G114" t="n">
-        <v>4478623.394713582</v>
-      </c>
-      <c r="H114" t="n">
         <v>2</v>
       </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4965,18 +4529,15 @@
         <v>16119.1511</v>
       </c>
       <c r="G115" t="n">
-        <v>4462504.243613582</v>
-      </c>
-      <c r="H115" t="n">
         <v>2</v>
       </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4998,18 +4559,15 @@
         <v>629069.9436</v>
       </c>
       <c r="G116" t="n">
-        <v>3833434.300013582</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5031,18 +4589,15 @@
         <v>1014900.789</v>
       </c>
       <c r="G117" t="n">
-        <v>3833434.300013582</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5064,18 +4619,15 @@
         <v>46178.816</v>
       </c>
       <c r="G118" t="n">
-        <v>3833434.300013582</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5097,18 +4649,15 @@
         <v>924290.9136</v>
       </c>
       <c r="G119" t="n">
-        <v>2909143.386413582</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5130,18 +4679,15 @@
         <v>1389660.9035</v>
       </c>
       <c r="G120" t="n">
-        <v>4298804.289913582</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5163,18 +4709,15 @@
         <v>11810.5175</v>
       </c>
       <c r="G121" t="n">
-        <v>4310614.807413582</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5196,18 +4739,15 @@
         <v>2307.856</v>
       </c>
       <c r="G122" t="n">
-        <v>4312922.663413581</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5229,18 +4769,15 @@
         <v>3287.8563</v>
       </c>
       <c r="G123" t="n">
-        <v>4309634.807113581</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5262,18 +4799,15 @@
         <v>2307.96</v>
       </c>
       <c r="G124" t="n">
-        <v>4311942.767113581</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5295,18 +4829,15 @@
         <v>99477.852</v>
       </c>
       <c r="G125" t="n">
-        <v>4212464.915113581</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5328,18 +4859,15 @@
         <v>8080.716</v>
       </c>
       <c r="G126" t="n">
-        <v>4204384.199113581</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5361,18 +4889,15 @@
         <v>11945.7618</v>
       </c>
       <c r="G127" t="n">
-        <v>4216329.960913582</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5394,18 +4919,15 @@
         <v>337.6673</v>
       </c>
       <c r="G128" t="n">
-        <v>4215992.293613582</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5427,18 +4949,15 @@
         <v>65500</v>
       </c>
       <c r="G129" t="n">
-        <v>4215992.293613582</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5460,18 +4979,15 @@
         <v>30334.8752</v>
       </c>
       <c r="G130" t="n">
-        <v>4246327.168813582</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5493,18 +5009,15 @@
         <v>3278.688524590164</v>
       </c>
       <c r="G131" t="n">
-        <v>4249605.857338171</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5526,18 +5039,15 @@
         <v>38498.9065</v>
       </c>
       <c r="G132" t="n">
-        <v>4211106.950838172</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5559,18 +5069,15 @@
         <v>540914.428</v>
       </c>
       <c r="G133" t="n">
-        <v>3670192.522838172</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5592,18 +5099,15 @@
         <v>3242.5187</v>
       </c>
       <c r="G134" t="n">
-        <v>3666950.004138172</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5625,18 +5129,15 @@
         <v>2963.7214</v>
       </c>
       <c r="G135" t="n">
-        <v>3663986.282738172</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5658,18 +5159,15 @@
         <v>158510.0662</v>
       </c>
       <c r="G136" t="n">
-        <v>3505476.216538172</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5691,18 +5189,15 @@
         <v>99140</v>
       </c>
       <c r="G137" t="n">
-        <v>3604616.216538172</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5724,18 +5219,15 @@
         <v>860</v>
       </c>
       <c r="G138" t="n">
-        <v>3604616.216538172</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5757,18 +5249,15 @@
         <v>500</v>
       </c>
       <c r="G139" t="n">
-        <v>3605116.216538172</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5790,18 +5279,15 @@
         <v>208836.7429</v>
       </c>
       <c r="G140" t="n">
-        <v>3396279.473638172</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5823,18 +5309,15 @@
         <v>65077.095</v>
       </c>
       <c r="G141" t="n">
-        <v>3331202.378638172</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5856,18 +5339,15 @@
         <v>3963.5975</v>
       </c>
       <c r="G142" t="n">
-        <v>3331202.378638172</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5889,18 +5369,15 @@
         <v>170</v>
       </c>
       <c r="G143" t="n">
-        <v>3331032.378638172</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5922,18 +5399,15 @@
         <v>491494.1299</v>
       </c>
       <c r="G144" t="n">
-        <v>2839538.248738172</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5955,18 +5429,15 @@
         <v>26196.313</v>
       </c>
       <c r="G145" t="n">
-        <v>2865734.561738172</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5988,18 +5459,15 @@
         <v>1329361.032</v>
       </c>
       <c r="G146" t="n">
-        <v>2865734.561738172</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6021,18 +5489,15 @@
         <v>54001.856</v>
       </c>
       <c r="G147" t="n">
-        <v>2919736.417738172</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6054,18 +5519,15 @@
         <v>705733.8456999999</v>
       </c>
       <c r="G148" t="n">
-        <v>3625470.263438172</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6087,18 +5549,15 @@
         <v>21004.2676</v>
       </c>
       <c r="G149" t="n">
-        <v>3646474.531038172</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6120,18 +5579,15 @@
         <v>54869.0905</v>
       </c>
       <c r="G150" t="n">
-        <v>3701343.621538172</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6153,18 +5609,15 @@
         <v>241.9095</v>
       </c>
       <c r="G151" t="n">
-        <v>3701101.712038172</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6186,18 +5639,15 @@
         <v>12646.4497</v>
       </c>
       <c r="G152" t="n">
-        <v>3688455.262338172</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6219,18 +5669,15 @@
         <v>1000</v>
       </c>
       <c r="G153" t="n">
-        <v>3688455.262338172</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6252,18 +5699,15 @@
         <v>8387.179599999999</v>
       </c>
       <c r="G154" t="n">
-        <v>3680068.082738172</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6285,18 +5729,15 @@
         <v>3815.1777</v>
       </c>
       <c r="G155" t="n">
-        <v>3683883.260438172</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6318,18 +5759,15 @@
         <v>83634.8679</v>
       </c>
       <c r="G156" t="n">
-        <v>3600248.392538172</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6351,18 +5789,15 @@
         <v>50530</v>
       </c>
       <c r="G157" t="n">
-        <v>3549718.392538172</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6384,18 +5819,15 @@
         <v>9009.856</v>
       </c>
       <c r="G158" t="n">
-        <v>3540708.536538172</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6417,18 +5849,15 @@
         <v>15356.8807</v>
       </c>
       <c r="G159" t="n">
-        <v>3525351.655838171</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6450,18 +5879,15 @@
         <v>336.4344</v>
       </c>
       <c r="G160" t="n">
-        <v>3525688.090238172</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6483,18 +5909,15 @@
         <v>5331.2237</v>
       </c>
       <c r="G161" t="n">
-        <v>3520356.866538172</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6516,18 +5939,15 @@
         <v>4634.1047</v>
       </c>
       <c r="G162" t="n">
-        <v>3515722.761838172</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6549,18 +5969,15 @@
         <v>37498.563</v>
       </c>
       <c r="G163" t="n">
-        <v>3478224.198838172</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6582,18 +5999,15 @@
         <v>8544.1353</v>
       </c>
       <c r="G164" t="n">
-        <v>3469680.063538171</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6615,18 +6029,15 @@
         <v>12095.563</v>
       </c>
       <c r="G165" t="n">
-        <v>3457584.500538171</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6648,18 +6059,15 @@
         <v>10675.5278</v>
       </c>
       <c r="G166" t="n">
-        <v>3446908.972738171</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6681,18 +6089,15 @@
         <v>855612.9928</v>
       </c>
       <c r="G167" t="n">
-        <v>2591295.979938171</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6714,18 +6119,15 @@
         <v>500</v>
       </c>
       <c r="G168" t="n">
-        <v>2591795.979938171</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6747,18 +6149,15 @@
         <v>600000</v>
       </c>
       <c r="G169" t="n">
-        <v>2591795.979938171</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6780,18 +6179,15 @@
         <v>118996.5738</v>
       </c>
       <c r="G170" t="n">
-        <v>2591795.979938171</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6813,18 +6209,15 @@
         <v>23462.6429</v>
       </c>
       <c r="G171" t="n">
-        <v>2568333.337038171</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6846,18 +6239,15 @@
         <v>111040</v>
       </c>
       <c r="G172" t="n">
-        <v>2679373.337038171</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6879,18 +6269,15 @@
         <v>107580.6839</v>
       </c>
       <c r="G173" t="n">
-        <v>2571792.653138171</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6912,18 +6299,15 @@
         <v>500</v>
       </c>
       <c r="G174" t="n">
-        <v>2572292.653138171</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6945,18 +6329,15 @@
         <v>125620</v>
       </c>
       <c r="G175" t="n">
-        <v>2446672.653138171</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6978,18 +6359,15 @@
         <v>299828.0802</v>
       </c>
       <c r="G176" t="n">
-        <v>2146844.572938171</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7011,18 +6389,15 @@
         <v>131522.345</v>
       </c>
       <c r="G177" t="n">
-        <v>2278366.917938171</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7044,18 +6419,15 @@
         <v>126120</v>
       </c>
       <c r="G178" t="n">
-        <v>2278366.917938171</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7077,18 +6449,15 @@
         <v>130157.4791</v>
       </c>
       <c r="G179" t="n">
-        <v>2148209.438838171</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7110,18 +6479,15 @@
         <v>114653.9907</v>
       </c>
       <c r="G180" t="n">
-        <v>2033555.448138171</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7143,18 +6509,15 @@
         <v>10000</v>
       </c>
       <c r="G181" t="n">
-        <v>2033555.448138171</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7176,18 +6539,15 @@
         <v>349231.9395</v>
       </c>
       <c r="G182" t="n">
-        <v>2033555.448138171</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7209,18 +6569,15 @@
         <v>1500</v>
       </c>
       <c r="G183" t="n">
-        <v>2035055.448138171</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7242,18 +6599,15 @@
         <v>600</v>
       </c>
       <c r="G184" t="n">
-        <v>2034455.448138171</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7275,18 +6629,15 @@
         <v>25119.1511</v>
       </c>
       <c r="G185" t="n">
-        <v>2009336.297038171</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7308,18 +6659,15 @@
         <v>15596.3183</v>
       </c>
       <c r="G186" t="n">
-        <v>2024932.615338171</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7341,18 +6689,15 @@
         <v>2905.6677</v>
       </c>
       <c r="G187" t="n">
-        <v>2022026.947638171</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7374,18 +6719,15 @@
         <v>500</v>
       </c>
       <c r="G188" t="n">
-        <v>2022526.947638171</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7407,18 +6749,15 @@
         <v>95501.8802</v>
       </c>
       <c r="G189" t="n">
-        <v>2118028.827838171</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7440,18 +6779,15 @@
         <v>42007.956</v>
       </c>
       <c r="G190" t="n">
-        <v>2160036.783838171</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7473,18 +6809,15 @@
         <v>500</v>
       </c>
       <c r="G191" t="n">
-        <v>2160536.783838171</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7506,18 +6839,15 @@
         <v>80008.56</v>
       </c>
       <c r="G192" t="n">
-        <v>2240545.343838171</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7539,18 +6869,15 @@
         <v>250124</v>
       </c>
       <c r="G193" t="n">
-        <v>1990421.343838171</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7572,18 +6899,15 @@
         <v>20211</v>
       </c>
       <c r="G194" t="n">
-        <v>2010632.343838171</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7605,18 +6929,15 @@
         <v>2526520.4092</v>
       </c>
       <c r="G195" t="n">
-        <v>2010632.343838171</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7638,18 +6959,15 @@
         <v>76315.0053</v>
       </c>
       <c r="G196" t="n">
-        <v>1934317.338538171</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7671,18 +6989,15 @@
         <v>717687.134</v>
       </c>
       <c r="G197" t="n">
-        <v>2652004.472538171</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7704,18 +7019,15 @@
         <v>11536.0338</v>
       </c>
       <c r="G198" t="n">
-        <v>2663540.506338171</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7737,18 +7049,15 @@
         <v>40965.0827</v>
       </c>
       <c r="G199" t="n">
-        <v>2704505.589038171</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7770,18 +7079,15 @@
         <v>654981.4261</v>
       </c>
       <c r="G200" t="n">
-        <v>2704505.589038171</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7803,18 +7109,15 @@
         <v>285063</v>
       </c>
       <c r="G201" t="n">
-        <v>2704505.589038171</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7836,18 +7139,15 @@
         <v>1554.9456</v>
       </c>
       <c r="G202" t="n">
-        <v>2706060.534638171</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7869,18 +7169,15 @@
         <v>6301.0544</v>
       </c>
       <c r="G203" t="n">
-        <v>2706060.534638171</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7902,18 +7199,15 @@
         <v>3001.856</v>
       </c>
       <c r="G204" t="n">
-        <v>2703058.678638171</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7935,18 +7229,15 @@
         <v>1609063.4507</v>
       </c>
       <c r="G205" t="n">
-        <v>1093995.227938171</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7968,18 +7259,15 @@
         <v>864702.0307589135</v>
       </c>
       <c r="G206" t="n">
-        <v>1958697.258697085</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8001,18 +7289,15 @@
         <v>302738.9953</v>
       </c>
       <c r="G207" t="n">
-        <v>1958697.258697085</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8034,18 +7319,15 @@
         <v>87875.01210000001</v>
       </c>
       <c r="G208" t="n">
-        <v>2046572.270797085</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8067,18 +7349,15 @@
         <v>228078.4093</v>
       </c>
       <c r="G209" t="n">
-        <v>2274650.680097084</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8100,18 +7379,15 @@
         <v>44420.21147041517</v>
       </c>
       <c r="G210" t="n">
-        <v>2319070.8915675</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8133,18 +7409,15 @@
         <v>500</v>
       </c>
       <c r="G211" t="n">
-        <v>2319570.8915675</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8166,18 +7439,15 @@
         <v>11220</v>
       </c>
       <c r="G212" t="n">
-        <v>2308350.8915675</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8199,18 +7469,15 @@
         <v>496411.7868</v>
       </c>
       <c r="G213" t="n">
-        <v>1811939.1047675</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8232,18 +7499,15 @@
         <v>258195.0487</v>
       </c>
       <c r="G214" t="n">
-        <v>2070134.1534675</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8265,18 +7529,15 @@
         <v>4414.923</v>
       </c>
       <c r="G215" t="n">
-        <v>2074549.0764675</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8298,18 +7559,19 @@
         <v>500</v>
       </c>
       <c r="G216" t="n">
-        <v>2075049.0764675</v>
+        <v>1</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>2.957</v>
+      </c>
+      <c r="I216" t="n">
+        <v>2.957</v>
+      </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8331,18 +7593,21 @@
         <v>96675.8024</v>
       </c>
       <c r="G217" t="n">
-        <v>2075049.0764675</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8364,18 +7629,21 @@
         <v>1026211.1063</v>
       </c>
       <c r="G218" t="n">
-        <v>1048837.9701675</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8397,18 +7665,21 @@
         <v>500</v>
       </c>
       <c r="G219" t="n">
-        <v>1049337.9701675</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8430,18 +7701,21 @@
         <v>4288.8378</v>
       </c>
       <c r="G220" t="n">
-        <v>1045049.1323675</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8463,18 +7737,21 @@
         <v>2504.8956</v>
       </c>
       <c r="G221" t="n">
-        <v>1047554.0279675</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8496,18 +7773,21 @@
         <v>6999.0837</v>
       </c>
       <c r="G222" t="n">
-        <v>1040554.9442675</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8529,18 +7809,21 @@
         <v>14341.6346</v>
       </c>
       <c r="G223" t="n">
-        <v>1054896.5788675</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8562,18 +7845,21 @@
         <v>2081</v>
       </c>
       <c r="G224" t="n">
-        <v>1056977.5788675</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8595,18 +7881,21 @@
         <v>1205.856</v>
       </c>
       <c r="G225" t="n">
-        <v>1056977.5788675</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8628,18 +7917,21 @@
         <v>60024.144</v>
       </c>
       <c r="G226" t="n">
-        <v>1056977.5788675</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8661,18 +7953,21 @@
         <v>6999.0837</v>
       </c>
       <c r="G227" t="n">
-        <v>1063976.6625675</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8694,18 +7989,21 @@
         <v>9391.1751</v>
       </c>
       <c r="G228" t="n">
-        <v>1073367.8376675</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8727,18 +8025,21 @@
         <v>699009.5600000001</v>
       </c>
       <c r="G229" t="n">
-        <v>374358.2776675003</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8760,18 +8061,21 @@
         <v>29610</v>
       </c>
       <c r="G230" t="n">
-        <v>403968.2776675003</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8793,18 +8097,21 @@
         <v>5891.856</v>
       </c>
       <c r="G231" t="n">
-        <v>398076.4216675003</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8826,18 +8133,21 @@
         <v>70840.9791</v>
       </c>
       <c r="G232" t="n">
-        <v>327235.4425675003</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8859,18 +8169,21 @@
         <v>500</v>
       </c>
       <c r="G233" t="n">
-        <v>327735.4425675003</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8892,18 +8205,21 @@
         <v>447741.3792</v>
       </c>
       <c r="G234" t="n">
-        <v>-120005.9366324997</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8925,18 +8241,21 @@
         <v>1204.856</v>
       </c>
       <c r="G235" t="n">
-        <v>-118801.0806324997</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8958,18 +8277,21 @@
         <v>1263990.7246</v>
       </c>
       <c r="G236" t="n">
-        <v>-1382791.8052325</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8991,18 +8313,21 @@
         <v>423520</v>
       </c>
       <c r="G237" t="n">
-        <v>-959271.8052324997</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9024,18 +8349,21 @@
         <v>155663.6977</v>
       </c>
       <c r="G238" t="n">
-        <v>-803608.1075324997</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9057,18 +8385,21 @@
         <v>411958.8056</v>
       </c>
       <c r="G239" t="n">
-        <v>-1215566.9131325</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9090,18 +8421,21 @@
         <v>126977.0704</v>
       </c>
       <c r="G240" t="n">
-        <v>-1088589.8427325</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9123,18 +8457,21 @@
         <v>16501</v>
       </c>
       <c r="G241" t="n">
-        <v>-1072088.8427325</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9156,18 +8493,21 @@
         <v>149466.1473</v>
       </c>
       <c r="G242" t="n">
-        <v>-922622.6954324995</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9189,18 +8529,21 @@
         <v>14420.4625</v>
       </c>
       <c r="G243" t="n">
-        <v>-922622.6954324995</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9222,18 +8565,21 @@
         <v>25083.56</v>
       </c>
       <c r="G244" t="n">
-        <v>-897539.1354324995</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9255,18 +8601,21 @@
         <v>140507.5422</v>
       </c>
       <c r="G245" t="n">
-        <v>-1038046.677632499</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9288,18 +8637,21 @@
         <v>198958.8833</v>
       </c>
       <c r="G246" t="n">
-        <v>-1237005.560932499</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9321,18 +8673,21 @@
         <v>77779.1921</v>
       </c>
       <c r="G247" t="n">
-        <v>-1159226.368832499</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9354,18 +8709,21 @@
         <v>10011.418</v>
       </c>
       <c r="G248" t="n">
-        <v>-1149214.950832499</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9387,18 +8745,21 @@
         <v>103206.9135</v>
       </c>
       <c r="G249" t="n">
-        <v>-1252421.864332499</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9420,18 +8781,21 @@
         <v>3804.0932</v>
       </c>
       <c r="G250" t="n">
-        <v>-1256225.957532499</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9453,18 +8817,21 @@
         <v>4275.7401</v>
       </c>
       <c r="G251" t="n">
-        <v>-1256225.957532499</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9486,18 +8853,21 @@
         <v>5005.85</v>
       </c>
       <c r="G252" t="n">
-        <v>-1251220.107532499</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9519,18 +8889,21 @@
         <v>8008.9653</v>
       </c>
       <c r="G253" t="n">
-        <v>-1251220.107532499</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9552,18 +8925,21 @@
         <v>12074.63</v>
       </c>
       <c r="G254" t="n">
-        <v>-1263294.737532499</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9585,18 +8961,21 @@
         <v>2776.4537</v>
       </c>
       <c r="G255" t="n">
-        <v>-1263294.737532499</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9618,18 +8997,21 @@
         <v>40310</v>
       </c>
       <c r="G256" t="n">
-        <v>-1303604.737532499</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9651,18 +9033,21 @@
         <v>13440</v>
       </c>
       <c r="G257" t="n">
-        <v>-1303604.737532499</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9684,18 +9069,21 @@
         <v>13248.6486</v>
       </c>
       <c r="G258" t="n">
-        <v>-1316853.386132499</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9717,18 +9105,21 @@
         <v>24220.0334</v>
       </c>
       <c r="G259" t="n">
-        <v>-1341073.419532499</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9750,18 +9141,21 @@
         <v>3358.5911</v>
       </c>
       <c r="G260" t="n">
-        <v>-1344432.010632499</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9783,18 +9177,21 @@
         <v>3735.5442</v>
       </c>
       <c r="G261" t="n">
-        <v>-1348167.554832499</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9816,18 +9213,21 @@
         <v>6602.0497</v>
       </c>
       <c r="G262" t="n">
-        <v>-1348167.554832499</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9849,18 +9249,21 @@
         <v>331.856</v>
       </c>
       <c r="G263" t="n">
-        <v>-1347835.698832499</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9882,18 +9285,21 @@
         <v>7007.563</v>
       </c>
       <c r="G264" t="n">
-        <v>-1354843.261832499</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9915,18 +9321,21 @@
         <v>500</v>
       </c>
       <c r="G265" t="n">
-        <v>-1354343.261832499</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9948,22 +9357,21 @@
         <v>2538.977</v>
       </c>
       <c r="G266" t="n">
-        <v>-1356882.238832499</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="J266" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+        <v>2.957</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9985,26 +9393,21 @@
         <v>35383.2014</v>
       </c>
       <c r="G267" t="n">
-        <v>-1392265.440232499</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="n">
-        <v>2.994</v>
-      </c>
-      <c r="J267" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+        <v>2.957</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10026,26 +9429,21 @@
         <v>1354017.292</v>
       </c>
       <c r="G268" t="n">
-        <v>-2746282.732232499</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="J268" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+        <v>2.957</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10067,26 +9465,21 @@
         <v>12695.246</v>
       </c>
       <c r="G269" t="n">
-        <v>-2733587.486232499</v>
-      </c>
-      <c r="H269" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="J269" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+        <v>2.957</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10108,26 +9501,21 @@
         <v>2002.896</v>
       </c>
       <c r="G270" t="n">
-        <v>-2731584.590232499</v>
-      </c>
-      <c r="H270" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="J270" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+        <v>2.957</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10149,26 +9537,21 @@
         <v>77997.10400000001</v>
       </c>
       <c r="G271" t="n">
-        <v>-2731584.590232499</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="J271" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+        <v>2.957</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10190,26 +9573,21 @@
         <v>500</v>
       </c>
       <c r="G272" t="n">
-        <v>-2731084.590232499</v>
-      </c>
-      <c r="H272" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="J272" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+        <v>2.957</v>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10231,26 +9609,21 @@
         <v>11074.856</v>
       </c>
       <c r="G273" t="n">
-        <v>-2742159.446232499</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="n">
-        <v>3.001</v>
-      </c>
-      <c r="J273" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+        <v>2.957</v>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10272,26 +9645,21 @@
         <v>5098.3871</v>
       </c>
       <c r="G274" t="n">
-        <v>-2747257.833332499</v>
-      </c>
-      <c r="H274" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="n">
-        <v>2.999</v>
-      </c>
-      <c r="J274" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+        <v>2.957</v>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10313,26 +9681,21 @@
         <v>6998.4689</v>
       </c>
       <c r="G275" t="n">
-        <v>-2747257.833332499</v>
-      </c>
-      <c r="H275" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="n">
-        <v>2.991</v>
-      </c>
-      <c r="J275" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+        <v>2.957</v>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10354,26 +9717,21 @@
         <v>16265.5545</v>
       </c>
       <c r="G276" t="n">
-        <v>-2730992.278832499</v>
-      </c>
-      <c r="H276" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="n">
-        <v>2.991</v>
-      </c>
-      <c r="J276" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+        <v>2.957</v>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10395,26 +9753,21 @@
         <v>2002.963</v>
       </c>
       <c r="G277" t="n">
-        <v>-2728989.315832499</v>
-      </c>
-      <c r="H277" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="n">
-        <v>2.999</v>
-      </c>
-      <c r="J277" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+        <v>2.957</v>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10436,26 +9789,21 @@
         <v>5349.6887</v>
       </c>
       <c r="G278" t="n">
-        <v>-2734339.004532499</v>
-      </c>
-      <c r="H278" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="n">
-        <v>3.011</v>
-      </c>
-      <c r="J278" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+        <v>2.957</v>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10477,26 +9825,21 @@
         <v>8647.983399999999</v>
       </c>
       <c r="G279" t="n">
-        <v>-2734339.004532499</v>
-      </c>
-      <c r="H279" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="n">
-        <v>2.999</v>
-      </c>
-      <c r="J279" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+        <v>2.957</v>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10518,26 +9861,21 @@
         <v>3356.0026</v>
       </c>
       <c r="G280" t="n">
-        <v>-2734339.004532499</v>
-      </c>
-      <c r="H280" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="n">
-        <v>2.999</v>
-      </c>
-      <c r="J280" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+        <v>2.957</v>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10559,26 +9897,23 @@
         <v>9009.856</v>
       </c>
       <c r="G281" t="n">
-        <v>-2725329.148532499</v>
+        <v>1</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>2.999</v>
       </c>
       <c r="I281" t="n">
-        <v>2.999</v>
-      </c>
-      <c r="J281" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+        <v>2.957</v>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10600,26 +9935,21 @@
         <v>4001.856</v>
       </c>
       <c r="G282" t="n">
-        <v>-2729331.004532499</v>
-      </c>
-      <c r="H282" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="n">
-        <v>3.001</v>
-      </c>
-      <c r="J282" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+        <v>2.957</v>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10641,26 +9971,21 @@
         <v>6393.5206</v>
       </c>
       <c r="G283" t="n">
-        <v>-2729331.004532499</v>
-      </c>
-      <c r="H283" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="n">
-        <v>2.999</v>
-      </c>
-      <c r="J283" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+        <v>2.957</v>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10682,26 +10007,21 @@
         <v>41600</v>
       </c>
       <c r="G284" t="n">
-        <v>-2687731.004532499</v>
-      </c>
-      <c r="H284" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="n">
-        <v>2.999</v>
-      </c>
-      <c r="J284" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+        <v>2.957</v>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
